--- a/Userstories and TDD Testcases For College Admission Predictor project modified.xlsx
+++ b/Userstories and TDD Testcases For College Admission Predictor project modified.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94410113-F4E0-4F5A-B3A0-E2A3E48FD155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="7" xr2:uid="{F8DDDC97-E68A-4059-97E4-416CD6ABA8EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="5" state="hidden" r:id="rId1"/>
@@ -34,7 +28,7 @@
     <sheet name="Dheeraj TDD Test Cases" sheetId="3" r:id="rId19"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="316">
   <si>
     <t>TDD Test Cases</t>
   </si>
@@ -371,46 +365,6 @@
     <t>A message will be thrown that college is already exists.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>EPIC</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                          USER STORIES</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>As a/an</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>I Want To</t>
   </si>
   <si>
@@ -1165,15 +1119,33 @@
   <si>
     <t>Yet to  start</t>
   </si>
+  <si>
+    <t>Actual Date</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>USER STORIES</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,13 +1253,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="28"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Times New Roman"/>
@@ -1302,20 +1267,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="22"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1406,6 +1358,33 @@
       <sz val="11"/>
       <color indexed="4"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="22">
@@ -1536,7 +1515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -2120,15 +2099,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2256,39 +2248,11 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2309,43 +2273,43 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2360,31 +2324,31 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
@@ -2497,70 +2461,70 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="19" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="19" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2572,31 +2536,55 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2647,27 +2635,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2719,33 +2704,53 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{73FC98E7-B260-467A-9D49-838B49D2866B}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3049,14 +3054,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB343606-E724-4730-902C-CFCFA893DCD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3069,12 +3074,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B6C47B-4135-48C6-8024-788ABEAAF596}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3097,82 +3102,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="166"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
     </row>
     <row r="4" spans="1:16" ht="26.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="169" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="170"/>
+      <c r="B4" s="167" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="168"/>
     </row>
     <row r="5" spans="1:16" ht="60.75" customHeight="1">
       <c r="A5" s="14"/>
@@ -3201,13 +3206,13 @@
         <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M5" s="32" t="s">
         <v>32</v>
@@ -3223,133 +3228,133 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="96.6" customHeight="1">
-      <c r="A6" s="171" t="s">
-        <v>242</v>
+      <c r="A6" s="169" t="s">
+        <v>239</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>264</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>267</v>
       </c>
       <c r="H6" s="19">
         <v>2</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="204">
+      <c r="J6" s="144">
         <v>43977</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="L6" s="205">
+        <v>310</v>
+      </c>
+      <c r="L6" s="145">
         <v>43979</v>
       </c>
-      <c r="M6" s="94"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="37"/>
       <c r="O6" s="22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="66.75" customHeight="1">
-      <c r="A7" s="172"/>
+      <c r="A7" s="170"/>
       <c r="B7" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H7" s="19">
         <v>1</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="204">
+      <c r="J7" s="144">
         <v>43979</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="L7" s="205">
+        <v>310</v>
+      </c>
+      <c r="L7" s="145">
         <v>43980</v>
       </c>
-      <c r="M7" s="119" t="s">
-        <v>245</v>
+      <c r="M7" s="109" t="s">
+        <v>242</v>
       </c>
       <c r="N7" s="37"/>
       <c r="O7" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="63" customHeight="1">
+      <c r="A8" s="170"/>
+      <c r="B8" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="63" customHeight="1">
-      <c r="A8" s="172"/>
-      <c r="B8" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>254</v>
-      </c>
       <c r="E8" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H8" s="19">
         <v>1</v>
       </c>
       <c r="I8" s="19"/>
-      <c r="J8" s="204">
+      <c r="J8" s="144">
         <v>43980</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="L8" s="205">
+        <v>310</v>
+      </c>
+      <c r="L8" s="145">
         <v>43983</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="37"/>
       <c r="O8" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3364,7 +3369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E392C5-26D4-45E1-B9CF-A9ABD63E98CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BY136"/>
   <sheetViews>
@@ -3384,25 +3389,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="15" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
@@ -3467,21 +3472,21 @@
       <c r="BY1" s="11"/>
     </row>
     <row r="2" spans="1:77" ht="15" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -3546,21 +3551,21 @@
       <c r="BY2" s="11"/>
     </row>
     <row r="3" spans="1:77" ht="15" customHeight="1">
-      <c r="A3" s="166"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -3626,20 +3631,20 @@
     </row>
     <row r="4" spans="1:77" ht="26.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="170"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="168"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -3730,10 +3735,10 @@
         <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>32</v>
@@ -3811,44 +3816,44 @@
       <c r="BY5" s="11"/>
     </row>
     <row r="6" spans="1:77" ht="45" customHeight="1">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="171" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>201</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>204</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19">
         <v>3</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="204">
+      <c r="J6" s="144">
         <v>43983</v>
       </c>
-      <c r="K6" s="204">
+      <c r="K6" s="144">
         <v>43987</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -3914,42 +3919,42 @@
       <c r="BY6" s="11"/>
     </row>
     <row r="7" spans="1:77" ht="45">
-      <c r="A7" s="173"/>
-      <c r="B7" s="95" t="s">
+      <c r="A7" s="171"/>
+      <c r="B7" s="85" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="19"/>
-      <c r="H7" s="94">
+      <c r="H7" s="84">
         <v>2</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="204">
+      <c r="J7" s="144">
         <v>43977</v>
       </c>
-      <c r="K7" s="204">
+      <c r="K7" s="144">
         <v>43979</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -4015,41 +4020,41 @@
       <c r="BY7" s="11"/>
     </row>
     <row r="8" spans="1:77" ht="45">
-      <c r="A8" s="173"/>
-      <c r="B8" s="95" t="s">
-        <v>102</v>
+      <c r="A8" s="171"/>
+      <c r="B8" s="85" t="s">
+        <v>99</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>214</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>217</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19">
         <v>3</v>
       </c>
       <c r="I8" s="19"/>
-      <c r="J8" s="204">
+      <c r="J8" s="144">
         <v>43977</v>
       </c>
-      <c r="K8" s="204">
+      <c r="K8" s="144">
         <v>43980</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -4115,12 +4120,12 @@
       <c r="BY8" s="11"/>
     </row>
     <row r="9" spans="1:77" ht="45">
-      <c r="A9" s="173"/>
-      <c r="B9" s="95" t="s">
+      <c r="A9" s="171"/>
+      <c r="B9" s="85" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>47</v>
@@ -4136,14 +4141,14 @@
         <v>3</v>
       </c>
       <c r="I9" s="19"/>
-      <c r="J9" s="204">
+      <c r="J9" s="144">
         <v>43979</v>
       </c>
-      <c r="K9" s="204">
+      <c r="K9" s="144">
         <v>43985</v>
       </c>
-      <c r="L9" s="152" t="s">
-        <v>211</v>
+      <c r="L9" s="142" t="s">
+        <v>208</v>
       </c>
       <c r="N9" s="22" t="s">
         <v>51</v>
@@ -4215,12 +4220,12 @@
       <c r="BY9" s="11"/>
     </row>
     <row r="10" spans="1:77" ht="45">
-      <c r="A10" s="174"/>
-      <c r="B10" s="95" t="s">
+      <c r="A10" s="172"/>
+      <c r="B10" s="85" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>54</v>
@@ -4236,14 +4241,14 @@
         <v>3</v>
       </c>
       <c r="I10" s="19"/>
-      <c r="J10" s="204">
+      <c r="J10" s="144">
         <v>43985</v>
       </c>
-      <c r="K10" s="204">
+      <c r="K10" s="144">
         <v>43990</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N10" s="22" t="s">
         <v>57</v>
@@ -4315,20 +4320,20 @@
       <c r="BY10" s="11"/>
     </row>
     <row r="11" spans="1:77" ht="45" customHeight="1">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="169" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>64</v>
@@ -4338,20 +4343,20 @@
         <v>2</v>
       </c>
       <c r="I11" s="19"/>
-      <c r="J11" s="204">
+      <c r="J11" s="144">
         <v>43977</v>
       </c>
-      <c r="K11" s="204">
+      <c r="K11" s="144">
         <v>43983</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -4417,18 +4422,18 @@
       <c r="BY11" s="11"/>
     </row>
     <row r="12" spans="1:77" ht="45">
-      <c r="A12" s="172"/>
+      <c r="A12" s="170"/>
       <c r="B12" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>41</v>
@@ -4438,20 +4443,20 @@
         <v>3</v>
       </c>
       <c r="I12" s="19"/>
-      <c r="J12" s="204">
+      <c r="J12" s="144">
         <v>43977</v>
       </c>
-      <c r="K12" s="204">
+      <c r="K12" s="144">
         <v>43980</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -4517,18 +4522,18 @@
       <c r="BY12" s="11"/>
     </row>
     <row r="13" spans="1:77" ht="45">
-      <c r="A13" s="172"/>
+      <c r="A13" s="170"/>
       <c r="B13" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>64</v>
@@ -4538,20 +4543,20 @@
         <v>1</v>
       </c>
       <c r="I13" s="19"/>
-      <c r="J13" s="204">
+      <c r="J13" s="144">
         <v>43979</v>
       </c>
-      <c r="K13" s="204">
+      <c r="K13" s="144">
         <v>43980</v>
       </c>
-      <c r="L13" s="176" t="s">
-        <v>233</v>
+      <c r="L13" s="174" t="s">
+        <v>230</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="O13" s="96" t="s">
-        <v>235</v>
+        <v>231</v>
+      </c>
+      <c r="O13" s="86" t="s">
+        <v>232</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -4617,39 +4622,39 @@
       <c r="BY13" s="11"/>
     </row>
     <row r="14" spans="1:77" ht="60">
-      <c r="A14" s="175"/>
-      <c r="B14" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="98" t="s">
+      <c r="A14" s="173"/>
+      <c r="B14" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="G14" s="84"/>
+      <c r="H14" s="84">
+        <v>2</v>
+      </c>
+      <c r="I14" s="88"/>
+      <c r="J14" s="149">
+        <v>43977</v>
+      </c>
+      <c r="K14" s="150">
+        <v>43979</v>
+      </c>
+      <c r="L14" s="175"/>
+      <c r="N14" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="E14" s="94" t="s">
+      <c r="O14" s="91" t="s">
         <v>238</v>
-      </c>
-      <c r="F14" s="94" t="s">
-        <v>239</v>
-      </c>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94">
-        <v>2</v>
-      </c>
-      <c r="I14" s="98"/>
-      <c r="J14" s="210">
-        <v>43977</v>
-      </c>
-      <c r="K14" s="211">
-        <v>43979</v>
-      </c>
-      <c r="L14" s="177"/>
-      <c r="N14" s="100" t="s">
-        <v>240</v>
-      </c>
-      <c r="O14" s="101" t="s">
-        <v>241</v>
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -4715,42 +4720,42 @@
       <c r="BY14" s="11"/>
     </row>
     <row r="15" spans="1:77" ht="78.75">
-      <c r="A15" s="102" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" s="103" t="s">
-        <v>102</v>
+      <c r="A15" s="92" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="93" t="s">
+        <v>99</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H15" s="29">
         <v>2</v>
       </c>
-      <c r="J15" s="207">
+      <c r="J15" s="146">
         <v>43977</v>
       </c>
-      <c r="K15" s="208">
+      <c r="K15" s="147">
         <v>43979</v>
       </c>
-      <c r="L15" s="104" t="s">
-        <v>245</v>
-      </c>
-      <c r="M15" s="105"/>
-      <c r="N15" s="106" t="s">
-        <v>246</v>
-      </c>
-      <c r="O15" s="107" t="s">
-        <v>247</v>
+      <c r="L15" s="94" t="s">
+        <v>242</v>
+      </c>
+      <c r="M15" s="95"/>
+      <c r="N15" s="96" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="97" t="s">
+        <v>244</v>
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -4816,40 +4821,40 @@
       <c r="BY15" s="11"/>
     </row>
     <row r="16" spans="1:77" ht="45">
-      <c r="A16" s="108"/>
-      <c r="B16" s="109" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="110" t="s">
+      <c r="A16" s="98"/>
+      <c r="B16" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100">
+        <v>1</v>
+      </c>
+      <c r="I16" s="100"/>
+      <c r="J16" s="148">
+        <v>43979</v>
+      </c>
+      <c r="K16" s="148">
+        <v>43980</v>
+      </c>
+      <c r="L16" s="94"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="101" t="s">
         <v>248</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="O16" s="102" t="s">
         <v>249</v>
-      </c>
-      <c r="E16" s="110" t="s">
-        <v>250</v>
-      </c>
-      <c r="F16" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110">
-        <v>1</v>
-      </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="209">
-        <v>43979</v>
-      </c>
-      <c r="K16" s="209">
-        <v>43980</v>
-      </c>
-      <c r="L16" s="104"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="111" t="s">
-        <v>251</v>
-      </c>
-      <c r="O16" s="112" t="s">
-        <v>252</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -4915,21 +4920,21 @@
       <c r="BY16" s="11"/>
     </row>
     <row r="17" spans="1:77" ht="26.25">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="107"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="97"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -4994,18 +4999,18 @@
       <c r="BY17" s="11"/>
     </row>
     <row r="18" spans="1:77" ht="45">
-      <c r="A18" s="151"/>
-      <c r="B18" s="103" t="s">
-        <v>102</v>
+      <c r="A18" s="141"/>
+      <c r="B18" s="93" t="s">
+        <v>99</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="D18" s="114" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="D18" s="104" t="s">
+        <v>251</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>41</v>
@@ -5013,18 +5018,18 @@
       <c r="H18" s="29">
         <v>1</v>
       </c>
-      <c r="J18" s="207">
+      <c r="J18" s="146">
         <v>43980</v>
       </c>
-      <c r="K18" s="207">
+      <c r="K18" s="146">
         <v>43983</v>
       </c>
-      <c r="L18" s="113"/>
-      <c r="N18" s="115" t="s">
-        <v>256</v>
-      </c>
-      <c r="O18" s="116" t="s">
-        <v>252</v>
+      <c r="L18" s="103"/>
+      <c r="N18" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="O18" s="106" t="s">
+        <v>249</v>
       </c>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
@@ -5090,18 +5095,18 @@
       <c r="BY18" s="11"/>
     </row>
     <row r="19" spans="1:77" ht="45">
-      <c r="A19" s="150"/>
-      <c r="B19" s="103" t="s">
+      <c r="A19" s="140"/>
+      <c r="B19" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="104" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>257</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="114" t="s">
-        <v>259</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>260</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>41</v>
@@ -5109,21 +5114,21 @@
       <c r="H19" s="29">
         <v>2</v>
       </c>
-      <c r="J19" s="207">
+      <c r="J19" s="146">
         <v>43980</v>
       </c>
-      <c r="K19" s="207">
+      <c r="K19" s="146">
         <v>43984</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="M19" s="113"/>
-      <c r="N19" s="115" t="s">
-        <v>261</v>
-      </c>
-      <c r="O19" s="117" t="s">
-        <v>262</v>
+        <v>225</v>
+      </c>
+      <c r="M19" s="103"/>
+      <c r="N19" s="105" t="s">
+        <v>258</v>
+      </c>
+      <c r="O19" s="107" t="s">
+        <v>259</v>
       </c>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
@@ -5190,7 +5195,7 @@
     </row>
     <row r="20" spans="1:77">
       <c r="A20" s="27"/>
-      <c r="B20" s="118"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -7498,7 +7503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCC3B85-F83E-4AC2-9711-288028A06D24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:P7"/>
   <sheetViews>
@@ -7526,84 +7531,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="166"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
     </row>
     <row r="4" spans="1:16" ht="26.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="170"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="168"/>
     </row>
     <row r="5" spans="1:16" ht="50.25" customHeight="1">
-      <c r="A5" s="172" t="s">
-        <v>183</v>
+      <c r="A5" s="170" t="s">
+        <v>180</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>23</v>
@@ -7630,10 +7635,10 @@
         <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L5" s="32" t="s">
         <v>31</v>
@@ -7652,89 +7657,89 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="114" customHeight="1">
-      <c r="A6" s="172"/>
+      <c r="A6" s="170"/>
       <c r="B6" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="G6" s="19" t="s">
         <v>186</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>189</v>
       </c>
       <c r="H6" s="19">
         <v>1</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="204">
+      <c r="J6" s="144">
         <v>43977</v>
       </c>
-      <c r="K6" s="205">
+      <c r="K6" s="145">
         <v>43978</v>
       </c>
-      <c r="L6" s="94" t="s">
-        <v>313</v>
-      </c>
-      <c r="M6" s="178" t="s">
-        <v>190</v>
+      <c r="L6" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="M6" s="176" t="s">
+        <v>187</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="120" customHeight="1">
+      <c r="A7" s="170"/>
+      <c r="B7" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="E7" s="19" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="120" customHeight="1">
-      <c r="A7" s="172"/>
-      <c r="B7" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>197</v>
       </c>
       <c r="H7" s="19">
         <v>2</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="204">
+      <c r="J7" s="144">
         <v>43978</v>
       </c>
-      <c r="K7" s="205">
+      <c r="K7" s="145">
         <v>43980</v>
       </c>
-      <c r="L7" s="94" t="s">
-        <v>313</v>
-      </c>
-      <c r="M7" s="179"/>
+      <c r="L7" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="M7" s="177"/>
       <c r="N7" s="19"/>
       <c r="O7" s="22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7750,7 +7755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A107995-AA33-435B-B548-121827E8C958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -7770,22 +7775,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -7808,16 +7813,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="82" t="s">
         <v>169</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="82.5" customHeight="1">
@@ -7825,16 +7830,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="70.5" customHeight="1">
@@ -7842,16 +7847,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="70.5" customHeight="1">
@@ -7859,16 +7864,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -7880,12 +7885,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9E2B88-45A3-4BD3-A031-B052EFD9A0DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7900,196 +7905,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="148.5" customHeight="1">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="D3" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="159" customHeight="1">
+      <c r="A4" s="58">
         <v>2</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="B4" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="159" customHeight="1">
+      <c r="A5" s="63">
         <v>3</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="B5" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="163.5" customHeight="1">
+      <c r="A6" s="68">
         <v>4</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="B6" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="168.75" customHeight="1">
+      <c r="A7" s="58">
         <v>5</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="B7" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="85.5" customHeight="1">
+      <c r="A8" s="70">
         <v>6</v>
       </c>
-      <c r="G2" s="61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="148.5" customHeight="1">
-      <c r="A3" s="63">
-        <v>1</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="159" customHeight="1">
-      <c r="A4" s="68">
-        <v>2</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="159" customHeight="1">
-      <c r="A5" s="73">
-        <v>3</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="163.5" customHeight="1">
-      <c r="A6" s="78">
-        <v>4</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="168.75" customHeight="1">
-      <c r="A7" s="68">
-        <v>5</v>
-      </c>
-      <c r="B7" s="69" t="s">
+      <c r="B8" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="76" t="s">
+      <c r="C8" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="D8" s="66" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="85.5" customHeight="1">
-      <c r="A8" s="80">
-        <v>6</v>
-      </c>
-      <c r="B8" s="81" t="s">
+      <c r="E8" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="82" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="84.75" customHeight="1">
+      <c r="A9" s="70">
+        <v>7</v>
+      </c>
+      <c r="B9" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="C9" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E9" s="67" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="84.75" customHeight="1">
-      <c r="A9" s="80">
-        <v>7</v>
-      </c>
-      <c r="B9" s="83" t="s">
+    <row r="10" spans="1:7" ht="128.25" customHeight="1">
+      <c r="A10" s="74">
+        <v>8</v>
+      </c>
+      <c r="B10" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="83" t="s">
+      <c r="C10" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="D10" s="77" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="93" customHeight="1">
-      <c r="A10" s="84">
-        <v>8</v>
-      </c>
-      <c r="B10" s="85" t="s">
+      <c r="E10" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="86" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="130.5" customHeight="1">
+      <c r="A11" s="63">
+        <v>9</v>
+      </c>
+      <c r="B11" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="C11" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E11" s="67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="105" customHeight="1">
-      <c r="A11" s="73">
-        <v>9</v>
-      </c>
-      <c r="B11" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>166</v>
-      </c>
-    </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="90"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="90"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8101,357 +8106,360 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABFFB26-7EFF-4376-89A1-4DB85C78FFB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="53" customWidth="1"/>
-    <col min="2" max="3" width="19.85546875" style="53" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" style="53" customWidth="1"/>
-    <col min="7" max="7" width="29" style="53" customWidth="1"/>
-    <col min="8" max="8" width="54.7109375" style="53" customWidth="1"/>
-    <col min="9" max="10" width="18.42578125" style="53" customWidth="1"/>
-    <col min="11" max="11" width="16" style="53" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="53" customWidth="1"/>
-    <col min="13" max="13" width="16" style="53" customWidth="1"/>
-    <col min="14" max="15" width="15" style="53" customWidth="1"/>
-    <col min="16" max="16" width="47.140625" style="53" customWidth="1"/>
-    <col min="17" max="17" width="46.28515625" style="53" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="48.85546875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="50.28515625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="48.140625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="54.7109375" style="46" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="46" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="46" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" style="46" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="46" customWidth="1"/>
+    <col min="13" max="13" width="26" style="46" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="46" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" style="46" customWidth="1"/>
+    <col min="16" max="16" width="66" style="46" customWidth="1"/>
+    <col min="17" max="17" width="72.85546875" style="46" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="44" customFormat="1" ht="42" customHeight="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:29" s="43" customFormat="1" ht="72" customHeight="1">
+      <c r="A1" s="212" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="208" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="209"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+      <c r="P1" s="210"/>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="210"/>
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="210"/>
+      <c r="AB1" s="210"/>
+      <c r="AC1" s="211"/>
+    </row>
+    <row r="2" spans="1:29" s="43" customFormat="1" ht="75.75" customHeight="1">
+      <c r="A2" s="44"/>
+      <c r="B2" s="203" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="203" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="183" t="s">
+      <c r="E2" s="203" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="184"/>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="184"/>
-      <c r="AA1" s="184"/>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="184"/>
-    </row>
-    <row r="2" spans="1:29" s="44" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46" t="s">
+      <c r="F2" s="203" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="203" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="46" t="s">
+      <c r="I2" s="203" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="J2" s="203" t="s">
+        <v>314</v>
+      </c>
+      <c r="K2" s="203" t="s">
+        <v>312</v>
+      </c>
+      <c r="L2" s="203" t="s">
+        <v>308</v>
+      </c>
+      <c r="M2" s="203" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="203" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="203" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="203" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="46" t="s">
+      <c r="Q2" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="46" t="s">
+    </row>
+    <row r="3" spans="1:29" ht="275.25" customHeight="1">
+      <c r="A3" s="202" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="L2" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="M2" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="46" t="s">
+      <c r="B3" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="C3" s="143" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" ht="123.75" customHeight="1">
-      <c r="A3" s="185" t="s">
+      <c r="D3" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="E3" s="199" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="F3" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="G3" s="199" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="H3" s="200" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="I3" s="199">
+        <v>2</v>
+      </c>
+      <c r="J3" s="204"/>
+      <c r="K3" s="205">
+        <v>43977</v>
+      </c>
+      <c r="L3" s="205">
+        <v>43979</v>
+      </c>
+      <c r="M3" s="204" t="s">
+        <v>313</v>
+      </c>
+      <c r="N3" s="204" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="O3" s="45"/>
+      <c r="P3" s="205" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="Q3" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="51">
+    </row>
+    <row r="4" spans="1:29" ht="273.75" customHeight="1">
+      <c r="A4" s="181"/>
+      <c r="B4" s="201" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="199" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="199" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="199" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="199" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="200" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="199">
+        <v>1</v>
+      </c>
+      <c r="J4" s="204"/>
+      <c r="K4" s="205">
+        <v>43979</v>
+      </c>
+      <c r="L4" s="205">
+        <v>43980</v>
+      </c>
+      <c r="M4" s="204" t="s">
+        <v>313</v>
+      </c>
+      <c r="N4" s="204" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="45"/>
+      <c r="P4" s="205" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="205" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="279" customHeight="1">
+      <c r="A5" s="181"/>
+      <c r="B5" s="201" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="143" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="199" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="199" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="199" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="199" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="200" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="206">
         <v>2</v>
       </c>
-      <c r="J3" s="206">
-        <v>43977</v>
-      </c>
-      <c r="K3" s="206">
-        <v>43979</v>
-      </c>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="N3" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" s="49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="138.75" customHeight="1">
-      <c r="A4" s="185"/>
-      <c r="B4" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="I4" s="51">
-        <v>1</v>
-      </c>
-      <c r="J4" s="206">
-        <v>43979</v>
-      </c>
-      <c r="K4" s="206">
+      <c r="J5" s="204"/>
+      <c r="K5" s="205">
         <v>43980</v>
       </c>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="N4" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q4" s="49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="124.5" customHeight="1">
-      <c r="A5" s="185"/>
-      <c r="B5" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="49" t="s">
+      <c r="L5" s="205">
+        <v>43984</v>
+      </c>
+      <c r="M5" s="204" t="s">
+        <v>313</v>
+      </c>
+      <c r="N5" s="204" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="45"/>
+      <c r="P5" s="205" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="Q5" s="205" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="55" t="s">
+    </row>
+    <row r="6" spans="1:29" ht="166.5" customHeight="1">
+      <c r="A6" s="181"/>
+      <c r="B6" s="201" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="186">
-        <v>2</v>
-      </c>
-      <c r="J5" s="206">
-        <v>43980</v>
-      </c>
-      <c r="K5" s="206">
+      <c r="D6" s="199" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="199" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="199" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="199" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="200" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="207"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204">
+        <v>43984</v>
+      </c>
+      <c r="L6" s="204">
         <v>43985</v>
       </c>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="N5" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="O5" s="51"/>
-      <c r="P5" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q5" s="49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="64.5" customHeight="1">
-      <c r="A6" s="185"/>
-      <c r="B6" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="49" t="s">
+      <c r="M6" s="204" t="s">
+        <v>313</v>
+      </c>
+      <c r="N6" s="204" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" s="45"/>
+      <c r="P6" s="205" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="Q6" s="205" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="186"/>
-      <c r="J6" s="206">
-        <v>43985</v>
-      </c>
-      <c r="K6" s="206">
-        <v>43987</v>
-      </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="N6" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="O6" s="51"/>
-      <c r="P6" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q6" s="49" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="7" spans="1:29" ht="48.75" customHeight="1">
-      <c r="A7" s="57"/>
+      <c r="A7" s="47"/>
     </row>
     <row r="8" spans="1:29" ht="15" customHeight="1">
-      <c r="A8" s="57"/>
+      <c r="A8" s="47"/>
     </row>
     <row r="9" spans="1:29" ht="15" customHeight="1">
-      <c r="A9" s="57"/>
+      <c r="A9" s="47"/>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1">
-      <c r="A10" s="57"/>
+      <c r="A10" s="47"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1">
-      <c r="A11" s="57"/>
+      <c r="A11" s="47"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1">
-      <c r="A12" s="57"/>
+      <c r="A12" s="47"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1">
-      <c r="A13" s="57"/>
+      <c r="A13" s="47"/>
     </row>
     <row r="14" spans="1:29" ht="15" customHeight="1">
-      <c r="A14" s="57"/>
+      <c r="A14" s="47"/>
     </row>
     <row r="15" spans="1:29" ht="15" customHeight="1">
-      <c r="A15" s="57"/>
+      <c r="A15" s="47"/>
     </row>
     <row r="16" spans="1:29" ht="15" customHeight="1">
-      <c r="A16" s="57"/>
+      <c r="A16" s="47"/>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1">
-      <c r="A17" s="57"/>
+      <c r="A17" s="47"/>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1">
-      <c r="A18" s="57"/>
+      <c r="A18" s="47"/>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1">
-      <c r="A19" s="57"/>
+      <c r="A19" s="47"/>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1">
-      <c r="A20" s="57"/>
+      <c r="A20" s="47"/>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1">
-      <c r="A21" s="57"/>
+      <c r="A21" s="47"/>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1">
-      <c r="A22" s="57"/>
+      <c r="A22" s="47"/>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1">
-      <c r="A23" s="57"/>
+      <c r="A23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8465,7 +8473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CADCA7A-C1CE-41C2-B251-649160FEB131}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -8484,15 +8492,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -8629,7 +8637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212F76FF-6DCE-47BF-A6A3-71B6F894D41B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P8"/>
   <sheetViews>
@@ -8657,80 +8665,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="166"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
     </row>
     <row r="4" spans="1:16" ht="26.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="170"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="168"/>
     </row>
     <row r="5" spans="1:16" ht="60.6" customHeight="1">
       <c r="A5" s="14"/>
@@ -8759,13 +8767,13 @@
         <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M5" s="32" t="s">
         <v>32</v>
@@ -8781,7 +8789,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="69.75" customHeight="1">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="182" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -8802,20 +8810,20 @@
       <c r="G6" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="176">
+      <c r="H6" s="174">
         <v>2</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="204">
+      <c r="J6" s="144">
         <v>43977</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="L6" s="205">
+        <v>311</v>
+      </c>
+      <c r="L6" s="145">
         <v>43979</v>
       </c>
-      <c r="M6" s="190" t="s">
+      <c r="M6" s="185" t="s">
         <v>66</v>
       </c>
       <c r="N6" s="37"/>
@@ -8827,7 +8835,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="66.75" customHeight="1">
-      <c r="A7" s="188"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="33" t="s">
         <v>37</v>
       </c>
@@ -8846,18 +8854,18 @@
       <c r="G7" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="189"/>
+      <c r="H7" s="184"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="204">
+      <c r="J7" s="144">
         <v>43979</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="L7" s="205">
+        <v>311</v>
+      </c>
+      <c r="L7" s="145">
         <v>43983</v>
       </c>
-      <c r="M7" s="191"/>
+      <c r="M7" s="186"/>
       <c r="N7" s="37"/>
       <c r="O7" s="38" t="s">
         <v>74</v>
@@ -8892,16 +8900,16 @@
         <v>3</v>
       </c>
       <c r="I8" s="19"/>
-      <c r="J8" s="204">
+      <c r="J8" s="144">
         <v>43983</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="L8" s="205">
+        <v>311</v>
+      </c>
+      <c r="L8" s="145">
         <v>43987</v>
       </c>
-      <c r="M8" s="191"/>
+      <c r="M8" s="186"/>
       <c r="N8" s="37"/>
       <c r="O8" s="38" t="s">
         <v>78</v>
@@ -8925,7 +8933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E52F9C9-8862-4704-9F2F-9031F724F21A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BZ155"/>
   <sheetViews>
@@ -8945,26 +8953,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="15" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="194"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="188"/>
+      <c r="P1" s="189"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
@@ -9029,22 +9037,22 @@
       <c r="BZ1" s="11"/>
     </row>
     <row r="2" spans="1:78" ht="15" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="195"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="197"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="192"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -9109,22 +9117,22 @@
       <c r="BZ2" s="11"/>
     </row>
     <row r="3" spans="1:78" ht="15" customHeight="1">
-      <c r="A3" s="166"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="200"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="194"/>
+      <c r="P3" s="195"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
@@ -9190,21 +9198,21 @@
     </row>
     <row r="4" spans="1:78" ht="26.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="201"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="170"/>
+      <c r="B4" s="196"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="168"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -9295,10 +9303,10 @@
         <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>31</v>
@@ -9379,7 +9387,7 @@
       <c r="BZ5" s="11"/>
     </row>
     <row r="6" spans="1:78" ht="90">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="171" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -9404,16 +9412,16 @@
         <v>2</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="204">
+      <c r="J6" s="144">
         <v>43977</v>
       </c>
-      <c r="K6" s="204">
+      <c r="K6" s="144">
         <v>43979</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="M6" s="202" t="s">
+        <v>309</v>
+      </c>
+      <c r="M6" s="197" t="s">
         <v>43</v>
       </c>
       <c r="N6" s="19"/>
@@ -9487,7 +9495,7 @@
       <c r="BZ6" s="11"/>
     </row>
     <row r="7" spans="1:78" ht="120">
-      <c r="A7" s="173"/>
+      <c r="A7" s="171"/>
       <c r="B7" s="18" t="s">
         <v>37</v>
       </c>
@@ -9504,22 +9512,22 @@
         <v>49</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H7" s="24">
         <v>3</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="204">
+      <c r="J7" s="144">
         <v>43979</v>
       </c>
-      <c r="K7" s="204">
+      <c r="K7" s="144">
         <v>43985</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="M7" s="203"/>
+        <v>309</v>
+      </c>
+      <c r="M7" s="198"/>
       <c r="N7" s="19"/>
       <c r="O7" s="22" t="s">
         <v>51</v>
@@ -9591,7 +9599,7 @@
       <c r="BZ7" s="11"/>
     </row>
     <row r="8" spans="1:78" ht="120">
-      <c r="A8" s="173"/>
+      <c r="A8" s="171"/>
       <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
@@ -9608,22 +9616,22 @@
         <v>56</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H8" s="24">
         <v>3</v>
       </c>
       <c r="I8" s="19"/>
-      <c r="J8" s="204">
+      <c r="J8" s="144">
         <v>43985</v>
       </c>
-      <c r="K8" s="204">
+      <c r="K8" s="144">
         <v>43990</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="M8" s="203"/>
+        <v>310</v>
+      </c>
+      <c r="M8" s="198"/>
       <c r="N8" s="19"/>
       <c r="O8" s="22" t="s">
         <v>57</v>
@@ -14525,7 +14533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEEDF21-EC0A-46BA-9571-E7879049830F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -14544,15 +14552,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
     </row>
     <row r="2" spans="1:11" ht="18.75">
       <c r="A2" s="1" t="s">
@@ -14673,7 +14681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E08C5F-3BD0-4378-B013-B1CBBFAA1618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -14686,7 +14694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B379583-A021-4200-8BB7-1C229EDC16F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -14699,7 +14707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A444CBD-3882-4D01-9E2C-6B72DEC6D916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -14712,7 +14720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE77AF93-1A49-4545-9BD4-315848FD9E69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -14725,7 +14733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DA3A2A-D515-4E9C-9E15-8BD846966469}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -14733,7 +14741,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="10" style="141"/>
+    <col min="1" max="16384" width="10" style="131"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14741,7 +14749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A091F59-1892-4D4F-9A4A-CEAF8DF19678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -14749,7 +14757,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="10" style="141"/>
+    <col min="1" max="16384" width="10" style="131"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14757,7 +14765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94DAEA-9D73-4095-800B-46F084154956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -14767,108 +14775,108 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="141" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="141" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="141" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="141" customWidth="1"/>
-    <col min="5" max="5" width="21" style="141" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="141" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="141" customWidth="1"/>
-    <col min="8" max="16384" width="10" style="141"/>
+    <col min="1" max="1" width="16.140625" style="131" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="131" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="131" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="131" customWidth="1"/>
+    <col min="5" max="5" width="21" style="131" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="131" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="131" customWidth="1"/>
+    <col min="8" max="16384" width="10" style="131"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="155"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="153"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="144" t="s">
+      <c r="E2" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="142" t="s">
+      <c r="G2" s="132" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="81.75" customHeight="1">
-      <c r="A3" s="146">
+      <c r="A3" s="136">
         <v>1</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="137" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="138" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="136">
+        <v>2</v>
+      </c>
+      <c r="B4" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C4" s="138" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="136"/>
+      <c r="E4" s="137" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="136">
+        <v>3</v>
+      </c>
+      <c r="B5" s="137" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="146">
-        <v>2</v>
-      </c>
-      <c r="B4" s="147" t="s">
+      <c r="C5" s="138" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147" t="s">
+      <c r="D5" s="139"/>
+      <c r="E5" s="137" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
-      <c r="A5" s="146">
-        <v>3</v>
-      </c>
-      <c r="B5" s="147" t="s">
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="136">
+        <v>4</v>
+      </c>
+      <c r="B6" s="137" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C6" s="138" t="s">
         <v>301</v>
       </c>
-      <c r="D5" s="149"/>
-      <c r="E5" s="147" t="s">
+      <c r="D6" s="137"/>
+      <c r="E6" s="137" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="146">
-        <v>4</v>
-      </c>
-      <c r="B6" s="147" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" s="148" t="s">
-        <v>304</v>
-      </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -14876,692 +14884,692 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{A4DA6C05-7EEC-48C3-8327-33146DDCB64E}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{87F70BC7-4FFE-41AD-A26D-40662540D4D3}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{07F90078-DB64-4891-B9D8-EC07F469D66F}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{C9CF05D7-7580-408B-AB26-104B55303BE7}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67214B1B-2453-434C-AD7F-B8B6FF43BBCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:BZ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="F5" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="141" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="141" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="141" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="141" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="141" customWidth="1"/>
-    <col min="6" max="6" width="16" style="141" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="141" customWidth="1"/>
-    <col min="8" max="8" width="10" style="141"/>
-    <col min="9" max="9" width="9.5703125" style="141" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="141" customWidth="1"/>
-    <col min="11" max="12" width="10" style="141" customWidth="1"/>
-    <col min="13" max="14" width="10" style="141"/>
-    <col min="15" max="15" width="44.7109375" style="141" customWidth="1"/>
-    <col min="16" max="16" width="50.28515625" style="141" customWidth="1"/>
-    <col min="17" max="16384" width="10" style="141"/>
+    <col min="1" max="1" width="27.42578125" style="131" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="131" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="131" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="131" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="131" customWidth="1"/>
+    <col min="6" max="6" width="16" style="131" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="131" customWidth="1"/>
+    <col min="8" max="8" width="10" style="131"/>
+    <col min="9" max="9" width="9.5703125" style="131" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="131" customWidth="1"/>
+    <col min="11" max="12" width="10" style="131" customWidth="1"/>
+    <col min="13" max="14" width="10" style="131"/>
+    <col min="15" max="15" width="44.7109375" style="131" customWidth="1"/>
+    <col min="16" max="16" width="50.28515625" style="131" customWidth="1"/>
+    <col min="17" max="16384" width="10" style="131"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="130" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="156" t="s">
+    <row r="1" spans="1:78" s="120" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="128"/>
-      <c r="AD1" s="128"/>
-      <c r="AE1" s="129"/>
-      <c r="AF1" s="129"/>
-      <c r="AG1" s="129"/>
-      <c r="AH1" s="129"/>
-      <c r="AI1" s="129"/>
-      <c r="AJ1" s="129"/>
-      <c r="AK1" s="129"/>
-      <c r="AL1" s="129"/>
-      <c r="AM1" s="129"/>
-      <c r="AN1" s="129"/>
-      <c r="AO1" s="129"/>
-      <c r="AP1" s="129"/>
-      <c r="AQ1" s="129"/>
-      <c r="AR1" s="129"/>
-      <c r="AS1" s="129"/>
-      <c r="AT1" s="129"/>
-      <c r="AU1" s="129"/>
-      <c r="AV1" s="129"/>
-      <c r="AW1" s="129"/>
-      <c r="AX1" s="129"/>
-      <c r="AY1" s="129"/>
-      <c r="AZ1" s="129"/>
-      <c r="BA1" s="129"/>
-      <c r="BB1" s="129"/>
-      <c r="BC1" s="129"/>
-      <c r="BD1" s="129"/>
-      <c r="BE1" s="129"/>
-      <c r="BF1" s="129"/>
-      <c r="BG1" s="129"/>
-      <c r="BH1" s="129"/>
-      <c r="BI1" s="129"/>
-      <c r="BJ1" s="129"/>
-      <c r="BK1" s="129"/>
-      <c r="BL1" s="129"/>
-      <c r="BM1" s="129"/>
-      <c r="BN1" s="129"/>
-      <c r="BO1" s="129"/>
-      <c r="BP1" s="129"/>
-      <c r="BQ1" s="129"/>
-      <c r="BR1" s="129"/>
-      <c r="BS1" s="129"/>
-      <c r="BT1" s="129"/>
-      <c r="BU1" s="129"/>
-      <c r="BV1" s="129"/>
-      <c r="BW1" s="129"/>
-      <c r="BX1" s="129"/>
-      <c r="BY1" s="129"/>
-      <c r="BZ1" s="129"/>
-    </row>
-    <row r="2" spans="1:78" s="130" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="157"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="129"/>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="129"/>
-      <c r="AK2" s="129"/>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="129"/>
-      <c r="AV2" s="129"/>
-      <c r="AW2" s="129"/>
-      <c r="AX2" s="129"/>
-      <c r="AY2" s="129"/>
-      <c r="AZ2" s="129"/>
-      <c r="BA2" s="129"/>
-      <c r="BB2" s="129"/>
-      <c r="BC2" s="129"/>
-      <c r="BD2" s="129"/>
-      <c r="BE2" s="129"/>
-      <c r="BF2" s="129"/>
-      <c r="BG2" s="129"/>
-      <c r="BH2" s="129"/>
-      <c r="BI2" s="129"/>
-      <c r="BJ2" s="129"/>
-      <c r="BK2" s="129"/>
-      <c r="BL2" s="129"/>
-      <c r="BM2" s="129"/>
-      <c r="BN2" s="129"/>
-      <c r="BO2" s="129"/>
-      <c r="BP2" s="129"/>
-      <c r="BQ2" s="129"/>
-      <c r="BR2" s="129"/>
-      <c r="BS2" s="129"/>
-      <c r="BT2" s="129"/>
-      <c r="BU2" s="129"/>
-      <c r="BV2" s="129"/>
-      <c r="BW2" s="129"/>
-      <c r="BX2" s="129"/>
-      <c r="BY2" s="129"/>
-      <c r="BZ2" s="129"/>
-    </row>
-    <row r="3" spans="1:78" s="130" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="157"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="129"/>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="129"/>
-      <c r="AJ3" s="129"/>
-      <c r="AK3" s="129"/>
-      <c r="AL3" s="129"/>
-      <c r="AM3" s="129"/>
-      <c r="AN3" s="129"/>
-      <c r="AO3" s="129"/>
-      <c r="AP3" s="129"/>
-      <c r="AQ3" s="129"/>
-      <c r="AR3" s="129"/>
-      <c r="AS3" s="129"/>
-      <c r="AT3" s="129"/>
-      <c r="AU3" s="129"/>
-      <c r="AV3" s="129"/>
-      <c r="AW3" s="129"/>
-      <c r="AX3" s="129"/>
-      <c r="AY3" s="129"/>
-      <c r="AZ3" s="129"/>
-      <c r="BA3" s="129"/>
-      <c r="BB3" s="129"/>
-      <c r="BC3" s="129"/>
-      <c r="BD3" s="129"/>
-      <c r="BE3" s="129"/>
-      <c r="BF3" s="129"/>
-      <c r="BG3" s="129"/>
-      <c r="BH3" s="129"/>
-      <c r="BI3" s="129"/>
-      <c r="BJ3" s="129"/>
-      <c r="BK3" s="129"/>
-      <c r="BL3" s="129"/>
-      <c r="BM3" s="129"/>
-      <c r="BN3" s="129"/>
-      <c r="BO3" s="129"/>
-      <c r="BP3" s="129"/>
-      <c r="BQ3" s="129"/>
-      <c r="BR3" s="129"/>
-      <c r="BS3" s="129"/>
-      <c r="BT3" s="129"/>
-      <c r="BU3" s="129"/>
-      <c r="BV3" s="129"/>
-      <c r="BW3" s="129"/>
-      <c r="BX3" s="129"/>
-      <c r="BY3" s="129"/>
-      <c r="BZ3" s="129"/>
-    </row>
-    <row r="4" spans="1:78" s="130" customFormat="1" ht="26.25">
-      <c r="A4" s="131"/>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="129"/>
-      <c r="AH4" s="129"/>
-      <c r="AI4" s="129"/>
-      <c r="AJ4" s="129"/>
-      <c r="AK4" s="129"/>
-      <c r="AL4" s="129"/>
-      <c r="AM4" s="129"/>
-      <c r="AN4" s="129"/>
-      <c r="AO4" s="129"/>
-      <c r="AP4" s="129"/>
-      <c r="AQ4" s="129"/>
-      <c r="AR4" s="129"/>
-      <c r="AS4" s="129"/>
-      <c r="AT4" s="129"/>
-      <c r="AU4" s="129"/>
-      <c r="AV4" s="129"/>
-      <c r="AW4" s="129"/>
-      <c r="AX4" s="129"/>
-      <c r="AY4" s="129"/>
-      <c r="AZ4" s="129"/>
-      <c r="BA4" s="129"/>
-      <c r="BB4" s="129"/>
-      <c r="BC4" s="129"/>
-      <c r="BD4" s="129"/>
-      <c r="BE4" s="129"/>
-      <c r="BF4" s="129"/>
-      <c r="BG4" s="129"/>
-      <c r="BH4" s="129"/>
-      <c r="BI4" s="129"/>
-      <c r="BJ4" s="129"/>
-      <c r="BK4" s="129"/>
-      <c r="BL4" s="129"/>
-      <c r="BM4" s="129"/>
-      <c r="BN4" s="129"/>
-      <c r="BO4" s="129"/>
-      <c r="BP4" s="129"/>
-      <c r="BQ4" s="129"/>
-      <c r="BR4" s="129"/>
-      <c r="BS4" s="129"/>
-      <c r="BT4" s="129"/>
-      <c r="BU4" s="129"/>
-      <c r="BV4" s="129"/>
-      <c r="BW4" s="129"/>
-      <c r="BX4" s="129"/>
-      <c r="BY4" s="129"/>
-      <c r="BZ4" s="129"/>
-    </row>
-    <row r="5" spans="1:78" s="130" customFormat="1" ht="42">
-      <c r="A5" s="132"/>
-      <c r="B5" s="133" t="s">
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="119"/>
+      <c r="AF1" s="119"/>
+      <c r="AG1" s="119"/>
+      <c r="AH1" s="119"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="119"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="119"/>
+      <c r="AM1" s="119"/>
+      <c r="AN1" s="119"/>
+      <c r="AO1" s="119"/>
+      <c r="AP1" s="119"/>
+      <c r="AQ1" s="119"/>
+      <c r="AR1" s="119"/>
+      <c r="AS1" s="119"/>
+      <c r="AT1" s="119"/>
+      <c r="AU1" s="119"/>
+      <c r="AV1" s="119"/>
+      <c r="AW1" s="119"/>
+      <c r="AX1" s="119"/>
+      <c r="AY1" s="119"/>
+      <c r="AZ1" s="119"/>
+      <c r="BA1" s="119"/>
+      <c r="BB1" s="119"/>
+      <c r="BC1" s="119"/>
+      <c r="BD1" s="119"/>
+      <c r="BE1" s="119"/>
+      <c r="BF1" s="119"/>
+      <c r="BG1" s="119"/>
+      <c r="BH1" s="119"/>
+      <c r="BI1" s="119"/>
+      <c r="BJ1" s="119"/>
+      <c r="BK1" s="119"/>
+      <c r="BL1" s="119"/>
+      <c r="BM1" s="119"/>
+      <c r="BN1" s="119"/>
+      <c r="BO1" s="119"/>
+      <c r="BP1" s="119"/>
+      <c r="BQ1" s="119"/>
+      <c r="BR1" s="119"/>
+      <c r="BS1" s="119"/>
+      <c r="BT1" s="119"/>
+      <c r="BU1" s="119"/>
+      <c r="BV1" s="119"/>
+      <c r="BW1" s="119"/>
+      <c r="BX1" s="119"/>
+      <c r="BY1" s="119"/>
+      <c r="BZ1" s="119"/>
+    </row>
+    <row r="2" spans="1:78" s="120" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="119"/>
+      <c r="AF2" s="119"/>
+      <c r="AG2" s="119"/>
+      <c r="AH2" s="119"/>
+      <c r="AI2" s="119"/>
+      <c r="AJ2" s="119"/>
+      <c r="AK2" s="119"/>
+      <c r="AL2" s="119"/>
+      <c r="AM2" s="119"/>
+      <c r="AN2" s="119"/>
+      <c r="AO2" s="119"/>
+      <c r="AP2" s="119"/>
+      <c r="AQ2" s="119"/>
+      <c r="AR2" s="119"/>
+      <c r="AS2" s="119"/>
+      <c r="AT2" s="119"/>
+      <c r="AU2" s="119"/>
+      <c r="AV2" s="119"/>
+      <c r="AW2" s="119"/>
+      <c r="AX2" s="119"/>
+      <c r="AY2" s="119"/>
+      <c r="AZ2" s="119"/>
+      <c r="BA2" s="119"/>
+      <c r="BB2" s="119"/>
+      <c r="BC2" s="119"/>
+      <c r="BD2" s="119"/>
+      <c r="BE2" s="119"/>
+      <c r="BF2" s="119"/>
+      <c r="BG2" s="119"/>
+      <c r="BH2" s="119"/>
+      <c r="BI2" s="119"/>
+      <c r="BJ2" s="119"/>
+      <c r="BK2" s="119"/>
+      <c r="BL2" s="119"/>
+      <c r="BM2" s="119"/>
+      <c r="BN2" s="119"/>
+      <c r="BO2" s="119"/>
+      <c r="BP2" s="119"/>
+      <c r="BQ2" s="119"/>
+      <c r="BR2" s="119"/>
+      <c r="BS2" s="119"/>
+      <c r="BT2" s="119"/>
+      <c r="BU2" s="119"/>
+      <c r="BV2" s="119"/>
+      <c r="BW2" s="119"/>
+      <c r="BX2" s="119"/>
+      <c r="BY2" s="119"/>
+      <c r="BZ2" s="119"/>
+    </row>
+    <row r="3" spans="1:78" s="120" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="155"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="119"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="119"/>
+      <c r="AR3" s="119"/>
+      <c r="AS3" s="119"/>
+      <c r="AT3" s="119"/>
+      <c r="AU3" s="119"/>
+      <c r="AV3" s="119"/>
+      <c r="AW3" s="119"/>
+      <c r="AX3" s="119"/>
+      <c r="AY3" s="119"/>
+      <c r="AZ3" s="119"/>
+      <c r="BA3" s="119"/>
+      <c r="BB3" s="119"/>
+      <c r="BC3" s="119"/>
+      <c r="BD3" s="119"/>
+      <c r="BE3" s="119"/>
+      <c r="BF3" s="119"/>
+      <c r="BG3" s="119"/>
+      <c r="BH3" s="119"/>
+      <c r="BI3" s="119"/>
+      <c r="BJ3" s="119"/>
+      <c r="BK3" s="119"/>
+      <c r="BL3" s="119"/>
+      <c r="BM3" s="119"/>
+      <c r="BN3" s="119"/>
+      <c r="BO3" s="119"/>
+      <c r="BP3" s="119"/>
+      <c r="BQ3" s="119"/>
+      <c r="BR3" s="119"/>
+      <c r="BS3" s="119"/>
+      <c r="BT3" s="119"/>
+      <c r="BU3" s="119"/>
+      <c r="BV3" s="119"/>
+      <c r="BW3" s="119"/>
+      <c r="BX3" s="119"/>
+      <c r="BY3" s="119"/>
+      <c r="BZ3" s="119"/>
+    </row>
+    <row r="4" spans="1:78" s="120" customFormat="1" ht="26.25">
+      <c r="A4" s="121"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="119"/>
+      <c r="AP4" s="119"/>
+      <c r="AQ4" s="119"/>
+      <c r="AR4" s="119"/>
+      <c r="AS4" s="119"/>
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="119"/>
+      <c r="AV4" s="119"/>
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="119"/>
+      <c r="AY4" s="119"/>
+      <c r="AZ4" s="119"/>
+      <c r="BA4" s="119"/>
+      <c r="BB4" s="119"/>
+      <c r="BC4" s="119"/>
+      <c r="BD4" s="119"/>
+      <c r="BE4" s="119"/>
+      <c r="BF4" s="119"/>
+      <c r="BG4" s="119"/>
+      <c r="BH4" s="119"/>
+      <c r="BI4" s="119"/>
+      <c r="BJ4" s="119"/>
+      <c r="BK4" s="119"/>
+      <c r="BL4" s="119"/>
+      <c r="BM4" s="119"/>
+      <c r="BN4" s="119"/>
+      <c r="BO4" s="119"/>
+      <c r="BP4" s="119"/>
+      <c r="BQ4" s="119"/>
+      <c r="BR4" s="119"/>
+      <c r="BS4" s="119"/>
+      <c r="BT4" s="119"/>
+      <c r="BU4" s="119"/>
+      <c r="BV4" s="119"/>
+      <c r="BW4" s="119"/>
+      <c r="BX4" s="119"/>
+      <c r="BY4" s="119"/>
+      <c r="BZ4" s="119"/>
+    </row>
+    <row r="5" spans="1:78" s="120" customFormat="1" ht="42">
+      <c r="A5" s="122"/>
+      <c r="B5" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="134" t="s">
+      <c r="G5" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="134" t="s">
+      <c r="H5" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="134" t="s">
+      <c r="I5" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="134" t="s">
+      <c r="J5" s="124" t="s">
+        <v>307</v>
+      </c>
+      <c r="K5" s="124" t="s">
+        <v>308</v>
+      </c>
+      <c r="L5" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="119"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="119"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="119"/>
+      <c r="AL5" s="119"/>
+      <c r="AM5" s="119"/>
+      <c r="AN5" s="119"/>
+      <c r="AO5" s="119"/>
+      <c r="AP5" s="119"/>
+      <c r="AQ5" s="119"/>
+      <c r="AR5" s="119"/>
+      <c r="AS5" s="119"/>
+      <c r="AT5" s="119"/>
+      <c r="AU5" s="119"/>
+      <c r="AV5" s="119"/>
+      <c r="AW5" s="119"/>
+      <c r="AX5" s="119"/>
+      <c r="AY5" s="119"/>
+      <c r="AZ5" s="119"/>
+      <c r="BA5" s="119"/>
+      <c r="BB5" s="119"/>
+      <c r="BC5" s="119"/>
+      <c r="BD5" s="119"/>
+      <c r="BE5" s="119"/>
+      <c r="BF5" s="119"/>
+      <c r="BG5" s="119"/>
+      <c r="BH5" s="119"/>
+      <c r="BI5" s="119"/>
+      <c r="BJ5" s="119"/>
+      <c r="BK5" s="119"/>
+      <c r="BL5" s="119"/>
+      <c r="BM5" s="119"/>
+      <c r="BN5" s="119"/>
+      <c r="BO5" s="119"/>
+      <c r="BP5" s="119"/>
+      <c r="BQ5" s="119"/>
+      <c r="BR5" s="119"/>
+      <c r="BS5" s="119"/>
+      <c r="BT5" s="119"/>
+      <c r="BU5" s="119"/>
+      <c r="BV5" s="119"/>
+      <c r="BW5" s="119"/>
+      <c r="BX5" s="119"/>
+      <c r="BY5" s="119"/>
+      <c r="BZ5" s="119"/>
+    </row>
+    <row r="6" spans="1:78" s="120" customFormat="1" ht="141" customHeight="1">
+      <c r="A6" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="127" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="127" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6" s="127">
+        <v>3</v>
+      </c>
+      <c r="I6" s="127"/>
+      <c r="J6" s="128">
+        <v>43977</v>
+      </c>
+      <c r="K6" s="128">
+        <v>43980</v>
+      </c>
+      <c r="L6" s="128" t="s">
         <v>310</v>
       </c>
-      <c r="K5" s="134" t="s">
-        <v>311</v>
-      </c>
-      <c r="L5" s="134" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="134" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="134" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="135" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="135" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="129"/>
-      <c r="AI5" s="129"/>
-      <c r="AJ5" s="129"/>
-      <c r="AK5" s="129"/>
-      <c r="AL5" s="129"/>
-      <c r="AM5" s="129"/>
-      <c r="AN5" s="129"/>
-      <c r="AO5" s="129"/>
-      <c r="AP5" s="129"/>
-      <c r="AQ5" s="129"/>
-      <c r="AR5" s="129"/>
-      <c r="AS5" s="129"/>
-      <c r="AT5" s="129"/>
-      <c r="AU5" s="129"/>
-      <c r="AV5" s="129"/>
-      <c r="AW5" s="129"/>
-      <c r="AX5" s="129"/>
-      <c r="AY5" s="129"/>
-      <c r="AZ5" s="129"/>
-      <c r="BA5" s="129"/>
-      <c r="BB5" s="129"/>
-      <c r="BC5" s="129"/>
-      <c r="BD5" s="129"/>
-      <c r="BE5" s="129"/>
-      <c r="BF5" s="129"/>
-      <c r="BG5" s="129"/>
-      <c r="BH5" s="129"/>
-      <c r="BI5" s="129"/>
-      <c r="BJ5" s="129"/>
-      <c r="BK5" s="129"/>
-      <c r="BL5" s="129"/>
-      <c r="BM5" s="129"/>
-      <c r="BN5" s="129"/>
-      <c r="BO5" s="129"/>
-      <c r="BP5" s="129"/>
-      <c r="BQ5" s="129"/>
-      <c r="BR5" s="129"/>
-      <c r="BS5" s="129"/>
-      <c r="BT5" s="129"/>
-      <c r="BU5" s="129"/>
-      <c r="BV5" s="129"/>
-      <c r="BW5" s="129"/>
-      <c r="BX5" s="129"/>
-      <c r="BY5" s="129"/>
-      <c r="BZ5" s="129"/>
-    </row>
-    <row r="6" spans="1:78" s="130" customFormat="1" ht="141" customHeight="1">
-      <c r="A6" s="132" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="136" t="s">
+      <c r="M6" s="127" t="s">
+        <v>287</v>
+      </c>
+      <c r="N6" s="127"/>
+      <c r="O6" s="129" t="s">
+        <v>288</v>
+      </c>
+      <c r="P6" s="130" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="119"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="119"/>
+      <c r="AO6" s="119"/>
+      <c r="AP6" s="119"/>
+      <c r="AQ6" s="119"/>
+      <c r="AR6" s="119"/>
+      <c r="AS6" s="119"/>
+      <c r="AT6" s="119"/>
+      <c r="AU6" s="119"/>
+      <c r="AV6" s="119"/>
+      <c r="AW6" s="119"/>
+      <c r="AX6" s="119"/>
+      <c r="AY6" s="119"/>
+      <c r="AZ6" s="119"/>
+      <c r="BA6" s="119"/>
+      <c r="BB6" s="119"/>
+      <c r="BC6" s="119"/>
+      <c r="BD6" s="119"/>
+      <c r="BE6" s="119"/>
+      <c r="BF6" s="119"/>
+      <c r="BG6" s="119"/>
+      <c r="BH6" s="119"/>
+      <c r="BI6" s="119"/>
+      <c r="BJ6" s="119"/>
+      <c r="BK6" s="119"/>
+      <c r="BL6" s="119"/>
+      <c r="BM6" s="119"/>
+      <c r="BN6" s="119"/>
+      <c r="BO6" s="119"/>
+      <c r="BP6" s="119"/>
+      <c r="BQ6" s="119"/>
+      <c r="BR6" s="119"/>
+      <c r="BS6" s="119"/>
+      <c r="BT6" s="119"/>
+      <c r="BU6" s="119"/>
+      <c r="BV6" s="119"/>
+      <c r="BW6" s="119"/>
+      <c r="BX6" s="119"/>
+      <c r="BY6" s="119"/>
+      <c r="BZ6" s="119"/>
+    </row>
+    <row r="7" spans="1:78" s="120" customFormat="1" ht="129" customHeight="1">
+      <c r="A7" s="122" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="137" t="s">
-        <v>286</v>
-      </c>
-      <c r="D6" s="137" t="s">
+      <c r="C7" s="127" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="127" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="127" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="127" t="s">
+        <v>291</v>
+      </c>
+      <c r="H7" s="127">
+        <v>2</v>
+      </c>
+      <c r="I7" s="127"/>
+      <c r="J7" s="128">
+        <v>43980</v>
+      </c>
+      <c r="K7" s="128">
+        <v>43984</v>
+      </c>
+      <c r="L7" s="128" t="s">
+        <v>310</v>
+      </c>
+      <c r="M7" s="127" t="s">
         <v>287</v>
       </c>
-      <c r="E6" s="137" t="s">
-        <v>288</v>
-      </c>
-      <c r="F6" s="137" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="137" t="s">
-        <v>289</v>
-      </c>
-      <c r="H6" s="137">
-        <v>3</v>
-      </c>
-      <c r="I6" s="137"/>
-      <c r="J6" s="138">
-        <v>43977</v>
-      </c>
-      <c r="K6" s="138">
-        <v>43980</v>
-      </c>
-      <c r="L6" s="138" t="s">
-        <v>313</v>
-      </c>
-      <c r="M6" s="137" t="s">
-        <v>290</v>
-      </c>
-      <c r="N6" s="137"/>
-      <c r="O6" s="139" t="s">
-        <v>291</v>
-      </c>
-      <c r="P6" s="140" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="129"/>
-      <c r="AA6" s="129"/>
-      <c r="AB6" s="129"/>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
-      <c r="AF6" s="129"/>
-      <c r="AG6" s="129"/>
-      <c r="AH6" s="129"/>
-      <c r="AI6" s="129"/>
-      <c r="AJ6" s="129"/>
-      <c r="AK6" s="129"/>
-      <c r="AL6" s="129"/>
-      <c r="AM6" s="129"/>
-      <c r="AN6" s="129"/>
-      <c r="AO6" s="129"/>
-      <c r="AP6" s="129"/>
-      <c r="AQ6" s="129"/>
-      <c r="AR6" s="129"/>
-      <c r="AS6" s="129"/>
-      <c r="AT6" s="129"/>
-      <c r="AU6" s="129"/>
-      <c r="AV6" s="129"/>
-      <c r="AW6" s="129"/>
-      <c r="AX6" s="129"/>
-      <c r="AY6" s="129"/>
-      <c r="AZ6" s="129"/>
-      <c r="BA6" s="129"/>
-      <c r="BB6" s="129"/>
-      <c r="BC6" s="129"/>
-      <c r="BD6" s="129"/>
-      <c r="BE6" s="129"/>
-      <c r="BF6" s="129"/>
-      <c r="BG6" s="129"/>
-      <c r="BH6" s="129"/>
-      <c r="BI6" s="129"/>
-      <c r="BJ6" s="129"/>
-      <c r="BK6" s="129"/>
-      <c r="BL6" s="129"/>
-      <c r="BM6" s="129"/>
-      <c r="BN6" s="129"/>
-      <c r="BO6" s="129"/>
-      <c r="BP6" s="129"/>
-      <c r="BQ6" s="129"/>
-      <c r="BR6" s="129"/>
-      <c r="BS6" s="129"/>
-      <c r="BT6" s="129"/>
-      <c r="BU6" s="129"/>
-      <c r="BV6" s="129"/>
-      <c r="BW6" s="129"/>
-      <c r="BX6" s="129"/>
-      <c r="BY6" s="129"/>
-      <c r="BZ6" s="129"/>
-    </row>
-    <row r="7" spans="1:78" s="130" customFormat="1" ht="129" customHeight="1">
-      <c r="A7" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="137" t="s">
-        <v>293</v>
-      </c>
-      <c r="D7" s="137" t="s">
+      <c r="N7" s="127"/>
+      <c r="O7" s="129" t="s">
+        <v>258</v>
+      </c>
+      <c r="P7" s="130" t="s">
         <v>259</v>
       </c>
-      <c r="E7" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="F7" s="137" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="137" t="s">
-        <v>294</v>
-      </c>
-      <c r="H7" s="137">
-        <v>2</v>
-      </c>
-      <c r="I7" s="137"/>
-      <c r="J7" s="138">
-        <v>43980</v>
-      </c>
-      <c r="K7" s="138">
-        <v>43984</v>
-      </c>
-      <c r="L7" s="138" t="s">
-        <v>313</v>
-      </c>
-      <c r="M7" s="137" t="s">
-        <v>290</v>
-      </c>
-      <c r="N7" s="137"/>
-      <c r="O7" s="139" t="s">
-        <v>261</v>
-      </c>
-      <c r="P7" s="140" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="129"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129"/>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="129"/>
-      <c r="AG7" s="129"/>
-      <c r="AH7" s="129"/>
-      <c r="AI7" s="129"/>
-      <c r="AJ7" s="129"/>
-      <c r="AK7" s="129"/>
-      <c r="AL7" s="129"/>
-      <c r="AM7" s="129"/>
-      <c r="AN7" s="129"/>
-      <c r="AO7" s="129"/>
-      <c r="AP7" s="129"/>
-      <c r="AQ7" s="129"/>
-      <c r="AR7" s="129"/>
-      <c r="AS7" s="129"/>
-      <c r="AT7" s="129"/>
-      <c r="AU7" s="129"/>
-      <c r="AV7" s="129"/>
-      <c r="AW7" s="129"/>
-      <c r="AX7" s="129"/>
-      <c r="AY7" s="129"/>
-      <c r="AZ7" s="129"/>
-      <c r="BA7" s="129"/>
-      <c r="BB7" s="129"/>
-      <c r="BC7" s="129"/>
-      <c r="BD7" s="129"/>
-      <c r="BE7" s="129"/>
-      <c r="BF7" s="129"/>
-      <c r="BG7" s="129"/>
-      <c r="BH7" s="129"/>
-      <c r="BI7" s="129"/>
-      <c r="BJ7" s="129"/>
-      <c r="BK7" s="129"/>
-      <c r="BL7" s="129"/>
-      <c r="BM7" s="129"/>
-      <c r="BN7" s="129"/>
-      <c r="BO7" s="129"/>
-      <c r="BP7" s="129"/>
-      <c r="BQ7" s="129"/>
-      <c r="BR7" s="129"/>
-      <c r="BS7" s="129"/>
-      <c r="BT7" s="129"/>
-      <c r="BU7" s="129"/>
-      <c r="BV7" s="129"/>
-      <c r="BW7" s="129"/>
-      <c r="BX7" s="129"/>
-      <c r="BY7" s="129"/>
-      <c r="BZ7" s="129"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="119"/>
+      <c r="AP7" s="119"/>
+      <c r="AQ7" s="119"/>
+      <c r="AR7" s="119"/>
+      <c r="AS7" s="119"/>
+      <c r="AT7" s="119"/>
+      <c r="AU7" s="119"/>
+      <c r="AV7" s="119"/>
+      <c r="AW7" s="119"/>
+      <c r="AX7" s="119"/>
+      <c r="AY7" s="119"/>
+      <c r="AZ7" s="119"/>
+      <c r="BA7" s="119"/>
+      <c r="BB7" s="119"/>
+      <c r="BC7" s="119"/>
+      <c r="BD7" s="119"/>
+      <c r="BE7" s="119"/>
+      <c r="BF7" s="119"/>
+      <c r="BG7" s="119"/>
+      <c r="BH7" s="119"/>
+      <c r="BI7" s="119"/>
+      <c r="BJ7" s="119"/>
+      <c r="BK7" s="119"/>
+      <c r="BL7" s="119"/>
+      <c r="BM7" s="119"/>
+      <c r="BN7" s="119"/>
+      <c r="BO7" s="119"/>
+      <c r="BP7" s="119"/>
+      <c r="BQ7" s="119"/>
+      <c r="BR7" s="119"/>
+      <c r="BS7" s="119"/>
+      <c r="BT7" s="119"/>
+      <c r="BU7" s="119"/>
+      <c r="BV7" s="119"/>
+      <c r="BW7" s="119"/>
+      <c r="BX7" s="119"/>
+      <c r="BY7" s="119"/>
+      <c r="BZ7" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15574,7 +15582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CFCA5F-884D-4F93-AEF9-950B8DB48F83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -15594,15 +15602,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="164"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="162"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -15632,14 +15640,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="47.1" customHeight="1">
@@ -15647,14 +15655,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45">
@@ -15662,78 +15670,78 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="54.95" customHeight="1">
-      <c r="A6" s="120">
+      <c r="A6" s="110">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51.95" customHeight="1">
+      <c r="A7" s="111">
+        <v>5</v>
+      </c>
+      <c r="B7" s="112" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="113"/>
+      <c r="D7" s="112" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="114" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="51.95" customHeight="1">
-      <c r="A7" s="121">
-        <v>5</v>
-      </c>
-      <c r="B7" s="122" t="s">
+    <row r="8" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A8" s="115">
+        <v>6</v>
+      </c>
+      <c r="B8" s="116" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="117" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="122" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="42" customHeight="1">
+      <c r="A9" s="111">
+        <v>7</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117" t="s">
         <v>281</v>
       </c>
-      <c r="E7" s="124" t="s">
+      <c r="E9" s="117" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A8" s="125">
-        <v>6</v>
-      </c>
-      <c r="B8" s="126" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="127" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" s="127" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="42" customHeight="1">
-      <c r="A9" s="121">
-        <v>7</v>
-      </c>
-      <c r="B9" s="92" t="s">
-        <v>272</v>
-      </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="127" t="s">
-        <v>284</v>
-      </c>
-      <c r="E9" s="127" t="s">
-        <v>285</v>
-      </c>
-    </row>
     <row r="10" spans="1:7">
-      <c r="C10" s="90"/>
+      <c r="C10" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Userstories and TDD Testcases For College Admission Predictor project modified.xlsx
+++ b/Userstories and TDD Testcases For College Admission Predictor project modified.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kommahes\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="5" state="hidden" r:id="rId1"/>
@@ -28,7 +33,7 @@
     <sheet name="Dheeraj TDD Test Cases" sheetId="3" r:id="rId19"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="317">
   <si>
     <t>TDD Test Cases</t>
   </si>
@@ -365,6 +370,46 @@
     <t>A message will be thrown that college is already exists.</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>EPIC</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                          USER STORIES</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>As a/an</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <t>I Want To</t>
   </si>
   <si>
@@ -1119,33 +1164,12 @@
   <si>
     <t>Yet to  start</t>
   </si>
-  <si>
-    <t>Actual Date</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                                                                               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>USER STORIES</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1253,6 +1277,13 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="28"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Times New Roman"/>
@@ -1267,7 +1298,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1358,33 +1402,6 @@
       <sz val="11"/>
       <color indexed="4"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="22">
@@ -1515,7 +1532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -2099,28 +2116,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2248,11 +2252,39 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2273,43 +2305,43 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2324,31 +2356,31 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
@@ -2461,70 +2493,70 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="19" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="29" fillId="19" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2536,15 +2568,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2560,31 +2590,31 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2635,24 +2665,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2703,48 +2736,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3054,7 +3045,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3067,7 +3058,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3079,105 +3070,105 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="40.81640625" customWidth="1"/>
+    <col min="7" max="7" width="40.1796875" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" customWidth="1"/>
+    <col min="10" max="11" width="17.54296875" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="14" max="14" width="21.81640625" customWidth="1"/>
     <col min="15" max="15" width="49" customWidth="1"/>
-    <col min="16" max="16" width="57.5703125" customWidth="1"/>
+    <col min="16" max="16" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="164"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="164"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-    </row>
-    <row r="4" spans="1:16" ht="26.25">
+      <c r="A3" s="174"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+    </row>
+    <row r="4" spans="1:16" ht="26">
       <c r="A4" s="13"/>
-      <c r="B4" s="167" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="168"/>
+      <c r="B4" s="177" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="178"/>
     </row>
     <row r="5" spans="1:16" ht="60.75" customHeight="1">
       <c r="A5" s="14"/>
@@ -3206,13 +3197,13 @@
         <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M5" s="32" t="s">
         <v>32</v>
@@ -3227,134 +3218,134 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="96.6" customHeight="1">
-      <c r="A6" s="169" t="s">
-        <v>239</v>
+    <row r="6" spans="1:16" ht="96.65" customHeight="1">
+      <c r="A6" s="179" t="s">
+        <v>242</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H6" s="19">
         <v>2</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="144">
+      <c r="J6" s="153">
         <v>43977</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="L6" s="145">
+        <v>313</v>
+      </c>
+      <c r="L6" s="154">
         <v>43979</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="37"/>
       <c r="O6" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="66.75" customHeight="1">
+      <c r="A7" s="180"/>
+      <c r="B7" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="66.75" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>263</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H7" s="19">
         <v>1</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="144">
+      <c r="J7" s="153">
         <v>43979</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="L7" s="145">
+        <v>313</v>
+      </c>
+      <c r="L7" s="154">
         <v>43980</v>
       </c>
-      <c r="M7" s="109" t="s">
-        <v>242</v>
+      <c r="M7" s="119" t="s">
+        <v>245</v>
       </c>
       <c r="N7" s="37"/>
       <c r="O7" s="22" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="63" customHeight="1">
-      <c r="A8" s="170"/>
+      <c r="A8" s="180"/>
       <c r="B8" s="33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H8" s="19">
         <v>1</v>
       </c>
       <c r="I8" s="19"/>
-      <c r="J8" s="144">
+      <c r="J8" s="153">
         <v>43980</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="L8" s="145">
+        <v>313</v>
+      </c>
+      <c r="L8" s="154">
         <v>43983</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="37"/>
       <c r="O8" s="22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3373,41 +3364,41 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BY136"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="39" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="29" customWidth="1"/>
-    <col min="4" max="13" width="33.42578125" style="29" customWidth="1"/>
-    <col min="14" max="14" width="61.5703125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="68.7109375" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="32.7265625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" style="29" customWidth="1"/>
+    <col min="4" max="13" width="33.453125" style="29" customWidth="1"/>
+    <col min="14" max="14" width="61.54296875" style="31" customWidth="1"/>
+    <col min="15" max="15" width="68.7265625" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="15" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
@@ -3472,21 +3463,21 @@
       <c r="BY1" s="11"/>
     </row>
     <row r="2" spans="1:77" ht="15" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -3551,21 +3542,21 @@
       <c r="BY2" s="11"/>
     </row>
     <row r="3" spans="1:77" ht="15" customHeight="1">
-      <c r="A3" s="164"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
+      <c r="A3" s="174"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -3629,22 +3620,22 @@
       <c r="BX3" s="11"/>
       <c r="BY3" s="11"/>
     </row>
-    <row r="4" spans="1:77" ht="26.25">
+    <row r="4" spans="1:77" ht="26">
       <c r="A4" s="13"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="168"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="178"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -3735,10 +3726,10 @@
         <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>32</v>
@@ -3816,44 +3807,44 @@
       <c r="BY5" s="11"/>
     </row>
     <row r="6" spans="1:77" ht="45" customHeight="1">
-      <c r="A6" s="171" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="85" t="s">
+      <c r="A6" s="181" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="95" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19">
         <v>3</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="144">
-        <v>43983</v>
-      </c>
-      <c r="K6" s="144">
-        <v>43987</v>
+      <c r="J6" s="153">
+        <v>43980</v>
+      </c>
+      <c r="K6" s="153">
+        <v>43984</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="22" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -3918,43 +3909,43 @@
       <c r="BX6" s="11"/>
       <c r="BY6" s="11"/>
     </row>
-    <row r="7" spans="1:77" ht="45">
-      <c r="A7" s="171"/>
-      <c r="B7" s="85" t="s">
+    <row r="7" spans="1:77" ht="43.5">
+      <c r="A7" s="181"/>
+      <c r="B7" s="95" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="19"/>
-      <c r="H7" s="84">
+      <c r="H7" s="94">
         <v>2</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="144">
+      <c r="J7" s="153">
         <v>43977</v>
       </c>
-      <c r="K7" s="144">
+      <c r="K7" s="153">
         <v>43979</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="22" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -4019,42 +4010,42 @@
       <c r="BX7" s="11"/>
       <c r="BY7" s="11"/>
     </row>
-    <row r="8" spans="1:77" ht="45">
-      <c r="A8" s="171"/>
-      <c r="B8" s="85" t="s">
-        <v>99</v>
+    <row r="8" spans="1:77" ht="43.5">
+      <c r="A8" s="181"/>
+      <c r="B8" s="95" t="s">
+        <v>102</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19">
         <v>3</v>
       </c>
       <c r="I8" s="19"/>
-      <c r="J8" s="144">
+      <c r="J8" s="153">
         <v>43977</v>
       </c>
-      <c r="K8" s="144">
+      <c r="K8" s="153">
         <v>43980</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -4119,13 +4110,13 @@
       <c r="BX8" s="11"/>
       <c r="BY8" s="11"/>
     </row>
-    <row r="9" spans="1:77" ht="45">
-      <c r="A9" s="171"/>
-      <c r="B9" s="85" t="s">
+    <row r="9" spans="1:77" ht="43.5">
+      <c r="A9" s="181"/>
+      <c r="B9" s="95" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>47</v>
@@ -4141,14 +4132,14 @@
         <v>3</v>
       </c>
       <c r="I9" s="19"/>
-      <c r="J9" s="144">
-        <v>43979</v>
-      </c>
-      <c r="K9" s="144">
-        <v>43985</v>
-      </c>
-      <c r="L9" s="142" t="s">
-        <v>208</v>
+      <c r="J9" s="153">
+        <v>43980</v>
+      </c>
+      <c r="K9" s="153">
+        <v>43984</v>
+      </c>
+      <c r="L9" s="152" t="s">
+        <v>211</v>
       </c>
       <c r="N9" s="22" t="s">
         <v>51</v>
@@ -4219,13 +4210,13 @@
       <c r="BX9" s="11"/>
       <c r="BY9" s="11"/>
     </row>
-    <row r="10" spans="1:77" ht="45">
-      <c r="A10" s="172"/>
-      <c r="B10" s="85" t="s">
+    <row r="10" spans="1:77" ht="29">
+      <c r="A10" s="182"/>
+      <c r="B10" s="95" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>54</v>
@@ -4241,14 +4232,14 @@
         <v>3</v>
       </c>
       <c r="I10" s="19"/>
-      <c r="J10" s="144">
+      <c r="J10" s="153">
         <v>43985</v>
       </c>
-      <c r="K10" s="144">
-        <v>43990</v>
+      <c r="K10" s="153">
+        <v>43989</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N10" s="22" t="s">
         <v>57</v>
@@ -4320,20 +4311,20 @@
       <c r="BY10" s="11"/>
     </row>
     <row r="11" spans="1:77" ht="45" customHeight="1">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="179" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>64</v>
@@ -4343,20 +4334,20 @@
         <v>2</v>
       </c>
       <c r="I11" s="19"/>
-      <c r="J11" s="144">
+      <c r="J11" s="153">
         <v>43977</v>
       </c>
-      <c r="K11" s="144">
-        <v>43983</v>
+      <c r="K11" s="153">
+        <v>43979</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -4421,19 +4412,19 @@
       <c r="BX11" s="11"/>
       <c r="BY11" s="11"/>
     </row>
-    <row r="12" spans="1:77" ht="45">
-      <c r="A12" s="170"/>
+    <row r="12" spans="1:77" ht="43.5">
+      <c r="A12" s="180"/>
       <c r="B12" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>41</v>
@@ -4443,20 +4434,20 @@
         <v>3</v>
       </c>
       <c r="I12" s="19"/>
-      <c r="J12" s="144">
+      <c r="J12" s="153">
         <v>43977</v>
       </c>
-      <c r="K12" s="144">
+      <c r="K12" s="153">
         <v>43980</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -4521,19 +4512,19 @@
       <c r="BX12" s="11"/>
       <c r="BY12" s="11"/>
     </row>
-    <row r="13" spans="1:77" ht="45">
-      <c r="A13" s="170"/>
+    <row r="13" spans="1:77" ht="43.5">
+      <c r="A13" s="180"/>
       <c r="B13" s="33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>64</v>
@@ -4543,20 +4534,20 @@
         <v>1</v>
       </c>
       <c r="I13" s="19"/>
-      <c r="J13" s="144">
+      <c r="J13" s="153">
         <v>43979</v>
       </c>
-      <c r="K13" s="144">
+      <c r="K13" s="153">
         <v>43980</v>
       </c>
-      <c r="L13" s="174" t="s">
-        <v>230</v>
+      <c r="L13" s="184" t="s">
+        <v>233</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="O13" s="86" t="s">
-        <v>232</v>
+        <v>234</v>
+      </c>
+      <c r="O13" s="96" t="s">
+        <v>235</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -4621,40 +4612,40 @@
       <c r="BX13" s="11"/>
       <c r="BY13" s="11"/>
     </row>
-    <row r="14" spans="1:77" ht="60">
-      <c r="A14" s="173"/>
-      <c r="B14" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="88" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="89" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="F14" s="84" t="s">
+    <row r="14" spans="1:77" ht="43.5">
+      <c r="A14" s="183"/>
+      <c r="B14" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84">
+      <c r="D14" s="99" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="94" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" s="94" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94">
         <v>2</v>
       </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="149">
+      <c r="I14" s="98"/>
+      <c r="J14" s="159">
         <v>43977</v>
       </c>
-      <c r="K14" s="150">
+      <c r="K14" s="160">
         <v>43979</v>
       </c>
-      <c r="L14" s="175"/>
-      <c r="N14" s="90" t="s">
-        <v>237</v>
-      </c>
-      <c r="O14" s="91" t="s">
-        <v>238</v>
+      <c r="L14" s="185"/>
+      <c r="N14" s="100" t="s">
+        <v>240</v>
+      </c>
+      <c r="O14" s="101" t="s">
+        <v>241</v>
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -4719,43 +4710,43 @@
       <c r="BX14" s="11"/>
       <c r="BY14" s="11"/>
     </row>
-    <row r="15" spans="1:77" ht="78.75">
-      <c r="A15" s="92" t="s">
+    <row r="15" spans="1:77" ht="78">
+      <c r="A15" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>239</v>
-      </c>
-      <c r="B15" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>236</v>
       </c>
       <c r="H15" s="29">
         <v>2</v>
       </c>
-      <c r="J15" s="146">
+      <c r="J15" s="156">
         <v>43977</v>
       </c>
-      <c r="K15" s="147">
+      <c r="K15" s="157">
         <v>43979</v>
       </c>
-      <c r="L15" s="94" t="s">
-        <v>242</v>
-      </c>
-      <c r="M15" s="95"/>
-      <c r="N15" s="96" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="97" t="s">
-        <v>244</v>
+      <c r="L15" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="M15" s="105"/>
+      <c r="N15" s="106" t="s">
+        <v>246</v>
+      </c>
+      <c r="O15" s="107" t="s">
+        <v>247</v>
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -4820,41 +4811,41 @@
       <c r="BX15" s="11"/>
       <c r="BY15" s="11"/>
     </row>
-    <row r="16" spans="1:77" ht="45">
-      <c r="A16" s="98"/>
-      <c r="B16" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="100" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="E16" s="100" t="s">
-        <v>247</v>
-      </c>
-      <c r="F16" s="100" t="s">
+    <row r="16" spans="1:77" ht="43.5">
+      <c r="A16" s="108"/>
+      <c r="B16" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="110" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="104" t="s">
+        <v>249</v>
+      </c>
+      <c r="E16" s="110" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100">
+      <c r="G16" s="110"/>
+      <c r="H16" s="110">
         <v>1</v>
       </c>
-      <c r="I16" s="100"/>
-      <c r="J16" s="148">
+      <c r="I16" s="110"/>
+      <c r="J16" s="158">
         <v>43979</v>
       </c>
-      <c r="K16" s="148">
+      <c r="K16" s="158">
         <v>43980</v>
       </c>
-      <c r="L16" s="94"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="101" t="s">
-        <v>248</v>
-      </c>
-      <c r="O16" s="102" t="s">
-        <v>249</v>
+      <c r="L16" s="104"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="111" t="s">
+        <v>251</v>
+      </c>
+      <c r="O16" s="112" t="s">
+        <v>252</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -4919,22 +4910,22 @@
       <c r="BX16" s="11"/>
       <c r="BY16" s="11"/>
     </row>
-    <row r="17" spans="1:77" ht="26.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="97"/>
+    <row r="17" spans="1:77" ht="26">
+      <c r="A17" s="108"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="107"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -4998,19 +4989,19 @@
       <c r="BX17" s="11"/>
       <c r="BY17" s="11"/>
     </row>
-    <row r="18" spans="1:77" ht="45">
-      <c r="A18" s="141"/>
-      <c r="B18" s="93" t="s">
-        <v>99</v>
+    <row r="18" spans="1:77" ht="29">
+      <c r="A18" s="151"/>
+      <c r="B18" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="104" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="D18" s="114" t="s">
+        <v>254</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>41</v>
@@ -5018,18 +5009,18 @@
       <c r="H18" s="29">
         <v>1</v>
       </c>
-      <c r="J18" s="146">
+      <c r="J18" s="156">
         <v>43980</v>
       </c>
-      <c r="K18" s="146">
+      <c r="K18" s="156">
         <v>43983</v>
       </c>
-      <c r="L18" s="103"/>
-      <c r="N18" s="105" t="s">
-        <v>253</v>
-      </c>
-      <c r="O18" s="106" t="s">
-        <v>249</v>
+      <c r="L18" s="113"/>
+      <c r="N18" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="O18" s="116" t="s">
+        <v>252</v>
       </c>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
@@ -5094,19 +5085,19 @@
       <c r="BX18" s="11"/>
       <c r="BY18" s="11"/>
     </row>
-    <row r="19" spans="1:77" ht="45">
-      <c r="A19" s="140"/>
-      <c r="B19" s="93" t="s">
-        <v>254</v>
+    <row r="19" spans="1:77" ht="43.5">
+      <c r="A19" s="150"/>
+      <c r="B19" s="103" t="s">
+        <v>257</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" s="104" t="s">
-        <v>256</v>
+        <v>258</v>
+      </c>
+      <c r="D19" s="114" t="s">
+        <v>259</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>41</v>
@@ -5114,21 +5105,21 @@
       <c r="H19" s="29">
         <v>2</v>
       </c>
-      <c r="J19" s="146">
+      <c r="J19" s="156">
         <v>43980</v>
       </c>
-      <c r="K19" s="146">
+      <c r="K19" s="156">
         <v>43984</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="M19" s="103"/>
-      <c r="N19" s="105" t="s">
-        <v>258</v>
-      </c>
-      <c r="O19" s="107" t="s">
-        <v>259</v>
+        <v>228</v>
+      </c>
+      <c r="M19" s="113"/>
+      <c r="N19" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="O19" s="117" t="s">
+        <v>262</v>
       </c>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
@@ -5195,7 +5186,7 @@
     </row>
     <row r="20" spans="1:77">
       <c r="A20" s="27"/>
-      <c r="B20" s="108"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -7511,104 +7502,104 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
-    <col min="15" max="15" width="60.140625" customWidth="1"/>
-    <col min="16" max="16" width="59.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.453125" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" customWidth="1"/>
+    <col min="11" max="12" width="12.81640625" customWidth="1"/>
+    <col min="13" max="13" width="21.1796875" customWidth="1"/>
+    <col min="14" max="14" width="22.453125" customWidth="1"/>
+    <col min="15" max="15" width="60.1796875" customWidth="1"/>
+    <col min="16" max="16" width="59.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="164"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="164"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-    </row>
-    <row r="4" spans="1:16" ht="26.25">
+      <c r="A3" s="174"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+    </row>
+    <row r="4" spans="1:16" ht="26">
       <c r="A4" s="13"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="168"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="178"/>
     </row>
     <row r="5" spans="1:16" ht="50.25" customHeight="1">
-      <c r="A5" s="170" t="s">
-        <v>180</v>
+      <c r="A5" s="180" t="s">
+        <v>183</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>23</v>
@@ -7635,10 +7626,10 @@
         <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L5" s="32" t="s">
         <v>31</v>
@@ -7657,89 +7648,89 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="114" customHeight="1">
-      <c r="A6" s="170"/>
+      <c r="A6" s="180"/>
       <c r="B6" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>186</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H6" s="19">
         <v>1</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="144">
+      <c r="J6" s="153">
         <v>43977</v>
       </c>
-      <c r="K6" s="145">
+      <c r="K6" s="154">
         <v>43978</v>
       </c>
-      <c r="L6" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="M6" s="176" t="s">
-        <v>187</v>
+      <c r="L6" s="94" t="s">
+        <v>313</v>
+      </c>
+      <c r="M6" s="186" t="s">
+        <v>190</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="22" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="120" customHeight="1">
-      <c r="A7" s="170"/>
+      <c r="A7" s="180"/>
       <c r="B7" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H7" s="19">
         <v>2</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="144">
+      <c r="J7" s="153">
         <v>43978</v>
       </c>
-      <c r="K7" s="145">
+      <c r="K7" s="154">
         <v>43980</v>
       </c>
-      <c r="L7" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="M7" s="177"/>
+      <c r="L7" s="94" t="s">
+        <v>313</v>
+      </c>
+      <c r="M7" s="187"/>
       <c r="N7" s="19"/>
       <c r="O7" s="22" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -7763,34 +7754,34 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" customWidth="1"/>
+    <col min="4" max="4" width="38.54296875" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -7813,16 +7804,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="82.5" customHeight="1">
@@ -7830,16 +7821,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="70.5" customHeight="1">
@@ -7847,16 +7838,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="70.5" customHeight="1">
@@ -7864,16 +7855,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -7889,212 +7880,212 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="44.26953125" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.453125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>134</v>
+      <c r="G2" s="61" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="148.5" customHeight="1">
-      <c r="A3" s="53">
+      <c r="A3" s="63">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="57" t="s">
+      <c r="B3" s="64" t="s">
         <v>138</v>
       </c>
+      <c r="C3" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="159" customHeight="1">
-      <c r="A4" s="58">
+      <c r="A4" s="68">
         <v>2</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="61" t="s">
+      <c r="B4" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="159" customHeight="1">
-      <c r="A5" s="63">
+      <c r="A5" s="73">
         <v>3</v>
       </c>
-      <c r="B5" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="66" t="s">
+      <c r="B5" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="67" t="s">
-        <v>138</v>
+      <c r="D5" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="163.5" customHeight="1">
-      <c r="A6" s="68">
+      <c r="A6" s="78">
         <v>4</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>146</v>
+      <c r="B6" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="168.75" customHeight="1">
-      <c r="A7" s="58">
+      <c r="A7" s="68">
         <v>5</v>
       </c>
-      <c r="B7" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>149</v>
+      <c r="B7" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="85.5" customHeight="1">
-      <c r="A8" s="70">
+      <c r="A8" s="80">
         <v>6</v>
       </c>
-      <c r="B8" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="67" t="s">
+      <c r="B8" s="81" t="s">
         <v>153</v>
       </c>
+      <c r="C8" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="77" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="84.75" customHeight="1">
-      <c r="A9" s="70">
+      <c r="A9" s="80">
         <v>7</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="128.25" customHeight="1">
-      <c r="A10" s="74">
+      <c r="D9" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="93" customHeight="1">
+      <c r="A10" s="84">
         <v>8</v>
       </c>
-      <c r="B10" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="78" t="s">
+      <c r="B10" s="85" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="130.5" customHeight="1">
-      <c r="A11" s="63">
+      <c r="C10" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="105" customHeight="1">
+      <c r="A11" s="73">
         <v>9</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>163</v>
+      <c r="D11" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="80"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="80"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8110,356 +8101,353 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="50.28515625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="48.140625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="54.7109375" style="46" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="46" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="46" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="46" customWidth="1"/>
-    <col min="13" max="13" width="26" style="46" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" style="46" customWidth="1"/>
-    <col min="15" max="15" width="28.140625" style="46" customWidth="1"/>
-    <col min="16" max="16" width="66" style="46" customWidth="1"/>
-    <col min="17" max="17" width="72.85546875" style="46" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="27.453125" style="53" customWidth="1"/>
+    <col min="2" max="3" width="19.81640625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="53" customWidth="1"/>
+    <col min="5" max="5" width="37.1796875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="40.26953125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="29" style="53" customWidth="1"/>
+    <col min="8" max="8" width="54.7265625" style="53" customWidth="1"/>
+    <col min="9" max="10" width="18.453125" style="53" customWidth="1"/>
+    <col min="11" max="11" width="16" style="53" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" style="53" customWidth="1"/>
+    <col min="13" max="13" width="16" style="53" customWidth="1"/>
+    <col min="14" max="15" width="15" style="53" customWidth="1"/>
+    <col min="16" max="16" width="47.1796875" style="53" customWidth="1"/>
+    <col min="17" max="17" width="46.26953125" style="53" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="43" customFormat="1" ht="72" customHeight="1">
-      <c r="A1" s="212" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="208" t="s">
+    <row r="1" spans="1:29" s="44" customFormat="1" ht="42" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="191" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="191"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="192"/>
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="192"/>
+      <c r="T1" s="192"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="192"/>
+      <c r="W1" s="192"/>
+      <c r="X1" s="192"/>
+      <c r="Y1" s="192"/>
+      <c r="Z1" s="192"/>
+      <c r="AA1" s="192"/>
+      <c r="AB1" s="192"/>
+      <c r="AC1" s="192"/>
+    </row>
+    <row r="2" spans="1:29" s="44" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="210"/>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="211"/>
-    </row>
-    <row r="2" spans="1:29" s="43" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="203" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="203" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="203" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="203" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="203" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="203" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="203" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="203" t="s">
-        <v>314</v>
-      </c>
-      <c r="K2" s="203" t="s">
-        <v>312</v>
-      </c>
-      <c r="L2" s="203" t="s">
-        <v>308</v>
-      </c>
-      <c r="M2" s="203" t="s">
+      <c r="L2" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="M2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="203" t="s">
+      <c r="N2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="203" t="s">
+      <c r="O2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="203" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q2" s="203" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="275.25" customHeight="1">
-      <c r="A3" s="202" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="201" t="s">
+      <c r="P2" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="143" t="s">
+      <c r="Q2" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="199" t="s">
+    </row>
+    <row r="3" spans="1:29" ht="123.75" customHeight="1">
+      <c r="A3" s="193" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="199" t="s">
+      <c r="B3" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="199" t="s">
+      <c r="C3" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="199" t="s">
+      <c r="D3" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="200" t="s">
+      <c r="E3" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="199">
+      <c r="F3" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="51">
         <v>2</v>
       </c>
-      <c r="J3" s="204"/>
-      <c r="K3" s="205">
+      <c r="J3" s="155">
         <v>43977</v>
       </c>
-      <c r="L3" s="205">
+      <c r="K3" s="155">
         <v>43979</v>
       </c>
-      <c r="M3" s="204" t="s">
-        <v>313</v>
-      </c>
-      <c r="N3" s="204" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="205" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q3" s="205" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="273.75" customHeight="1">
-      <c r="A4" s="181"/>
-      <c r="B4" s="201" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="143" t="s">
+      <c r="L3" s="51"/>
+      <c r="M3" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="N3" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="199" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="199" t="s">
+      <c r="Q3" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="199" t="s">
+    </row>
+    <row r="4" spans="1:29" ht="138.75" customHeight="1">
+      <c r="A4" s="193"/>
+      <c r="B4" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="199" t="s">
+      <c r="D4" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="200" t="s">
+      <c r="E4" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="199">
+      <c r="F4" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="51">
         <v>1</v>
       </c>
-      <c r="J4" s="204"/>
-      <c r="K4" s="205">
+      <c r="J4" s="155">
         <v>43979</v>
       </c>
-      <c r="L4" s="205">
+      <c r="K4" s="155">
         <v>43980</v>
       </c>
-      <c r="M4" s="204" t="s">
-        <v>313</v>
-      </c>
-      <c r="N4" s="204" t="s">
-        <v>106</v>
-      </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="205" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q4" s="205" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="279" customHeight="1">
-      <c r="A5" s="181"/>
-      <c r="B5" s="201" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="143" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="199" t="s">
+      <c r="L4" s="51"/>
+      <c r="M4" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="N4" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4" s="51"/>
+      <c r="P4" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="199" t="s">
+      <c r="Q4" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="199" t="s">
+    </row>
+    <row r="5" spans="1:29" ht="124.5" customHeight="1">
+      <c r="A5" s="193"/>
+      <c r="B5" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="199" t="s">
+      <c r="D5" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="200" t="s">
+      <c r="E5" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="206">
+      <c r="F5" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="194">
         <v>2</v>
       </c>
-      <c r="J5" s="204"/>
-      <c r="K5" s="205">
+      <c r="J5" s="155">
         <v>43980</v>
       </c>
-      <c r="L5" s="205">
-        <v>43984</v>
-      </c>
-      <c r="M5" s="204" t="s">
-        <v>313</v>
-      </c>
-      <c r="N5" s="204" t="s">
-        <v>106</v>
-      </c>
-      <c r="O5" s="45"/>
-      <c r="P5" s="205" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q5" s="205" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="166.5" customHeight="1">
-      <c r="A6" s="181"/>
-      <c r="B6" s="201" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="143" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="199" t="s">
+      <c r="K5" s="155">
+        <v>43985</v>
+      </c>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="51"/>
+      <c r="P5" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="199" t="s">
+      <c r="Q5" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="199" t="s">
+    </row>
+    <row r="6" spans="1:29" ht="64.5" customHeight="1">
+      <c r="A6" s="193"/>
+      <c r="B6" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="199" t="s">
+      <c r="D6" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="200" t="s">
+      <c r="E6" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="207"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204">
-        <v>43984</v>
-      </c>
-      <c r="L6" s="204">
+      <c r="F6" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="194"/>
+      <c r="J6" s="155">
         <v>43985</v>
       </c>
-      <c r="M6" s="204" t="s">
-        <v>313</v>
-      </c>
-      <c r="N6" s="204" t="s">
-        <v>106</v>
-      </c>
-      <c r="O6" s="45"/>
-      <c r="P6" s="205" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q6" s="205" t="s">
-        <v>132</v>
+      <c r="K6" s="155">
+        <v>43987</v>
+      </c>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="N6" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6" s="51"/>
+      <c r="P6" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q6" s="49" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="48.75" customHeight="1">
-      <c r="A7" s="47"/>
+      <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:29" ht="15" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="57"/>
     </row>
     <row r="9" spans="1:29" ht="15" customHeight="1">
-      <c r="A9" s="47"/>
+      <c r="A9" s="57"/>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1">
-      <c r="A10" s="47"/>
+      <c r="A10" s="57"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1">
-      <c r="A11" s="47"/>
+      <c r="A11" s="57"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1">
-      <c r="A12" s="47"/>
+      <c r="A12" s="57"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1">
-      <c r="A13" s="47"/>
+      <c r="A13" s="57"/>
     </row>
     <row r="14" spans="1:29" ht="15" customHeight="1">
-      <c r="A14" s="47"/>
+      <c r="A14" s="57"/>
     </row>
     <row r="15" spans="1:29" ht="15" customHeight="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="57"/>
     </row>
     <row r="16" spans="1:29" ht="15" customHeight="1">
-      <c r="A16" s="47"/>
+      <c r="A16" s="57"/>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1">
-      <c r="A17" s="47"/>
+      <c r="A17" s="57"/>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="57"/>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1">
-      <c r="A19" s="47"/>
+      <c r="A19" s="57"/>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1">
-      <c r="A20" s="47"/>
+      <c r="A20" s="57"/>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="57"/>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1">
-      <c r="A22" s="47"/>
+      <c r="A22" s="57"/>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1">
-      <c r="A23" s="47"/>
+      <c r="A23" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8481,26 +8469,26 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="3" width="33.7265625" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -8525,7 +8513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="75">
+    <row r="3" spans="1:11" ht="72.5">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -8641,106 +8629,106 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="40.81640625" customWidth="1"/>
+    <col min="7" max="7" width="40.1796875" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" customWidth="1"/>
+    <col min="10" max="11" width="17.54296875" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="15" width="53.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.81640625" customWidth="1"/>
+    <col min="15" max="15" width="53.7265625" customWidth="1"/>
+    <col min="16" max="16" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="164"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="164"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-    </row>
-    <row r="4" spans="1:16" ht="26.25">
+      <c r="A3" s="174"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+    </row>
+    <row r="4" spans="1:16" ht="26">
       <c r="A4" s="13"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="168"/>
-    </row>
-    <row r="5" spans="1:16" ht="60.6" customHeight="1">
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="178"/>
+    </row>
+    <row r="5" spans="1:16" ht="60.65" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>23</v>
@@ -8767,13 +8755,13 @@
         <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M5" s="32" t="s">
         <v>32</v>
@@ -8789,7 +8777,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="69.75" customHeight="1">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="195" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -8810,20 +8798,20 @@
       <c r="G6" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="174">
+      <c r="H6" s="184">
         <v>2</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="144">
+      <c r="J6" s="153">
         <v>43977</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="L6" s="145">
-        <v>43979</v>
-      </c>
-      <c r="M6" s="185" t="s">
+        <v>314</v>
+      </c>
+      <c r="L6" s="154">
+        <v>43978</v>
+      </c>
+      <c r="M6" s="198" t="s">
         <v>66</v>
       </c>
       <c r="N6" s="37"/>
@@ -8835,7 +8823,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="66.75" customHeight="1">
-      <c r="A7" s="183"/>
+      <c r="A7" s="196"/>
       <c r="B7" s="33" t="s">
         <v>37</v>
       </c>
@@ -8854,18 +8842,18 @@
       <c r="G7" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="184"/>
+      <c r="H7" s="197"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="144">
+      <c r="J7" s="153">
         <v>43979</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="L7" s="145">
-        <v>43983</v>
-      </c>
-      <c r="M7" s="186"/>
+        <v>314</v>
+      </c>
+      <c r="L7" s="154">
+        <v>43979</v>
+      </c>
+      <c r="M7" s="199"/>
       <c r="N7" s="37"/>
       <c r="O7" s="38" t="s">
         <v>74</v>
@@ -8900,16 +8888,16 @@
         <v>3</v>
       </c>
       <c r="I8" s="19"/>
-      <c r="J8" s="144">
-        <v>43983</v>
+      <c r="J8" s="153">
+        <v>43980</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="L8" s="145">
-        <v>43987</v>
-      </c>
-      <c r="M8" s="186"/>
+        <v>314</v>
+      </c>
+      <c r="L8" s="154">
+        <v>43984</v>
+      </c>
+      <c r="M8" s="199"/>
       <c r="N8" s="37"/>
       <c r="O8" s="38" t="s">
         <v>78</v>
@@ -8937,42 +8925,42 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BZ155"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="55" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="29" customWidth="1"/>
-    <col min="4" max="14" width="33.42578125" style="29" customWidth="1"/>
-    <col min="15" max="15" width="61.5703125" style="31" customWidth="1"/>
-    <col min="16" max="16" width="68.7109375" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="32.7265625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" style="29" customWidth="1"/>
+    <col min="4" max="14" width="33.453125" style="29" customWidth="1"/>
+    <col min="15" max="15" width="61.54296875" style="31" customWidth="1"/>
+    <col min="16" max="16" width="68.7265625" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="15" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="189"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="202"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
@@ -9037,22 +9025,22 @@
       <c r="BZ1" s="11"/>
     </row>
     <row r="2" spans="1:78" ht="15" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="192"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="205"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -9117,22 +9105,22 @@
       <c r="BZ2" s="11"/>
     </row>
     <row r="3" spans="1:78" ht="15" customHeight="1">
-      <c r="A3" s="164"/>
-      <c r="B3" s="193"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="195"/>
+      <c r="A3" s="174"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="208"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
@@ -9196,23 +9184,23 @@
       <c r="BY3" s="11"/>
       <c r="BZ3" s="11"/>
     </row>
-    <row r="4" spans="1:78" ht="26.25">
+    <row r="4" spans="1:78" ht="26">
       <c r="A4" s="13"/>
-      <c r="B4" s="196"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="168"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="178"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -9303,10 +9291,10 @@
         <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>31</v>
@@ -9386,8 +9374,8 @@
       <c r="BY5" s="11"/>
       <c r="BZ5" s="11"/>
     </row>
-    <row r="6" spans="1:78" ht="90">
-      <c r="A6" s="171" t="s">
+    <row r="6" spans="1:78" ht="87">
+      <c r="A6" s="181" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -9412,16 +9400,16 @@
         <v>2</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="144">
+      <c r="J6" s="153">
         <v>43977</v>
       </c>
-      <c r="K6" s="144">
+      <c r="K6" s="153">
         <v>43979</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="M6" s="197" t="s">
+        <v>312</v>
+      </c>
+      <c r="M6" s="210" t="s">
         <v>43</v>
       </c>
       <c r="N6" s="19"/>
@@ -9494,8 +9482,8 @@
       <c r="BY6" s="11"/>
       <c r="BZ6" s="11"/>
     </row>
-    <row r="7" spans="1:78" ht="120">
-      <c r="A7" s="171"/>
+    <row r="7" spans="1:78" ht="116">
+      <c r="A7" s="181"/>
       <c r="B7" s="18" t="s">
         <v>37</v>
       </c>
@@ -9512,22 +9500,22 @@
         <v>49</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H7" s="24">
         <v>3</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="144">
-        <v>43979</v>
-      </c>
-      <c r="K7" s="144">
-        <v>43985</v>
+      <c r="J7" s="153">
+        <v>43980</v>
+      </c>
+      <c r="K7" s="153">
+        <v>43984</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="M7" s="198"/>
+        <v>312</v>
+      </c>
+      <c r="M7" s="211"/>
       <c r="N7" s="19"/>
       <c r="O7" s="22" t="s">
         <v>51</v>
@@ -9598,8 +9586,8 @@
       <c r="BY7" s="11"/>
       <c r="BZ7" s="11"/>
     </row>
-    <row r="8" spans="1:78" ht="120">
-      <c r="A8" s="171"/>
+    <row r="8" spans="1:78" ht="116">
+      <c r="A8" s="181"/>
       <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
@@ -9616,22 +9604,22 @@
         <v>56</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H8" s="24">
         <v>3</v>
       </c>
       <c r="I8" s="19"/>
-      <c r="J8" s="144">
+      <c r="J8" s="153">
         <v>43985</v>
       </c>
-      <c r="K8" s="144">
-        <v>43990</v>
+      <c r="K8" s="153">
+        <v>43989</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="M8" s="198"/>
+        <v>313</v>
+      </c>
+      <c r="M8" s="211"/>
       <c r="N8" s="19"/>
       <c r="O8" s="22" t="s">
         <v>57</v>
@@ -14541,28 +14529,28 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="3" width="33.7265625" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.75">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -14585,7 +14573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45">
+    <row r="3" spans="1:11" ht="43.5">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -14602,7 +14590,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="105">
+    <row r="4" spans="1:11" ht="87">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -14621,7 +14609,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="105">
+    <row r="5" spans="1:11" ht="87">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -14687,7 +14675,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14700,7 +14688,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14713,7 +14701,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14726,7 +14714,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14739,9 +14727,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="10" style="131"/>
+    <col min="1" max="16384" width="10" style="141"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14755,9 +14743,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="10" style="131"/>
+    <col min="1" max="16384" width="10" style="141"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14773,110 +14761,110 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="131" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="131" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="131" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="131" customWidth="1"/>
-    <col min="5" max="5" width="21" style="131" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="131" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="131" customWidth="1"/>
-    <col min="8" max="16384" width="10" style="131"/>
+    <col min="1" max="1" width="16.1796875" style="141" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="141" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" style="141" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="141" customWidth="1"/>
+    <col min="5" max="5" width="21" style="141" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="141" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" style="141" customWidth="1"/>
+    <col min="8" max="16384" width="10" style="141"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="153"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="163"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="132" t="s">
+      <c r="G2" s="142" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="81.75" customHeight="1">
-      <c r="A3" s="136">
+      <c r="A3" s="146">
         <v>1</v>
       </c>
-      <c r="B3" s="137" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3" s="138" t="s">
-        <v>293</v>
-      </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="136">
+      <c r="B3" s="147" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="148" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29">
+      <c r="A4" s="146">
         <v>2</v>
       </c>
-      <c r="B4" s="137" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="138" t="s">
-        <v>293</v>
-      </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="137" t="s">
+      <c r="B4" s="147" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="148" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="45">
-      <c r="A5" s="136">
+      <c r="D4" s="146"/>
+      <c r="E4" s="147" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.5">
+      <c r="A5" s="146">
         <v>3</v>
       </c>
-      <c r="B5" s="137" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" s="138" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="137" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="136">
+      <c r="B5" s="147" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="148" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="149"/>
+      <c r="E5" s="147" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29">
+      <c r="A6" s="146">
         <v>4</v>
       </c>
-      <c r="B6" s="137" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="138" t="s">
-        <v>301</v>
-      </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137" t="s">
-        <v>302</v>
+      <c r="B6" s="147" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="148" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -14902,674 +14890,674 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="131" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="131" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="131" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="131" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="131" customWidth="1"/>
-    <col min="6" max="6" width="16" style="131" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="131" customWidth="1"/>
-    <col min="8" max="8" width="10" style="131"/>
-    <col min="9" max="9" width="9.5703125" style="131" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="131" customWidth="1"/>
-    <col min="11" max="12" width="10" style="131" customWidth="1"/>
-    <col min="13" max="14" width="10" style="131"/>
-    <col min="15" max="15" width="44.7109375" style="131" customWidth="1"/>
-    <col min="16" max="16" width="50.28515625" style="131" customWidth="1"/>
-    <col min="17" max="16384" width="10" style="131"/>
+    <col min="1" max="1" width="27.453125" style="141" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="141" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="141" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="141" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="141" customWidth="1"/>
+    <col min="6" max="6" width="16" style="141" customWidth="1"/>
+    <col min="7" max="7" width="28.54296875" style="141" customWidth="1"/>
+    <col min="8" max="8" width="10" style="141"/>
+    <col min="9" max="9" width="9.54296875" style="141" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" style="141" customWidth="1"/>
+    <col min="11" max="12" width="10" style="141" customWidth="1"/>
+    <col min="13" max="14" width="10" style="141"/>
+    <col min="15" max="15" width="44.7265625" style="141" customWidth="1"/>
+    <col min="16" max="16" width="50.26953125" style="141" customWidth="1"/>
+    <col min="17" max="16384" width="10" style="141"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="120" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="154" t="s">
+    <row r="1" spans="1:78" s="130" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="118"/>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
-      <c r="AH1" s="119"/>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="119"/>
-      <c r="AO1" s="119"/>
-      <c r="AP1" s="119"/>
-      <c r="AQ1" s="119"/>
-      <c r="AR1" s="119"/>
-      <c r="AS1" s="119"/>
-      <c r="AT1" s="119"/>
-      <c r="AU1" s="119"/>
-      <c r="AV1" s="119"/>
-      <c r="AW1" s="119"/>
-      <c r="AX1" s="119"/>
-      <c r="AY1" s="119"/>
-      <c r="AZ1" s="119"/>
-      <c r="BA1" s="119"/>
-      <c r="BB1" s="119"/>
-      <c r="BC1" s="119"/>
-      <c r="BD1" s="119"/>
-      <c r="BE1" s="119"/>
-      <c r="BF1" s="119"/>
-      <c r="BG1" s="119"/>
-      <c r="BH1" s="119"/>
-      <c r="BI1" s="119"/>
-      <c r="BJ1" s="119"/>
-      <c r="BK1" s="119"/>
-      <c r="BL1" s="119"/>
-      <c r="BM1" s="119"/>
-      <c r="BN1" s="119"/>
-      <c r="BO1" s="119"/>
-      <c r="BP1" s="119"/>
-      <c r="BQ1" s="119"/>
-      <c r="BR1" s="119"/>
-      <c r="BS1" s="119"/>
-      <c r="BT1" s="119"/>
-      <c r="BU1" s="119"/>
-      <c r="BV1" s="119"/>
-      <c r="BW1" s="119"/>
-      <c r="BX1" s="119"/>
-      <c r="BY1" s="119"/>
-      <c r="BZ1" s="119"/>
-    </row>
-    <row r="2" spans="1:78" s="120" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="118"/>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="118"/>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="119"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="119"/>
-      <c r="AH2" s="119"/>
-      <c r="AI2" s="119"/>
-      <c r="AJ2" s="119"/>
-      <c r="AK2" s="119"/>
-      <c r="AL2" s="119"/>
-      <c r="AM2" s="119"/>
-      <c r="AN2" s="119"/>
-      <c r="AO2" s="119"/>
-      <c r="AP2" s="119"/>
-      <c r="AQ2" s="119"/>
-      <c r="AR2" s="119"/>
-      <c r="AS2" s="119"/>
-      <c r="AT2" s="119"/>
-      <c r="AU2" s="119"/>
-      <c r="AV2" s="119"/>
-      <c r="AW2" s="119"/>
-      <c r="AX2" s="119"/>
-      <c r="AY2" s="119"/>
-      <c r="AZ2" s="119"/>
-      <c r="BA2" s="119"/>
-      <c r="BB2" s="119"/>
-      <c r="BC2" s="119"/>
-      <c r="BD2" s="119"/>
-      <c r="BE2" s="119"/>
-      <c r="BF2" s="119"/>
-      <c r="BG2" s="119"/>
-      <c r="BH2" s="119"/>
-      <c r="BI2" s="119"/>
-      <c r="BJ2" s="119"/>
-      <c r="BK2" s="119"/>
-      <c r="BL2" s="119"/>
-      <c r="BM2" s="119"/>
-      <c r="BN2" s="119"/>
-      <c r="BO2" s="119"/>
-      <c r="BP2" s="119"/>
-      <c r="BQ2" s="119"/>
-      <c r="BR2" s="119"/>
-      <c r="BS2" s="119"/>
-      <c r="BT2" s="119"/>
-      <c r="BU2" s="119"/>
-      <c r="BV2" s="119"/>
-      <c r="BW2" s="119"/>
-      <c r="BX2" s="119"/>
-      <c r="BY2" s="119"/>
-      <c r="BZ2" s="119"/>
-    </row>
-    <row r="3" spans="1:78" s="120" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="155"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="118"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="118"/>
-      <c r="AC3" s="118"/>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="119"/>
-      <c r="AJ3" s="119"/>
-      <c r="AK3" s="119"/>
-      <c r="AL3" s="119"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="119"/>
-      <c r="AO3" s="119"/>
-      <c r="AP3" s="119"/>
-      <c r="AQ3" s="119"/>
-      <c r="AR3" s="119"/>
-      <c r="AS3" s="119"/>
-      <c r="AT3" s="119"/>
-      <c r="AU3" s="119"/>
-      <c r="AV3" s="119"/>
-      <c r="AW3" s="119"/>
-      <c r="AX3" s="119"/>
-      <c r="AY3" s="119"/>
-      <c r="AZ3" s="119"/>
-      <c r="BA3" s="119"/>
-      <c r="BB3" s="119"/>
-      <c r="BC3" s="119"/>
-      <c r="BD3" s="119"/>
-      <c r="BE3" s="119"/>
-      <c r="BF3" s="119"/>
-      <c r="BG3" s="119"/>
-      <c r="BH3" s="119"/>
-      <c r="BI3" s="119"/>
-      <c r="BJ3" s="119"/>
-      <c r="BK3" s="119"/>
-      <c r="BL3" s="119"/>
-      <c r="BM3" s="119"/>
-      <c r="BN3" s="119"/>
-      <c r="BO3" s="119"/>
-      <c r="BP3" s="119"/>
-      <c r="BQ3" s="119"/>
-      <c r="BR3" s="119"/>
-      <c r="BS3" s="119"/>
-      <c r="BT3" s="119"/>
-      <c r="BU3" s="119"/>
-      <c r="BV3" s="119"/>
-      <c r="BW3" s="119"/>
-      <c r="BX3" s="119"/>
-      <c r="BY3" s="119"/>
-      <c r="BZ3" s="119"/>
-    </row>
-    <row r="4" spans="1:78" s="120" customFormat="1" ht="26.25">
-      <c r="A4" s="121"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="119"/>
-      <c r="AO4" s="119"/>
-      <c r="AP4" s="119"/>
-      <c r="AQ4" s="119"/>
-      <c r="AR4" s="119"/>
-      <c r="AS4" s="119"/>
-      <c r="AT4" s="119"/>
-      <c r="AU4" s="119"/>
-      <c r="AV4" s="119"/>
-      <c r="AW4" s="119"/>
-      <c r="AX4" s="119"/>
-      <c r="AY4" s="119"/>
-      <c r="AZ4" s="119"/>
-      <c r="BA4" s="119"/>
-      <c r="BB4" s="119"/>
-      <c r="BC4" s="119"/>
-      <c r="BD4" s="119"/>
-      <c r="BE4" s="119"/>
-      <c r="BF4" s="119"/>
-      <c r="BG4" s="119"/>
-      <c r="BH4" s="119"/>
-      <c r="BI4" s="119"/>
-      <c r="BJ4" s="119"/>
-      <c r="BK4" s="119"/>
-      <c r="BL4" s="119"/>
-      <c r="BM4" s="119"/>
-      <c r="BN4" s="119"/>
-      <c r="BO4" s="119"/>
-      <c r="BP4" s="119"/>
-      <c r="BQ4" s="119"/>
-      <c r="BR4" s="119"/>
-      <c r="BS4" s="119"/>
-      <c r="BT4" s="119"/>
-      <c r="BU4" s="119"/>
-      <c r="BV4" s="119"/>
-      <c r="BW4" s="119"/>
-      <c r="BX4" s="119"/>
-      <c r="BY4" s="119"/>
-      <c r="BZ4" s="119"/>
-    </row>
-    <row r="5" spans="1:78" s="120" customFormat="1" ht="42">
-      <c r="A5" s="122"/>
-      <c r="B5" s="123" t="s">
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="128"/>
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="129"/>
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="129"/>
+      <c r="AL1" s="129"/>
+      <c r="AM1" s="129"/>
+      <c r="AN1" s="129"/>
+      <c r="AO1" s="129"/>
+      <c r="AP1" s="129"/>
+      <c r="AQ1" s="129"/>
+      <c r="AR1" s="129"/>
+      <c r="AS1" s="129"/>
+      <c r="AT1" s="129"/>
+      <c r="AU1" s="129"/>
+      <c r="AV1" s="129"/>
+      <c r="AW1" s="129"/>
+      <c r="AX1" s="129"/>
+      <c r="AY1" s="129"/>
+      <c r="AZ1" s="129"/>
+      <c r="BA1" s="129"/>
+      <c r="BB1" s="129"/>
+      <c r="BC1" s="129"/>
+      <c r="BD1" s="129"/>
+      <c r="BE1" s="129"/>
+      <c r="BF1" s="129"/>
+      <c r="BG1" s="129"/>
+      <c r="BH1" s="129"/>
+      <c r="BI1" s="129"/>
+      <c r="BJ1" s="129"/>
+      <c r="BK1" s="129"/>
+      <c r="BL1" s="129"/>
+      <c r="BM1" s="129"/>
+      <c r="BN1" s="129"/>
+      <c r="BO1" s="129"/>
+      <c r="BP1" s="129"/>
+      <c r="BQ1" s="129"/>
+      <c r="BR1" s="129"/>
+      <c r="BS1" s="129"/>
+      <c r="BT1" s="129"/>
+      <c r="BU1" s="129"/>
+      <c r="BV1" s="129"/>
+      <c r="BW1" s="129"/>
+      <c r="BX1" s="129"/>
+      <c r="BY1" s="129"/>
+      <c r="BZ1" s="129"/>
+    </row>
+    <row r="2" spans="1:78" s="130" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="129"/>
+      <c r="AF2" s="129"/>
+      <c r="AG2" s="129"/>
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="129"/>
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="129"/>
+      <c r="AO2" s="129"/>
+      <c r="AP2" s="129"/>
+      <c r="AQ2" s="129"/>
+      <c r="AR2" s="129"/>
+      <c r="AS2" s="129"/>
+      <c r="AT2" s="129"/>
+      <c r="AU2" s="129"/>
+      <c r="AV2" s="129"/>
+      <c r="AW2" s="129"/>
+      <c r="AX2" s="129"/>
+      <c r="AY2" s="129"/>
+      <c r="AZ2" s="129"/>
+      <c r="BA2" s="129"/>
+      <c r="BB2" s="129"/>
+      <c r="BC2" s="129"/>
+      <c r="BD2" s="129"/>
+      <c r="BE2" s="129"/>
+      <c r="BF2" s="129"/>
+      <c r="BG2" s="129"/>
+      <c r="BH2" s="129"/>
+      <c r="BI2" s="129"/>
+      <c r="BJ2" s="129"/>
+      <c r="BK2" s="129"/>
+      <c r="BL2" s="129"/>
+      <c r="BM2" s="129"/>
+      <c r="BN2" s="129"/>
+      <c r="BO2" s="129"/>
+      <c r="BP2" s="129"/>
+      <c r="BQ2" s="129"/>
+      <c r="BR2" s="129"/>
+      <c r="BS2" s="129"/>
+      <c r="BT2" s="129"/>
+      <c r="BU2" s="129"/>
+      <c r="BV2" s="129"/>
+      <c r="BW2" s="129"/>
+      <c r="BX2" s="129"/>
+      <c r="BY2" s="129"/>
+      <c r="BZ2" s="129"/>
+    </row>
+    <row r="3" spans="1:78" s="130" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="165"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="129"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="129"/>
+      <c r="AJ3" s="129"/>
+      <c r="AK3" s="129"/>
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="129"/>
+      <c r="AN3" s="129"/>
+      <c r="AO3" s="129"/>
+      <c r="AP3" s="129"/>
+      <c r="AQ3" s="129"/>
+      <c r="AR3" s="129"/>
+      <c r="AS3" s="129"/>
+      <c r="AT3" s="129"/>
+      <c r="AU3" s="129"/>
+      <c r="AV3" s="129"/>
+      <c r="AW3" s="129"/>
+      <c r="AX3" s="129"/>
+      <c r="AY3" s="129"/>
+      <c r="AZ3" s="129"/>
+      <c r="BA3" s="129"/>
+      <c r="BB3" s="129"/>
+      <c r="BC3" s="129"/>
+      <c r="BD3" s="129"/>
+      <c r="BE3" s="129"/>
+      <c r="BF3" s="129"/>
+      <c r="BG3" s="129"/>
+      <c r="BH3" s="129"/>
+      <c r="BI3" s="129"/>
+      <c r="BJ3" s="129"/>
+      <c r="BK3" s="129"/>
+      <c r="BL3" s="129"/>
+      <c r="BM3" s="129"/>
+      <c r="BN3" s="129"/>
+      <c r="BO3" s="129"/>
+      <c r="BP3" s="129"/>
+      <c r="BQ3" s="129"/>
+      <c r="BR3" s="129"/>
+      <c r="BS3" s="129"/>
+      <c r="BT3" s="129"/>
+      <c r="BU3" s="129"/>
+      <c r="BV3" s="129"/>
+      <c r="BW3" s="129"/>
+      <c r="BX3" s="129"/>
+      <c r="BY3" s="129"/>
+      <c r="BZ3" s="129"/>
+    </row>
+    <row r="4" spans="1:78" s="130" customFormat="1" ht="26">
+      <c r="A4" s="131"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="129"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="129"/>
+      <c r="AL4" s="129"/>
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="129"/>
+      <c r="AR4" s="129"/>
+      <c r="AS4" s="129"/>
+      <c r="AT4" s="129"/>
+      <c r="AU4" s="129"/>
+      <c r="AV4" s="129"/>
+      <c r="AW4" s="129"/>
+      <c r="AX4" s="129"/>
+      <c r="AY4" s="129"/>
+      <c r="AZ4" s="129"/>
+      <c r="BA4" s="129"/>
+      <c r="BB4" s="129"/>
+      <c r="BC4" s="129"/>
+      <c r="BD4" s="129"/>
+      <c r="BE4" s="129"/>
+      <c r="BF4" s="129"/>
+      <c r="BG4" s="129"/>
+      <c r="BH4" s="129"/>
+      <c r="BI4" s="129"/>
+      <c r="BJ4" s="129"/>
+      <c r="BK4" s="129"/>
+      <c r="BL4" s="129"/>
+      <c r="BM4" s="129"/>
+      <c r="BN4" s="129"/>
+      <c r="BO4" s="129"/>
+      <c r="BP4" s="129"/>
+      <c r="BQ4" s="129"/>
+      <c r="BR4" s="129"/>
+      <c r="BS4" s="129"/>
+      <c r="BT4" s="129"/>
+      <c r="BU4" s="129"/>
+      <c r="BV4" s="129"/>
+      <c r="BW4" s="129"/>
+      <c r="BX4" s="129"/>
+      <c r="BY4" s="129"/>
+      <c r="BZ4" s="129"/>
+    </row>
+    <row r="5" spans="1:78" s="130" customFormat="1" ht="42">
+      <c r="A5" s="132"/>
+      <c r="B5" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="124" t="s">
+      <c r="G5" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="124" t="s">
+      <c r="H5" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="124" t="s">
+      <c r="I5" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="124" t="s">
-        <v>307</v>
-      </c>
-      <c r="K5" s="124" t="s">
-        <v>308</v>
-      </c>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="134" t="s">
+        <v>310</v>
+      </c>
+      <c r="K5" s="134" t="s">
+        <v>311</v>
+      </c>
+      <c r="L5" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="124" t="s">
+      <c r="M5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="124" t="s">
+      <c r="N5" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="125" t="s">
+      <c r="O5" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="125" t="s">
+      <c r="P5" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="119"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="119"/>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="119"/>
-      <c r="AH5" s="119"/>
-      <c r="AI5" s="119"/>
-      <c r="AJ5" s="119"/>
-      <c r="AK5" s="119"/>
-      <c r="AL5" s="119"/>
-      <c r="AM5" s="119"/>
-      <c r="AN5" s="119"/>
-      <c r="AO5" s="119"/>
-      <c r="AP5" s="119"/>
-      <c r="AQ5" s="119"/>
-      <c r="AR5" s="119"/>
-      <c r="AS5" s="119"/>
-      <c r="AT5" s="119"/>
-      <c r="AU5" s="119"/>
-      <c r="AV5" s="119"/>
-      <c r="AW5" s="119"/>
-      <c r="AX5" s="119"/>
-      <c r="AY5" s="119"/>
-      <c r="AZ5" s="119"/>
-      <c r="BA5" s="119"/>
-      <c r="BB5" s="119"/>
-      <c r="BC5" s="119"/>
-      <c r="BD5" s="119"/>
-      <c r="BE5" s="119"/>
-      <c r="BF5" s="119"/>
-      <c r="BG5" s="119"/>
-      <c r="BH5" s="119"/>
-      <c r="BI5" s="119"/>
-      <c r="BJ5" s="119"/>
-      <c r="BK5" s="119"/>
-      <c r="BL5" s="119"/>
-      <c r="BM5" s="119"/>
-      <c r="BN5" s="119"/>
-      <c r="BO5" s="119"/>
-      <c r="BP5" s="119"/>
-      <c r="BQ5" s="119"/>
-      <c r="BR5" s="119"/>
-      <c r="BS5" s="119"/>
-      <c r="BT5" s="119"/>
-      <c r="BU5" s="119"/>
-      <c r="BV5" s="119"/>
-      <c r="BW5" s="119"/>
-      <c r="BX5" s="119"/>
-      <c r="BY5" s="119"/>
-      <c r="BZ5" s="119"/>
-    </row>
-    <row r="6" spans="1:78" s="120" customFormat="1" ht="141" customHeight="1">
-      <c r="A6" s="122" t="s">
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="129"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="129"/>
+      <c r="AN5" s="129"/>
+      <c r="AO5" s="129"/>
+      <c r="AP5" s="129"/>
+      <c r="AQ5" s="129"/>
+      <c r="AR5" s="129"/>
+      <c r="AS5" s="129"/>
+      <c r="AT5" s="129"/>
+      <c r="AU5" s="129"/>
+      <c r="AV5" s="129"/>
+      <c r="AW5" s="129"/>
+      <c r="AX5" s="129"/>
+      <c r="AY5" s="129"/>
+      <c r="AZ5" s="129"/>
+      <c r="BA5" s="129"/>
+      <c r="BB5" s="129"/>
+      <c r="BC5" s="129"/>
+      <c r="BD5" s="129"/>
+      <c r="BE5" s="129"/>
+      <c r="BF5" s="129"/>
+      <c r="BG5" s="129"/>
+      <c r="BH5" s="129"/>
+      <c r="BI5" s="129"/>
+      <c r="BJ5" s="129"/>
+      <c r="BK5" s="129"/>
+      <c r="BL5" s="129"/>
+      <c r="BM5" s="129"/>
+      <c r="BN5" s="129"/>
+      <c r="BO5" s="129"/>
+      <c r="BP5" s="129"/>
+      <c r="BQ5" s="129"/>
+      <c r="BR5" s="129"/>
+      <c r="BS5" s="129"/>
+      <c r="BT5" s="129"/>
+      <c r="BU5" s="129"/>
+      <c r="BV5" s="129"/>
+      <c r="BW5" s="129"/>
+      <c r="BX5" s="129"/>
+      <c r="BY5" s="129"/>
+      <c r="BZ5" s="129"/>
+    </row>
+    <row r="6" spans="1:78" s="130" customFormat="1" ht="141" customHeight="1">
+      <c r="A6" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="127" t="s">
-        <v>283</v>
-      </c>
-      <c r="D6" s="127" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" s="127" t="s">
-        <v>285</v>
-      </c>
-      <c r="F6" s="127" t="s">
+      <c r="C6" s="137" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="137" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="137" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="127" t="s">
-        <v>286</v>
-      </c>
-      <c r="H6" s="127">
+      <c r="G6" s="137" t="s">
+        <v>289</v>
+      </c>
+      <c r="H6" s="137">
         <v>3</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="128">
+      <c r="I6" s="137"/>
+      <c r="J6" s="138">
         <v>43977</v>
       </c>
-      <c r="K6" s="128">
+      <c r="K6" s="138">
         <v>43980</v>
       </c>
-      <c r="L6" s="128" t="s">
-        <v>310</v>
-      </c>
-      <c r="M6" s="127" t="s">
-        <v>287</v>
-      </c>
-      <c r="N6" s="127"/>
-      <c r="O6" s="129" t="s">
-        <v>288</v>
-      </c>
-      <c r="P6" s="130" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="119"/>
-      <c r="AH6" s="119"/>
-      <c r="AI6" s="119"/>
-      <c r="AJ6" s="119"/>
-      <c r="AK6" s="119"/>
-      <c r="AL6" s="119"/>
-      <c r="AM6" s="119"/>
-      <c r="AN6" s="119"/>
-      <c r="AO6" s="119"/>
-      <c r="AP6" s="119"/>
-      <c r="AQ6" s="119"/>
-      <c r="AR6" s="119"/>
-      <c r="AS6" s="119"/>
-      <c r="AT6" s="119"/>
-      <c r="AU6" s="119"/>
-      <c r="AV6" s="119"/>
-      <c r="AW6" s="119"/>
-      <c r="AX6" s="119"/>
-      <c r="AY6" s="119"/>
-      <c r="AZ6" s="119"/>
-      <c r="BA6" s="119"/>
-      <c r="BB6" s="119"/>
-      <c r="BC6" s="119"/>
-      <c r="BD6" s="119"/>
-      <c r="BE6" s="119"/>
-      <c r="BF6" s="119"/>
-      <c r="BG6" s="119"/>
-      <c r="BH6" s="119"/>
-      <c r="BI6" s="119"/>
-      <c r="BJ6" s="119"/>
-      <c r="BK6" s="119"/>
-      <c r="BL6" s="119"/>
-      <c r="BM6" s="119"/>
-      <c r="BN6" s="119"/>
-      <c r="BO6" s="119"/>
-      <c r="BP6" s="119"/>
-      <c r="BQ6" s="119"/>
-      <c r="BR6" s="119"/>
-      <c r="BS6" s="119"/>
-      <c r="BT6" s="119"/>
-      <c r="BU6" s="119"/>
-      <c r="BV6" s="119"/>
-      <c r="BW6" s="119"/>
-      <c r="BX6" s="119"/>
-      <c r="BY6" s="119"/>
-      <c r="BZ6" s="119"/>
-    </row>
-    <row r="7" spans="1:78" s="120" customFormat="1" ht="129" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="126" t="s">
+      <c r="L6" s="138" t="s">
+        <v>313</v>
+      </c>
+      <c r="M6" s="137" t="s">
+        <v>290</v>
+      </c>
+      <c r="N6" s="137"/>
+      <c r="O6" s="139" t="s">
+        <v>291</v>
+      </c>
+      <c r="P6" s="140" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129"/>
+      <c r="AO6" s="129"/>
+      <c r="AP6" s="129"/>
+      <c r="AQ6" s="129"/>
+      <c r="AR6" s="129"/>
+      <c r="AS6" s="129"/>
+      <c r="AT6" s="129"/>
+      <c r="AU6" s="129"/>
+      <c r="AV6" s="129"/>
+      <c r="AW6" s="129"/>
+      <c r="AX6" s="129"/>
+      <c r="AY6" s="129"/>
+      <c r="AZ6" s="129"/>
+      <c r="BA6" s="129"/>
+      <c r="BB6" s="129"/>
+      <c r="BC6" s="129"/>
+      <c r="BD6" s="129"/>
+      <c r="BE6" s="129"/>
+      <c r="BF6" s="129"/>
+      <c r="BG6" s="129"/>
+      <c r="BH6" s="129"/>
+      <c r="BI6" s="129"/>
+      <c r="BJ6" s="129"/>
+      <c r="BK6" s="129"/>
+      <c r="BL6" s="129"/>
+      <c r="BM6" s="129"/>
+      <c r="BN6" s="129"/>
+      <c r="BO6" s="129"/>
+      <c r="BP6" s="129"/>
+      <c r="BQ6" s="129"/>
+      <c r="BR6" s="129"/>
+      <c r="BS6" s="129"/>
+      <c r="BT6" s="129"/>
+      <c r="BU6" s="129"/>
+      <c r="BV6" s="129"/>
+      <c r="BW6" s="129"/>
+      <c r="BX6" s="129"/>
+      <c r="BY6" s="129"/>
+      <c r="BZ6" s="129"/>
+    </row>
+    <row r="7" spans="1:78" s="130" customFormat="1" ht="129" customHeight="1">
+      <c r="A7" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="137" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="137" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="137">
+        <v>2</v>
+      </c>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138">
+        <v>43980</v>
+      </c>
+      <c r="K7" s="138">
+        <v>43984</v>
+      </c>
+      <c r="L7" s="138" t="s">
+        <v>313</v>
+      </c>
+      <c r="M7" s="137" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="127" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" s="127" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" s="127" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="127" t="s">
-        <v>291</v>
-      </c>
-      <c r="H7" s="127">
-        <v>2</v>
-      </c>
-      <c r="I7" s="127"/>
-      <c r="J7" s="128">
-        <v>43980</v>
-      </c>
-      <c r="K7" s="128">
-        <v>43984</v>
-      </c>
-      <c r="L7" s="128" t="s">
-        <v>310</v>
-      </c>
-      <c r="M7" s="127" t="s">
-        <v>287</v>
-      </c>
-      <c r="N7" s="127"/>
-      <c r="O7" s="129" t="s">
-        <v>258</v>
-      </c>
-      <c r="P7" s="130" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="119"/>
-      <c r="AK7" s="119"/>
-      <c r="AL7" s="119"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="119"/>
-      <c r="AO7" s="119"/>
-      <c r="AP7" s="119"/>
-      <c r="AQ7" s="119"/>
-      <c r="AR7" s="119"/>
-      <c r="AS7" s="119"/>
-      <c r="AT7" s="119"/>
-      <c r="AU7" s="119"/>
-      <c r="AV7" s="119"/>
-      <c r="AW7" s="119"/>
-      <c r="AX7" s="119"/>
-      <c r="AY7" s="119"/>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="119"/>
-      <c r="BB7" s="119"/>
-      <c r="BC7" s="119"/>
-      <c r="BD7" s="119"/>
-      <c r="BE7" s="119"/>
-      <c r="BF7" s="119"/>
-      <c r="BG7" s="119"/>
-      <c r="BH7" s="119"/>
-      <c r="BI7" s="119"/>
-      <c r="BJ7" s="119"/>
-      <c r="BK7" s="119"/>
-      <c r="BL7" s="119"/>
-      <c r="BM7" s="119"/>
-      <c r="BN7" s="119"/>
-      <c r="BO7" s="119"/>
-      <c r="BP7" s="119"/>
-      <c r="BQ7" s="119"/>
-      <c r="BR7" s="119"/>
-      <c r="BS7" s="119"/>
-      <c r="BT7" s="119"/>
-      <c r="BU7" s="119"/>
-      <c r="BV7" s="119"/>
-      <c r="BW7" s="119"/>
-      <c r="BX7" s="119"/>
-      <c r="BY7" s="119"/>
-      <c r="BZ7" s="119"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="139" t="s">
+        <v>261</v>
+      </c>
+      <c r="P7" s="140" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="129"/>
+      <c r="AB7" s="129"/>
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="129"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="129"/>
+      <c r="AG7" s="129"/>
+      <c r="AH7" s="129"/>
+      <c r="AI7" s="129"/>
+      <c r="AJ7" s="129"/>
+      <c r="AK7" s="129"/>
+      <c r="AL7" s="129"/>
+      <c r="AM7" s="129"/>
+      <c r="AN7" s="129"/>
+      <c r="AO7" s="129"/>
+      <c r="AP7" s="129"/>
+      <c r="AQ7" s="129"/>
+      <c r="AR7" s="129"/>
+      <c r="AS7" s="129"/>
+      <c r="AT7" s="129"/>
+      <c r="AU7" s="129"/>
+      <c r="AV7" s="129"/>
+      <c r="AW7" s="129"/>
+      <c r="AX7" s="129"/>
+      <c r="AY7" s="129"/>
+      <c r="AZ7" s="129"/>
+      <c r="BA7" s="129"/>
+      <c r="BB7" s="129"/>
+      <c r="BC7" s="129"/>
+      <c r="BD7" s="129"/>
+      <c r="BE7" s="129"/>
+      <c r="BF7" s="129"/>
+      <c r="BG7" s="129"/>
+      <c r="BH7" s="129"/>
+      <c r="BI7" s="129"/>
+      <c r="BJ7" s="129"/>
+      <c r="BK7" s="129"/>
+      <c r="BL7" s="129"/>
+      <c r="BM7" s="129"/>
+      <c r="BN7" s="129"/>
+      <c r="BO7" s="129"/>
+      <c r="BP7" s="129"/>
+      <c r="BQ7" s="129"/>
+      <c r="BR7" s="129"/>
+      <c r="BS7" s="129"/>
+      <c r="BT7" s="129"/>
+      <c r="BU7" s="129"/>
+      <c r="BV7" s="129"/>
+      <c r="BW7" s="129"/>
+      <c r="BX7" s="129"/>
+      <c r="BY7" s="129"/>
+      <c r="BZ7" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15590,27 +15578,27 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="162"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="172"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -15640,108 +15628,108 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="47.1" customHeight="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="47.15" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.5">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="82" t="s">
-        <v>270</v>
+      <c r="D5" s="92" t="s">
+        <v>273</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="54.95" customHeight="1">
-      <c r="A6" s="110">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="55" customHeight="1">
+      <c r="A6" s="120">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="51.95" customHeight="1">
-      <c r="A7" s="111">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="52" customHeight="1">
+      <c r="A7" s="121">
         <v>5</v>
       </c>
-      <c r="B7" s="112" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="112" t="s">
-        <v>278</v>
-      </c>
-      <c r="E7" s="114" t="s">
-        <v>279</v>
+      <c r="B7" s="122" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="123"/>
+      <c r="D7" s="122" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="124" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A8" s="115">
+      <c r="A8" s="125">
         <v>6</v>
       </c>
-      <c r="B8" s="116" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117" t="s">
-        <v>278</v>
-      </c>
-      <c r="E8" s="117" t="s">
+      <c r="B8" s="126" t="s">
         <v>280</v>
       </c>
+      <c r="C8" s="126"/>
+      <c r="D8" s="127" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="127" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1">
-      <c r="A9" s="111">
+      <c r="A9" s="121">
         <v>7</v>
       </c>
-      <c r="B9" s="82" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" s="117" t="s">
-        <v>282</v>
+      <c r="B9" s="92" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="126"/>
+      <c r="D9" s="127" t="s">
+        <v>284</v>
+      </c>
+      <c r="E9" s="127" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="C10" s="80"/>
+      <c r="C10" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Userstories and TDD Testcases For College Admission Predictor project modified.xlsx
+++ b/Userstories and TDD Testcases For College Admission Predictor project modified.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kommahes\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="5" state="hidden" r:id="rId1"/>
@@ -33,7 +28,7 @@
     <sheet name="Dheeraj TDD Test Cases" sheetId="3" r:id="rId19"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="318">
   <si>
     <t>TDD Test Cases</t>
   </si>
@@ -1164,11 +1159,14 @@
   <si>
     <t>Yet to  start</t>
   </si>
+  <si>
+    <t>2.5 Reset Password</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="35">
     <font>
       <sz val="11"/>
@@ -2124,7 +2122,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2662,9 +2660,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2735,6 +2730,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3045,7 +3052,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3058,7 +3065,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3073,23 +3080,23 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" customWidth="1"/>
-    <col min="7" max="7" width="40.1796875" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" customWidth="1"/>
-    <col min="10" max="11" width="17.54296875" customWidth="1"/>
-    <col min="12" max="12" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="21.81640625" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
     <col min="15" max="15" width="49" customWidth="1"/>
-    <col min="16" max="16" width="57.54296875" customWidth="1"/>
+    <col min="16" max="16" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3150,7 +3157,7 @@
       <c r="O3" s="176"/>
       <c r="P3" s="176"/>
     </row>
-    <row r="4" spans="1:16" ht="26">
+    <row r="4" spans="1:16" ht="26.25">
       <c r="A4" s="13"/>
       <c r="B4" s="177" t="s">
         <v>263</v>
@@ -3218,7 +3225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="96.65" customHeight="1">
+    <row r="6" spans="1:16" ht="96.6" customHeight="1">
       <c r="A6" s="179" t="s">
         <v>242</v>
       </c>
@@ -3362,21 +3369,21 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:BY136"/>
+  <dimension ref="A1:BY137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="39" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" style="29" customWidth="1"/>
-    <col min="4" max="13" width="33.453125" style="29" customWidth="1"/>
-    <col min="14" max="14" width="61.54296875" style="31" customWidth="1"/>
-    <col min="15" max="15" width="68.7265625" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="12"/>
+    <col min="1" max="1" width="32.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="29" customWidth="1"/>
+    <col min="4" max="13" width="33.42578125" style="29" customWidth="1"/>
+    <col min="14" max="14" width="61.5703125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="68.7109375" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="15" customHeight="1">
@@ -3620,7 +3627,7 @@
       <c r="BX3" s="11"/>
       <c r="BY3" s="11"/>
     </row>
-    <row r="4" spans="1:77" ht="26">
+    <row r="4" spans="1:77" ht="26.25">
       <c r="A4" s="13"/>
       <c r="B4" s="177"/>
       <c r="C4" s="177"/>
@@ -3909,7 +3916,7 @@
       <c r="BX6" s="11"/>
       <c r="BY6" s="11"/>
     </row>
-    <row r="7" spans="1:77" ht="43.5">
+    <row r="7" spans="1:77" ht="45">
       <c r="A7" s="181"/>
       <c r="B7" s="95" t="s">
         <v>37</v>
@@ -4010,7 +4017,7 @@
       <c r="BX7" s="11"/>
       <c r="BY7" s="11"/>
     </row>
-    <row r="8" spans="1:77" ht="43.5">
+    <row r="8" spans="1:77" ht="45">
       <c r="A8" s="181"/>
       <c r="B8" s="95" t="s">
         <v>102</v>
@@ -4110,7 +4117,7 @@
       <c r="BX8" s="11"/>
       <c r="BY8" s="11"/>
     </row>
-    <row r="9" spans="1:77" ht="43.5">
+    <row r="9" spans="1:77" ht="45">
       <c r="A9" s="181"/>
       <c r="B9" s="95" t="s">
         <v>37</v>
@@ -4210,7 +4217,7 @@
       <c r="BX9" s="11"/>
       <c r="BY9" s="11"/>
     </row>
-    <row r="10" spans="1:77" ht="29">
+    <row r="10" spans="1:77" ht="45">
       <c r="A10" s="182"/>
       <c r="B10" s="95" t="s">
         <v>37</v>
@@ -4412,7 +4419,7 @@
       <c r="BX11" s="11"/>
       <c r="BY11" s="11"/>
     </row>
-    <row r="12" spans="1:77" ht="43.5">
+    <row r="12" spans="1:77" ht="45">
       <c r="A12" s="180"/>
       <c r="B12" s="33" t="s">
         <v>37</v>
@@ -4512,7 +4519,7 @@
       <c r="BX12" s="11"/>
       <c r="BY12" s="11"/>
     </row>
-    <row r="13" spans="1:77" ht="43.5">
+    <row r="13" spans="1:77" ht="45">
       <c r="A13" s="180"/>
       <c r="B13" s="33" t="s">
         <v>102</v>
@@ -4612,7 +4619,7 @@
       <c r="BX13" s="11"/>
       <c r="BY13" s="11"/>
     </row>
-    <row r="14" spans="1:77" ht="43.5">
+    <row r="14" spans="1:77" ht="60">
       <c r="A14" s="183"/>
       <c r="B14" s="97" t="s">
         <v>102</v>
@@ -4640,7 +4647,7 @@
       <c r="K14" s="160">
         <v>43979</v>
       </c>
-      <c r="L14" s="185"/>
+      <c r="L14" s="214"/>
       <c r="N14" s="100" t="s">
         <v>240</v>
       </c>
@@ -4710,43 +4717,39 @@
       <c r="BX14" s="11"/>
       <c r="BY14" s="11"/>
     </row>
-    <row r="15" spans="1:77" ht="78">
-      <c r="A15" s="102" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" s="103" t="s">
-        <v>102</v>
-      </c>
+    <row r="15" spans="1:77" ht="80.25" customHeight="1">
+      <c r="A15" s="211"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="29" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="H15" s="29">
         <v>2</v>
       </c>
       <c r="J15" s="156">
-        <v>43977</v>
-      </c>
-      <c r="K15" s="157">
-        <v>43979</v>
-      </c>
-      <c r="L15" s="104" t="s">
-        <v>245</v>
+        <v>43980</v>
+      </c>
+      <c r="K15" s="156">
+        <v>43985</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>233</v>
       </c>
       <c r="M15" s="105"/>
-      <c r="N15" s="106" t="s">
-        <v>246</v>
-      </c>
-      <c r="O15" s="107" t="s">
-        <v>247</v>
+      <c r="N15" s="212" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" s="213" t="s">
+        <v>127</v>
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -4811,41 +4814,43 @@
       <c r="BX15" s="11"/>
       <c r="BY15" s="11"/>
     </row>
-    <row r="16" spans="1:77" ht="43.5">
-      <c r="A16" s="108"/>
-      <c r="B16" s="109" t="s">
+    <row r="16" spans="1:77" ht="78.75">
+      <c r="A16" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="110" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="104" t="s">
-        <v>249</v>
-      </c>
-      <c r="E16" s="110" t="s">
-        <v>250</v>
-      </c>
-      <c r="F16" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110">
-        <v>1</v>
-      </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="158">
+      <c r="C16" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="29">
+        <v>2</v>
+      </c>
+      <c r="J16" s="156">
+        <v>43977</v>
+      </c>
+      <c r="K16" s="157">
         <v>43979</v>
       </c>
-      <c r="K16" s="158">
-        <v>43980</v>
-      </c>
-      <c r="L16" s="104"/>
+      <c r="L16" s="104" t="s">
+        <v>245</v>
+      </c>
       <c r="M16" s="105"/>
-      <c r="N16" s="111" t="s">
-        <v>251</v>
-      </c>
-      <c r="O16" s="112" t="s">
-        <v>252</v>
+      <c r="N16" s="106" t="s">
+        <v>246</v>
+      </c>
+      <c r="O16" s="117" t="s">
+        <v>247</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -4910,22 +4915,42 @@
       <c r="BX16" s="11"/>
       <c r="BY16" s="11"/>
     </row>
-    <row r="17" spans="1:77" ht="26">
+    <row r="17" spans="1:77" ht="45">
       <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
+      <c r="B17" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="104" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" s="110" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="110" t="s">
+        <v>41</v>
+      </c>
       <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
+      <c r="H17" s="110">
+        <v>1</v>
+      </c>
       <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="107"/>
+      <c r="J17" s="158">
+        <v>43979</v>
+      </c>
+      <c r="K17" s="158">
+        <v>43980</v>
+      </c>
+      <c r="L17" s="104"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="111" t="s">
+        <v>251</v>
+      </c>
+      <c r="O17" s="112" t="s">
+        <v>252</v>
+      </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -4989,39 +5014,22 @@
       <c r="BX17" s="11"/>
       <c r="BY17" s="11"/>
     </row>
-    <row r="18" spans="1:77" ht="29">
-      <c r="A18" s="151"/>
-      <c r="B18" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="D18" s="114" t="s">
-        <v>254</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="29">
-        <v>1</v>
-      </c>
-      <c r="J18" s="156">
-        <v>43980</v>
-      </c>
-      <c r="K18" s="156">
-        <v>43983</v>
-      </c>
-      <c r="L18" s="113"/>
-      <c r="N18" s="115" t="s">
-        <v>256</v>
-      </c>
-      <c r="O18" s="116" t="s">
-        <v>252</v>
-      </c>
+    <row r="18" spans="1:77" ht="26.25">
+      <c r="A18" s="108"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="107"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -5085,41 +5093,38 @@
       <c r="BX18" s="11"/>
       <c r="BY18" s="11"/>
     </row>
-    <row r="19" spans="1:77" ht="43.5">
-      <c r="A19" s="150"/>
+    <row r="19" spans="1:77" ht="45">
+      <c r="A19" s="151"/>
       <c r="B19" s="103" t="s">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D19" s="114" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>41</v>
       </c>
       <c r="H19" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="156">
         <v>43980</v>
       </c>
       <c r="K19" s="156">
-        <v>43984</v>
-      </c>
-      <c r="L19" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="M19" s="113"/>
+        <v>43983</v>
+      </c>
+      <c r="L19" s="113"/>
       <c r="N19" s="115" t="s">
-        <v>261</v>
-      </c>
-      <c r="O19" s="117" t="s">
-        <v>262</v>
+        <v>256</v>
+      </c>
+      <c r="O19" s="116" t="s">
+        <v>252</v>
       </c>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
@@ -5184,22 +5189,42 @@
       <c r="BX19" s="11"/>
       <c r="BY19" s="11"/>
     </row>
-    <row r="20" spans="1:77">
-      <c r="A20" s="27"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="11"/>
+    <row r="20" spans="1:77" ht="45">
+      <c r="A20" s="150"/>
+      <c r="B20" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="114" t="s">
+        <v>259</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="29">
+        <v>2</v>
+      </c>
+      <c r="J20" s="156">
+        <v>43980</v>
+      </c>
+      <c r="K20" s="156">
+        <v>43984</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" s="113"/>
+      <c r="N20" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="O20" s="117" t="s">
+        <v>262</v>
+      </c>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
@@ -5265,7 +5290,7 @@
     </row>
     <row r="21" spans="1:77">
       <c r="A21" s="27"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -5595,6 +5620,68 @@
       <c r="M25" s="11"/>
       <c r="N25" s="28"/>
       <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="11"/>
+      <c r="AR25" s="11"/>
+      <c r="AS25" s="11"/>
+      <c r="AT25" s="11"/>
+      <c r="AU25" s="11"/>
+      <c r="AV25" s="11"/>
+      <c r="AW25" s="11"/>
+      <c r="AX25" s="11"/>
+      <c r="AY25" s="11"/>
+      <c r="AZ25" s="11"/>
+      <c r="BA25" s="11"/>
+      <c r="BB25" s="11"/>
+      <c r="BC25" s="11"/>
+      <c r="BD25" s="11"/>
+      <c r="BE25" s="11"/>
+      <c r="BF25" s="11"/>
+      <c r="BG25" s="11"/>
+      <c r="BH25" s="11"/>
+      <c r="BI25" s="11"/>
+      <c r="BJ25" s="11"/>
+      <c r="BK25" s="11"/>
+      <c r="BL25" s="11"/>
+      <c r="BM25" s="11"/>
+      <c r="BN25" s="11"/>
+      <c r="BO25" s="11"/>
+      <c r="BP25" s="11"/>
+      <c r="BQ25" s="11"/>
+      <c r="BR25" s="11"/>
+      <c r="BS25" s="11"/>
+      <c r="BT25" s="11"/>
+      <c r="BU25" s="11"/>
+      <c r="BV25" s="11"/>
+      <c r="BW25" s="11"/>
+      <c r="BX25" s="11"/>
+      <c r="BY25" s="11"/>
     </row>
     <row r="26" spans="1:77">
       <c r="A26" s="27"/>
@@ -5800,7 +5887,7 @@
       <c r="N37" s="28"/>
       <c r="O37" s="11"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="409.6">
       <c r="A38" s="27"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -7450,6 +7537,7 @@
       <c r="O134" s="11"/>
     </row>
     <row r="135" spans="1:15">
+      <c r="A135" s="27"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
@@ -7467,6 +7555,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
@@ -7479,6 +7568,21 @@
       <c r="M136" s="11"/>
       <c r="N136" s="28"/>
       <c r="O136" s="11"/>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="B137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="28"/>
+      <c r="O137" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7502,23 +7606,23 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="31.453125" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" customWidth="1"/>
-    <col min="11" max="12" width="12.81640625" customWidth="1"/>
-    <col min="13" max="13" width="21.1796875" customWidth="1"/>
-    <col min="14" max="14" width="22.453125" customWidth="1"/>
-    <col min="15" max="15" width="60.1796875" customWidth="1"/>
-    <col min="16" max="16" width="59.81640625" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="15" max="15" width="60.140625" customWidth="1"/>
+    <col min="16" max="16" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7579,7 +7683,7 @@
       <c r="O3" s="176"/>
       <c r="P3" s="176"/>
     </row>
-    <row r="4" spans="1:16" ht="26">
+    <row r="4" spans="1:16" ht="26.25">
       <c r="A4" s="13"/>
       <c r="B4" s="177"/>
       <c r="C4" s="177"/>
@@ -7680,7 +7784,7 @@
       <c r="L6" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="M6" s="186" t="s">
+      <c r="M6" s="185" t="s">
         <v>190</v>
       </c>
       <c r="N6" s="19"/>
@@ -7724,7 +7828,7 @@
       <c r="L7" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="M7" s="187"/>
+      <c r="M7" s="186"/>
       <c r="N7" s="19"/>
       <c r="O7" s="22" t="s">
         <v>198</v>
@@ -7754,27 +7858,27 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="38.54296875" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -7884,27 +7988,27 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="44.26953125" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="32.81640625" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1">
       <c r="A2" s="58" t="s">
@@ -8101,63 +8205,63 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="53" customWidth="1"/>
-    <col min="2" max="3" width="19.81640625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="37.1796875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="40.26953125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="53" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" style="53" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" style="53" customWidth="1"/>
     <col min="7" max="7" width="29" style="53" customWidth="1"/>
-    <col min="8" max="8" width="54.7265625" style="53" customWidth="1"/>
-    <col min="9" max="10" width="18.453125" style="53" customWidth="1"/>
+    <col min="8" max="8" width="54.7109375" style="53" customWidth="1"/>
+    <col min="9" max="10" width="18.42578125" style="53" customWidth="1"/>
     <col min="11" max="11" width="16" style="53" customWidth="1"/>
-    <col min="12" max="12" width="16.81640625" style="53" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="53" customWidth="1"/>
     <col min="13" max="13" width="16" style="53" customWidth="1"/>
     <col min="14" max="15" width="15" style="53" customWidth="1"/>
-    <col min="16" max="16" width="47.1796875" style="53" customWidth="1"/>
-    <col min="17" max="17" width="46.26953125" style="53" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="53"/>
+    <col min="16" max="16" width="47.140625" style="53" customWidth="1"/>
+    <col min="17" max="17" width="46.28515625" style="53" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="44" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="192"/>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="192"/>
-      <c r="AA1" s="192"/>
-      <c r="AB1" s="192"/>
-      <c r="AC1" s="192"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
     </row>
     <row r="2" spans="1:29" s="44" customFormat="1" ht="30.75" customHeight="1">
       <c r="A2" s="45"/>
@@ -8211,7 +8315,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="123.75" customHeight="1">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="192" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -8260,7 +8364,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="138.75" customHeight="1">
-      <c r="A4" s="193"/>
+      <c r="A4" s="192"/>
       <c r="B4" s="47" t="s">
         <v>102</v>
       </c>
@@ -8307,7 +8411,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="124.5" customHeight="1">
-      <c r="A5" s="193"/>
+      <c r="A5" s="192"/>
       <c r="B5" s="47" t="s">
         <v>102</v>
       </c>
@@ -8329,14 +8433,14 @@
       <c r="H5" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="194">
+      <c r="I5" s="193">
         <v>2</v>
       </c>
       <c r="J5" s="155">
         <v>43980</v>
       </c>
       <c r="K5" s="155">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="L5" s="51"/>
       <c r="M5" s="51" t="s">
@@ -8354,7 +8458,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="64.5" customHeight="1">
-      <c r="A6" s="193"/>
+      <c r="A6" s="192"/>
       <c r="B6" s="47" t="s">
         <v>102</v>
       </c>
@@ -8376,12 +8480,12 @@
       <c r="H6" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="I6" s="194"/>
+      <c r="I6" s="193"/>
       <c r="J6" s="155">
+        <v>43984</v>
+      </c>
+      <c r="K6" s="155">
         <v>43985</v>
-      </c>
-      <c r="K6" s="155">
-        <v>43987</v>
       </c>
       <c r="L6" s="51"/>
       <c r="M6" s="51" t="s">
@@ -8469,26 +8573,26 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="3" width="33.7265625" customWidth="1"/>
-    <col min="4" max="4" width="31.7265625" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -8513,7 +8617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="72.5">
+    <row r="3" spans="1:11" ht="75">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -8633,23 +8737,23 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" customWidth="1"/>
-    <col min="7" max="7" width="40.1796875" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" customWidth="1"/>
-    <col min="10" max="11" width="17.54296875" customWidth="1"/>
-    <col min="12" max="12" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="21.81640625" customWidth="1"/>
-    <col min="15" max="15" width="53.7265625" customWidth="1"/>
-    <col min="16" max="16" width="57.54296875" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="15" max="15" width="53.7109375" customWidth="1"/>
+    <col min="16" max="16" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -8710,7 +8814,7 @@
       <c r="O3" s="176"/>
       <c r="P3" s="176"/>
     </row>
-    <row r="4" spans="1:16" ht="26">
+    <row r="4" spans="1:16" ht="26.25">
       <c r="A4" s="13"/>
       <c r="B4" s="177"/>
       <c r="C4" s="177"/>
@@ -8728,7 +8832,7 @@
       <c r="O4" s="177"/>
       <c r="P4" s="178"/>
     </row>
-    <row r="5" spans="1:16" ht="60.65" customHeight="1">
+    <row r="5" spans="1:16" ht="60.6" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>23</v>
@@ -8777,7 +8881,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="69.75" customHeight="1">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="194" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -8811,7 +8915,7 @@
       <c r="L6" s="154">
         <v>43978</v>
       </c>
-      <c r="M6" s="198" t="s">
+      <c r="M6" s="197" t="s">
         <v>66</v>
       </c>
       <c r="N6" s="37"/>
@@ -8823,7 +8927,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="66.75" customHeight="1">
-      <c r="A7" s="196"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="33" t="s">
         <v>37</v>
       </c>
@@ -8842,7 +8946,7 @@
       <c r="G7" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="197"/>
+      <c r="H7" s="196"/>
       <c r="I7" s="19"/>
       <c r="J7" s="153">
         <v>43979</v>
@@ -8853,7 +8957,7 @@
       <c r="L7" s="154">
         <v>43979</v>
       </c>
-      <c r="M7" s="199"/>
+      <c r="M7" s="198"/>
       <c r="N7" s="37"/>
       <c r="O7" s="38" t="s">
         <v>74</v>
@@ -8897,7 +9001,7 @@
       <c r="L8" s="154">
         <v>43984</v>
       </c>
-      <c r="M8" s="199"/>
+      <c r="M8" s="198"/>
       <c r="N8" s="37"/>
       <c r="O8" s="38" t="s">
         <v>78</v>
@@ -8929,38 +9033,38 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" style="29" customWidth="1"/>
-    <col min="4" max="14" width="33.453125" style="29" customWidth="1"/>
-    <col min="15" max="15" width="61.54296875" style="31" customWidth="1"/>
-    <col min="16" max="16" width="68.7265625" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="12"/>
+    <col min="1" max="1" width="32.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="29" customWidth="1"/>
+    <col min="4" max="14" width="33.42578125" style="29" customWidth="1"/>
+    <col min="15" max="15" width="61.5703125" style="31" customWidth="1"/>
+    <col min="16" max="16" width="68.7109375" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="15" customHeight="1">
       <c r="A1" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
-      <c r="P1" s="202"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="201"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
@@ -9026,21 +9130,21 @@
     </row>
     <row r="2" spans="1:78" ht="15" customHeight="1">
       <c r="A2" s="174"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="204"/>
-      <c r="P2" s="205"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -9106,21 +9210,21 @@
     </row>
     <row r="3" spans="1:78" ht="15" customHeight="1">
       <c r="A3" s="174"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="207"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="208"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
@@ -9184,9 +9288,9 @@
       <c r="BY3" s="11"/>
       <c r="BZ3" s="11"/>
     </row>
-    <row r="4" spans="1:78" ht="26">
+    <row r="4" spans="1:78" ht="26.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="209"/>
+      <c r="B4" s="208"/>
       <c r="C4" s="177"/>
       <c r="D4" s="177"/>
       <c r="E4" s="177"/>
@@ -9374,7 +9478,7 @@
       <c r="BY5" s="11"/>
       <c r="BZ5" s="11"/>
     </row>
-    <row r="6" spans="1:78" ht="87">
+    <row r="6" spans="1:78" ht="90">
       <c r="A6" s="181" t="s">
         <v>36</v>
       </c>
@@ -9409,7 +9513,7 @@
       <c r="L6" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="M6" s="210" t="s">
+      <c r="M6" s="209" t="s">
         <v>43</v>
       </c>
       <c r="N6" s="19"/>
@@ -9482,7 +9586,7 @@
       <c r="BY6" s="11"/>
       <c r="BZ6" s="11"/>
     </row>
-    <row r="7" spans="1:78" ht="116">
+    <row r="7" spans="1:78" ht="120">
       <c r="A7" s="181"/>
       <c r="B7" s="18" t="s">
         <v>37</v>
@@ -9515,7 +9619,7 @@
       <c r="L7" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="M7" s="211"/>
+      <c r="M7" s="210"/>
       <c r="N7" s="19"/>
       <c r="O7" s="22" t="s">
         <v>51</v>
@@ -9586,7 +9690,7 @@
       <c r="BY7" s="11"/>
       <c r="BZ7" s="11"/>
     </row>
-    <row r="8" spans="1:78" ht="116">
+    <row r="8" spans="1:78" ht="120">
       <c r="A8" s="181"/>
       <c r="B8" s="18" t="s">
         <v>37</v>
@@ -9619,7 +9723,7 @@
       <c r="L8" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="M8" s="211"/>
+      <c r="M8" s="210"/>
       <c r="N8" s="19"/>
       <c r="O8" s="22" t="s">
         <v>57</v>
@@ -14529,28 +14633,28 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="3" width="33.7265625" customWidth="1"/>
-    <col min="4" max="4" width="31.7265625" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.5">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -14573,7 +14677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.5">
+    <row r="3" spans="1:11" ht="45">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -14590,7 +14694,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="87">
+    <row r="4" spans="1:11" ht="105">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -14609,7 +14713,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="87">
+    <row r="5" spans="1:11" ht="105">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -14675,7 +14779,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14688,7 +14792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14701,7 +14805,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14714,7 +14818,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14727,7 +14831,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="10" style="141"/>
   </cols>
@@ -14743,7 +14847,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="10" style="141"/>
   </cols>
@@ -14761,15 +14865,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="141" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" style="141" customWidth="1"/>
-    <col min="3" max="3" width="30.26953125" style="141" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" style="141" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="141" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="141" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="141" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="141" customWidth="1"/>
     <col min="5" max="5" width="21" style="141" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="141" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" style="141" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="141" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="141" customWidth="1"/>
     <col min="8" max="16384" width="10" style="141"/>
   </cols>
   <sheetData>
@@ -14822,7 +14926,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29">
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="146">
         <v>2</v>
       </c>
@@ -14837,7 +14941,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.5">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="146">
         <v>3</v>
       </c>
@@ -14852,7 +14956,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="146">
         <v>4</v>
       </c>
@@ -14890,22 +14994,22 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="141" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="141" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="141" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="141" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="141" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="141" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="141" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="141" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="141" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="141" customWidth="1"/>
     <col min="6" max="6" width="16" style="141" customWidth="1"/>
-    <col min="7" max="7" width="28.54296875" style="141" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="141" customWidth="1"/>
     <col min="8" max="8" width="10" style="141"/>
-    <col min="9" max="9" width="9.54296875" style="141" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" style="141" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="141" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="141" customWidth="1"/>
     <col min="11" max="12" width="10" style="141" customWidth="1"/>
     <col min="13" max="14" width="10" style="141"/>
-    <col min="15" max="15" width="44.7265625" style="141" customWidth="1"/>
-    <col min="16" max="16" width="50.26953125" style="141" customWidth="1"/>
+    <col min="15" max="15" width="44.7109375" style="141" customWidth="1"/>
+    <col min="16" max="16" width="50.28515625" style="141" customWidth="1"/>
     <col min="17" max="16384" width="10" style="141"/>
   </cols>
   <sheetData>
@@ -15153,7 +15257,7 @@
       <c r="BY3" s="129"/>
       <c r="BZ3" s="129"/>
     </row>
-    <row r="4" spans="1:78" s="130" customFormat="1" ht="26">
+    <row r="4" spans="1:78" s="130" customFormat="1" ht="26.25">
       <c r="A4" s="131"/>
       <c r="B4" s="168"/>
       <c r="C4" s="168"/>
@@ -15578,15 +15682,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.7265625" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" customWidth="1"/>
-    <col min="5" max="5" width="29.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1">
@@ -15638,7 +15742,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="47.15" customHeight="1">
+    <row r="4" spans="1:7" ht="47.1" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -15653,7 +15757,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.5">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -15668,7 +15772,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="55" customHeight="1">
+    <row r="6" spans="1:7" ht="54.95" customHeight="1">
       <c r="A6" s="120">
         <v>4</v>
       </c>
@@ -15683,7 +15787,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="52" customHeight="1">
+    <row r="7" spans="1:7" ht="51.95" customHeight="1">
       <c r="A7" s="121">
         <v>5</v>
       </c>

--- a/Userstories and TDD Testcases For College Admission Predictor project modified.xlsx
+++ b/Userstories and TDD Testcases For College Admission Predictor project modified.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kommahes\Documents\GitHub\-College-Admission-Predictor\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="5" state="hidden" r:id="rId1"/>
@@ -1145,15 +1150,9 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Yet To Start</t>
-  </si>
-  <si>
     <t>Yet to start</t>
   </si>
   <si>
-    <t>yet to start</t>
-  </si>
-  <si>
     <t>start Date</t>
   </si>
   <si>
@@ -1161,12 +1160,18 @@
   </si>
   <si>
     <t>2.5 Reset Password</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="35">
     <font>
       <sz val="11"/>
@@ -2588,6 +2593,15 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2658,6 +2672,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2730,18 +2747,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3052,7 +3057,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3065,7 +3070,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3076,106 +3081,106 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="40.81640625" customWidth="1"/>
+    <col min="7" max="7" width="40.1796875" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" customWidth="1"/>
+    <col min="10" max="11" width="17.54296875" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="14" max="14" width="21.81640625" customWidth="1"/>
     <col min="15" max="15" width="49" customWidth="1"/>
-    <col min="16" max="16" width="57.5703125" customWidth="1"/>
+    <col min="16" max="16" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="174"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
+      <c r="A2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="174"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-    </row>
-    <row r="4" spans="1:16" ht="26.25">
+      <c r="A3" s="177"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+    </row>
+    <row r="4" spans="1:16" ht="26">
       <c r="A4" s="13"/>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="180" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="178"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="181"/>
     </row>
     <row r="5" spans="1:16" ht="60.75" customHeight="1">
       <c r="A5" s="14"/>
@@ -3225,8 +3230,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="96.6" customHeight="1">
-      <c r="A6" s="179" t="s">
+    <row r="6" spans="1:16" ht="96.65" customHeight="1">
+      <c r="A6" s="182" t="s">
         <v>242</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -3255,7 +3260,7 @@
         <v>43977</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L6" s="154">
         <v>43979</v>
@@ -3270,7 +3275,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="66.75" customHeight="1">
-      <c r="A7" s="180"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="33" t="s">
         <v>102</v>
       </c>
@@ -3297,7 +3302,7 @@
         <v>43979</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L7" s="154">
         <v>43980</v>
@@ -3314,7 +3319,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="63" customHeight="1">
-      <c r="A8" s="180"/>
+      <c r="A8" s="183"/>
       <c r="B8" s="33" t="s">
         <v>102</v>
       </c>
@@ -3341,7 +3346,7 @@
         <v>43980</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L8" s="154">
         <v>43983</v>
@@ -3371,41 +3376,41 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BY137"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="29" customWidth="1"/>
-    <col min="4" max="13" width="33.42578125" style="29" customWidth="1"/>
-    <col min="14" max="14" width="61.5703125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="68.7109375" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="32.7265625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" style="29" customWidth="1"/>
+    <col min="4" max="13" width="33.453125" style="29" customWidth="1"/>
+    <col min="14" max="14" width="61.54296875" style="31" customWidth="1"/>
+    <col min="15" max="15" width="68.7265625" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="15" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
@@ -3470,21 +3475,21 @@
       <c r="BY1" s="11"/>
     </row>
     <row r="2" spans="1:77" ht="15" customHeight="1">
-      <c r="A2" s="174"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
+      <c r="A2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -3549,21 +3554,21 @@
       <c r="BY2" s="11"/>
     </row>
     <row r="3" spans="1:77" ht="15" customHeight="1">
-      <c r="A3" s="174"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
+      <c r="A3" s="177"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
@@ -3627,22 +3632,22 @@
       <c r="BX3" s="11"/>
       <c r="BY3" s="11"/>
     </row>
-    <row r="4" spans="1:77" ht="26.25">
+    <row r="4" spans="1:77" ht="26">
       <c r="A4" s="13"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="178"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="181"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -3814,7 +3819,7 @@
       <c r="BY5" s="11"/>
     </row>
     <row r="6" spans="1:77" ht="45" customHeight="1">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="184" t="s">
         <v>200</v>
       </c>
       <c r="B6" s="95" t="s">
@@ -3916,8 +3921,8 @@
       <c r="BX6" s="11"/>
       <c r="BY6" s="11"/>
     </row>
-    <row r="7" spans="1:77" ht="45">
-      <c r="A7" s="181"/>
+    <row r="7" spans="1:77" ht="43.5">
+      <c r="A7" s="184"/>
       <c r="B7" s="95" t="s">
         <v>37</v>
       </c>
@@ -4017,8 +4022,8 @@
       <c r="BX7" s="11"/>
       <c r="BY7" s="11"/>
     </row>
-    <row r="8" spans="1:77" ht="45">
-      <c r="A8" s="181"/>
+    <row r="8" spans="1:77" ht="43.5">
+      <c r="A8" s="184"/>
       <c r="B8" s="95" t="s">
         <v>102</v>
       </c>
@@ -4117,8 +4122,8 @@
       <c r="BX8" s="11"/>
       <c r="BY8" s="11"/>
     </row>
-    <row r="9" spans="1:77" ht="45">
-      <c r="A9" s="181"/>
+    <row r="9" spans="1:77" ht="43.5">
+      <c r="A9" s="184"/>
       <c r="B9" s="95" t="s">
         <v>37</v>
       </c>
@@ -4217,8 +4222,8 @@
       <c r="BX9" s="11"/>
       <c r="BY9" s="11"/>
     </row>
-    <row r="10" spans="1:77" ht="45">
-      <c r="A10" s="182"/>
+    <row r="10" spans="1:77" ht="29">
+      <c r="A10" s="185"/>
       <c r="B10" s="95" t="s">
         <v>37</v>
       </c>
@@ -4318,7 +4323,7 @@
       <c r="BY10" s="11"/>
     </row>
     <row r="11" spans="1:77" ht="45" customHeight="1">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="182" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="33" t="s">
@@ -4419,8 +4424,8 @@
       <c r="BX11" s="11"/>
       <c r="BY11" s="11"/>
     </row>
-    <row r="12" spans="1:77" ht="45">
-      <c r="A12" s="180"/>
+    <row r="12" spans="1:77" ht="43.5">
+      <c r="A12" s="183"/>
       <c r="B12" s="33" t="s">
         <v>37</v>
       </c>
@@ -4519,8 +4524,8 @@
       <c r="BX12" s="11"/>
       <c r="BY12" s="11"/>
     </row>
-    <row r="13" spans="1:77" ht="45">
-      <c r="A13" s="180"/>
+    <row r="13" spans="1:77" ht="43.5">
+      <c r="A13" s="183"/>
       <c r="B13" s="33" t="s">
         <v>102</v>
       </c>
@@ -4547,7 +4552,7 @@
       <c r="K13" s="153">
         <v>43980</v>
       </c>
-      <c r="L13" s="184" t="s">
+      <c r="L13" s="187" t="s">
         <v>233</v>
       </c>
       <c r="N13" s="22" t="s">
@@ -4619,8 +4624,8 @@
       <c r="BX13" s="11"/>
       <c r="BY13" s="11"/>
     </row>
-    <row r="14" spans="1:77" ht="60">
-      <c r="A14" s="183"/>
+    <row r="14" spans="1:77" ht="43.5">
+      <c r="A14" s="186"/>
       <c r="B14" s="97" t="s">
         <v>102</v>
       </c>
@@ -4647,7 +4652,7 @@
       <c r="K14" s="160">
         <v>43979</v>
       </c>
-      <c r="L14" s="214"/>
+      <c r="L14" s="188"/>
       <c r="N14" s="100" t="s">
         <v>240</v>
       </c>
@@ -4718,10 +4723,10 @@
       <c r="BY14" s="11"/>
     </row>
     <row r="15" spans="1:77" ht="80.25" customHeight="1">
-      <c r="A15" s="211"/>
+      <c r="A15" s="161"/>
       <c r="B15" s="103"/>
       <c r="C15" s="29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>122</v>
@@ -4745,10 +4750,10 @@
         <v>233</v>
       </c>
       <c r="M15" s="105"/>
-      <c r="N15" s="212" t="s">
+      <c r="N15" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="O15" s="213" t="s">
+      <c r="O15" s="163" t="s">
         <v>127</v>
       </c>
       <c r="P15" s="11"/>
@@ -4814,7 +4819,7 @@
       <c r="BX15" s="11"/>
       <c r="BY15" s="11"/>
     </row>
-    <row r="16" spans="1:77" ht="78.75">
+    <row r="16" spans="1:77" ht="78">
       <c r="A16" s="102" t="s">
         <v>242</v>
       </c>
@@ -4915,7 +4920,7 @@
       <c r="BX16" s="11"/>
       <c r="BY16" s="11"/>
     </row>
-    <row r="17" spans="1:77" ht="45">
+    <row r="17" spans="1:77" ht="43.5">
       <c r="A17" s="108"/>
       <c r="B17" s="109" t="s">
         <v>102</v>
@@ -5014,7 +5019,7 @@
       <c r="BX17" s="11"/>
       <c r="BY17" s="11"/>
     </row>
-    <row r="18" spans="1:77" ht="26.25">
+    <row r="18" spans="1:77" ht="26">
       <c r="A18" s="108"/>
       <c r="B18" s="109"/>
       <c r="C18" s="110"/>
@@ -5093,7 +5098,7 @@
       <c r="BX18" s="11"/>
       <c r="BY18" s="11"/>
     </row>
-    <row r="19" spans="1:77" ht="45">
+    <row r="19" spans="1:77" ht="29">
       <c r="A19" s="151"/>
       <c r="B19" s="103" t="s">
         <v>102</v>
@@ -5189,7 +5194,7 @@
       <c r="BX19" s="11"/>
       <c r="BY19" s="11"/>
     </row>
-    <row r="20" spans="1:77" ht="45">
+    <row r="20" spans="1:77" ht="43.5">
       <c r="A20" s="150"/>
       <c r="B20" s="103" t="s">
         <v>257</v>
@@ -5887,7 +5892,7 @@
       <c r="N37" s="28"/>
       <c r="O37" s="11"/>
     </row>
-    <row r="38" spans="1:15" ht="409.6">
+    <row r="38" spans="1:15">
       <c r="A38" s="27"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -7602,107 +7607,107 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
-    <col min="15" max="15" width="60.140625" customWidth="1"/>
-    <col min="16" max="16" width="59.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.453125" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" customWidth="1"/>
+    <col min="11" max="12" width="12.81640625" customWidth="1"/>
+    <col min="13" max="13" width="21.1796875" customWidth="1"/>
+    <col min="14" max="14" width="22.453125" customWidth="1"/>
+    <col min="15" max="15" width="60.1796875" customWidth="1"/>
+    <col min="16" max="16" width="59.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="174"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
+      <c r="A2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="174"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-    </row>
-    <row r="4" spans="1:16" ht="26.25">
+      <c r="A3" s="177"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+    </row>
+    <row r="4" spans="1:16" ht="26">
       <c r="A4" s="13"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="178"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="181"/>
     </row>
     <row r="5" spans="1:16" ht="50.25" customHeight="1">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="183" t="s">
         <v>183</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -7752,7 +7757,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="114" customHeight="1">
-      <c r="A6" s="180"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="33" t="s">
         <v>184</v>
       </c>
@@ -7782,9 +7787,9 @@
         <v>43978</v>
       </c>
       <c r="L6" s="94" t="s">
-        <v>313</v>
-      </c>
-      <c r="M6" s="185" t="s">
+        <v>317</v>
+      </c>
+      <c r="M6" s="189" t="s">
         <v>190</v>
       </c>
       <c r="N6" s="19"/>
@@ -7796,7 +7801,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="120" customHeight="1">
-      <c r="A7" s="180"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="33" t="s">
         <v>184</v>
       </c>
@@ -7826,9 +7831,9 @@
         <v>43980</v>
       </c>
       <c r="L7" s="94" t="s">
-        <v>313</v>
-      </c>
-      <c r="M7" s="186"/>
+        <v>316</v>
+      </c>
+      <c r="M7" s="190"/>
       <c r="N7" s="19"/>
       <c r="O7" s="22" t="s">
         <v>198</v>
@@ -7858,27 +7863,27 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" customWidth="1"/>
+    <col min="4" max="4" width="38.54296875" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -7988,27 +7993,27 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="44.26953125" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.453125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="192" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1">
       <c r="A2" s="58" t="s">
@@ -8205,63 +8210,63 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="53" customWidth="1"/>
-    <col min="2" max="3" width="19.85546875" style="53" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" style="53" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" style="53" customWidth="1"/>
+    <col min="2" max="3" width="19.81640625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="53" customWidth="1"/>
+    <col min="5" max="5" width="37.1796875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="40.26953125" style="53" customWidth="1"/>
     <col min="7" max="7" width="29" style="53" customWidth="1"/>
-    <col min="8" max="8" width="54.7109375" style="53" customWidth="1"/>
-    <col min="9" max="10" width="18.42578125" style="53" customWidth="1"/>
+    <col min="8" max="8" width="54.7265625" style="53" customWidth="1"/>
+    <col min="9" max="10" width="18.453125" style="53" customWidth="1"/>
     <col min="11" max="11" width="16" style="53" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="53" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" style="53" customWidth="1"/>
     <col min="13" max="13" width="16" style="53" customWidth="1"/>
     <col min="14" max="15" width="15" style="53" customWidth="1"/>
-    <col min="16" max="16" width="47.140625" style="53" customWidth="1"/>
-    <col min="17" max="17" width="46.28515625" style="53" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="53"/>
+    <col min="16" max="16" width="47.1796875" style="53" customWidth="1"/>
+    <col min="17" max="17" width="46.26953125" style="53" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="44" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="191"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195"/>
+      <c r="W1" s="195"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="195"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="195"/>
+      <c r="AB1" s="195"/>
+      <c r="AC1" s="195"/>
     </row>
     <row r="2" spans="1:29" s="44" customFormat="1" ht="30.75" customHeight="1">
       <c r="A2" s="45"/>
@@ -8293,7 +8298,7 @@
         <v>30</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L2" s="46" t="s">
         <v>311</v>
@@ -8315,7 +8320,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="123.75" customHeight="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="196" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -8350,7 +8355,7 @@
       </c>
       <c r="L3" s="51"/>
       <c r="M3" s="51" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N3" s="52" t="s">
         <v>109</v>
@@ -8364,7 +8369,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="138.75" customHeight="1">
-      <c r="A4" s="192"/>
+      <c r="A4" s="196"/>
       <c r="B4" s="47" t="s">
         <v>102</v>
       </c>
@@ -8397,7 +8402,7 @@
       </c>
       <c r="L4" s="51"/>
       <c r="M4" s="51" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N4" s="52" t="s">
         <v>109</v>
@@ -8411,7 +8416,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="124.5" customHeight="1">
-      <c r="A5" s="192"/>
+      <c r="A5" s="196"/>
       <c r="B5" s="47" t="s">
         <v>102</v>
       </c>
@@ -8433,7 +8438,7 @@
       <c r="H5" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="193">
+      <c r="I5" s="197">
         <v>2</v>
       </c>
       <c r="J5" s="155">
@@ -8444,7 +8449,7 @@
       </c>
       <c r="L5" s="51"/>
       <c r="M5" s="51" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N5" s="52" t="s">
         <v>109</v>
@@ -8458,7 +8463,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="64.5" customHeight="1">
-      <c r="A6" s="192"/>
+      <c r="A6" s="196"/>
       <c r="B6" s="47" t="s">
         <v>102</v>
       </c>
@@ -8480,7 +8485,7 @@
       <c r="H6" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="I6" s="193"/>
+      <c r="I6" s="197"/>
       <c r="J6" s="155">
         <v>43984</v>
       </c>
@@ -8489,7 +8494,7 @@
       </c>
       <c r="L6" s="51"/>
       <c r="M6" s="51" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N6" s="52" t="s">
         <v>109</v>
@@ -8573,26 +8578,26 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="3" width="33.7265625" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
     </row>
     <row r="2" spans="1:11" ht="49.5" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -8617,7 +8622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="75">
+    <row r="3" spans="1:11" ht="72.5">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -8733,106 +8738,106 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="40.81640625" customWidth="1"/>
+    <col min="7" max="7" width="40.1796875" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" customWidth="1"/>
+    <col min="10" max="11" width="17.54296875" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="15" width="53.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.81640625" customWidth="1"/>
+    <col min="15" max="15" width="53.7265625" customWidth="1"/>
+    <col min="16" max="16" width="57.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="174"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
+      <c r="A2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="174"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-    </row>
-    <row r="4" spans="1:16" ht="26.25">
+      <c r="A3" s="177"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+    </row>
+    <row r="4" spans="1:16" ht="26">
       <c r="A4" s="13"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="178"/>
-    </row>
-    <row r="5" spans="1:16" ht="60.6" customHeight="1">
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="181"/>
+    </row>
+    <row r="5" spans="1:16" ht="60.65" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>23</v>
@@ -8881,7 +8886,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="69.75" customHeight="1">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="198" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -8902,20 +8907,22 @@
       <c r="G6" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="184">
+      <c r="H6" s="187">
         <v>2</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="153">
+        <v>43978</v>
+      </c>
       <c r="J6" s="153">
         <v>43977</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L6" s="154">
         <v>43978</v>
       </c>
-      <c r="M6" s="197" t="s">
+      <c r="M6" s="201" t="s">
         <v>66</v>
       </c>
       <c r="N6" s="37"/>
@@ -8927,7 +8934,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="66.75" customHeight="1">
-      <c r="A7" s="195"/>
+      <c r="A7" s="199"/>
       <c r="B7" s="33" t="s">
         <v>37</v>
       </c>
@@ -8946,18 +8953,20 @@
       <c r="G7" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="196"/>
-      <c r="I7" s="19"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="153">
+        <v>43979</v>
+      </c>
       <c r="J7" s="153">
         <v>43979</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L7" s="154">
         <v>43979</v>
       </c>
-      <c r="M7" s="198"/>
+      <c r="M7" s="202"/>
       <c r="N7" s="37"/>
       <c r="O7" s="38" t="s">
         <v>74</v>
@@ -8996,12 +9005,12 @@
         <v>43980</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L8" s="154">
         <v>43984</v>
       </c>
-      <c r="M8" s="198"/>
+      <c r="M8" s="202"/>
       <c r="N8" s="37"/>
       <c r="O8" s="38" t="s">
         <v>78</v>
@@ -9030,41 +9039,41 @@
   <dimension ref="A1:BZ155"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="29" customWidth="1"/>
-    <col min="4" max="14" width="33.42578125" style="29" customWidth="1"/>
-    <col min="15" max="15" width="61.5703125" style="31" customWidth="1"/>
-    <col min="16" max="16" width="68.7109375" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="32.7265625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" style="29" customWidth="1"/>
+    <col min="4" max="14" width="33.453125" style="29" customWidth="1"/>
+    <col min="15" max="15" width="61.54296875" style="31" customWidth="1"/>
+    <col min="16" max="16" width="68.7265625" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="15" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="201"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="205"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
@@ -9129,22 +9138,22 @@
       <c r="BZ1" s="11"/>
     </row>
     <row r="2" spans="1:78" ht="15" customHeight="1">
-      <c r="A2" s="174"/>
-      <c r="B2" s="202"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="204"/>
+      <c r="A2" s="177"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="208"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -9209,22 +9218,22 @@
       <c r="BZ2" s="11"/>
     </row>
     <row r="3" spans="1:78" ht="15" customHeight="1">
-      <c r="A3" s="174"/>
-      <c r="B3" s="205"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="207"/>
+      <c r="A3" s="177"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="210"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="211"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
@@ -9288,23 +9297,23 @@
       <c r="BY3" s="11"/>
       <c r="BZ3" s="11"/>
     </row>
-    <row r="4" spans="1:78" ht="26.25">
+    <row r="4" spans="1:78" ht="26">
       <c r="A4" s="13"/>
-      <c r="B4" s="208"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="178"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="181"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -9478,8 +9487,8 @@
       <c r="BY5" s="11"/>
       <c r="BZ5" s="11"/>
     </row>
-    <row r="6" spans="1:78" ht="90">
-      <c r="A6" s="181" t="s">
+    <row r="6" spans="1:78" ht="87">
+      <c r="A6" s="184" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -9511,9 +9520,9 @@
         <v>43979</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="M6" s="209" t="s">
+        <v>317</v>
+      </c>
+      <c r="M6" s="213" t="s">
         <v>43</v>
       </c>
       <c r="N6" s="19"/>
@@ -9586,8 +9595,8 @@
       <c r="BY6" s="11"/>
       <c r="BZ6" s="11"/>
     </row>
-    <row r="7" spans="1:78" ht="120">
-      <c r="A7" s="181"/>
+    <row r="7" spans="1:78" ht="116">
+      <c r="A7" s="184"/>
       <c r="B7" s="18" t="s">
         <v>37</v>
       </c>
@@ -9617,9 +9626,9 @@
         <v>43984</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="M7" s="210"/>
+        <v>316</v>
+      </c>
+      <c r="M7" s="214"/>
       <c r="N7" s="19"/>
       <c r="O7" s="22" t="s">
         <v>51</v>
@@ -9690,8 +9699,8 @@
       <c r="BY7" s="11"/>
       <c r="BZ7" s="11"/>
     </row>
-    <row r="8" spans="1:78" ht="120">
-      <c r="A8" s="181"/>
+    <row r="8" spans="1:78" ht="116">
+      <c r="A8" s="184"/>
       <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
@@ -9721,9 +9730,9 @@
         <v>43989</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="M8" s="210"/>
+        <v>312</v>
+      </c>
+      <c r="M8" s="214"/>
       <c r="N8" s="19"/>
       <c r="O8" s="22" t="s">
         <v>57</v>
@@ -14633,28 +14642,28 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="3" width="33.7265625" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.75">
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -14677,7 +14686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45">
+    <row r="3" spans="1:11" ht="43.5">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -14694,7 +14703,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="105">
+    <row r="4" spans="1:11" ht="87">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -14713,7 +14722,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="105">
+    <row r="5" spans="1:11" ht="87">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -14779,7 +14788,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14792,7 +14801,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14805,7 +14814,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14818,7 +14827,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14831,7 +14840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="16384" width="10" style="141"/>
   </cols>
@@ -14847,7 +14856,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="16384" width="10" style="141"/>
   </cols>
@@ -14865,28 +14874,28 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="141" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="141" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="141" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="141" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" style="141" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="141" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" style="141" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="141" customWidth="1"/>
     <col min="5" max="5" width="21" style="141" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="141" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="141" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="141" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" style="141" customWidth="1"/>
     <col min="8" max="16384" width="10" style="141"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="163"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="166"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" customHeight="1">
       <c r="A2" s="142" t="s">
@@ -14926,7 +14935,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45">
+    <row r="4" spans="1:7" ht="29">
       <c r="A4" s="146">
         <v>2</v>
       </c>
@@ -14941,7 +14950,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="43.5">
       <c r="A5" s="146">
         <v>3</v>
       </c>
@@ -14956,7 +14965,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="29">
       <c r="A6" s="146">
         <v>4</v>
       </c>
@@ -14990,50 +14999,50 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:BZ7"/>
   <sheetViews>
-    <sheetView topLeftCell="F5" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="141" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="141" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="141" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="141" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="141" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" style="141" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="141" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="141" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="141" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="141" customWidth="1"/>
     <col min="6" max="6" width="16" style="141" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="141" customWidth="1"/>
+    <col min="7" max="7" width="28.54296875" style="141" customWidth="1"/>
     <col min="8" max="8" width="10" style="141"/>
-    <col min="9" max="9" width="9.5703125" style="141" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="141" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" style="141" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" style="141" customWidth="1"/>
     <col min="11" max="12" width="10" style="141" customWidth="1"/>
     <col min="13" max="14" width="10" style="141"/>
-    <col min="15" max="15" width="44.7109375" style="141" customWidth="1"/>
-    <col min="16" max="16" width="50.28515625" style="141" customWidth="1"/>
+    <col min="15" max="15" width="44.7265625" style="141" customWidth="1"/>
+    <col min="16" max="16" width="50.26953125" style="141" customWidth="1"/>
     <col min="17" max="16384" width="10" style="141"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" s="130" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
       <c r="Q1" s="128"/>
       <c r="R1" s="128"/>
       <c r="S1" s="128"/>
@@ -15098,22 +15107,22 @@
       <c r="BZ1" s="129"/>
     </row>
     <row r="2" spans="1:78" s="130" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
       <c r="Q2" s="128"/>
       <c r="R2" s="128"/>
       <c r="S2" s="128"/>
@@ -15178,22 +15187,22 @@
       <c r="BZ2" s="129"/>
     </row>
     <row r="3" spans="1:78" s="130" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="165"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
       <c r="Q3" s="128"/>
       <c r="R3" s="128"/>
       <c r="S3" s="128"/>
@@ -15257,23 +15266,23 @@
       <c r="BY3" s="129"/>
       <c r="BZ3" s="129"/>
     </row>
-    <row r="4" spans="1:78" s="130" customFormat="1" ht="26.25">
+    <row r="4" spans="1:78" s="130" customFormat="1" ht="26">
       <c r="A4" s="131"/>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="169"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="172"/>
       <c r="Q4" s="128"/>
       <c r="R4" s="128"/>
       <c r="S4" s="128"/>
@@ -15480,7 +15489,7 @@
         <v>43980</v>
       </c>
       <c r="L6" s="138" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M6" s="137" t="s">
         <v>290</v>
@@ -15588,7 +15597,7 @@
         <v>43984</v>
       </c>
       <c r="L7" s="138" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M7" s="137" t="s">
         <v>290</v>
@@ -15682,27 +15691,27 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="172"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="175"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -15742,7 +15751,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="47.1" customHeight="1">
+    <row r="4" spans="1:7" ht="47.15" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -15757,7 +15766,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="43.5">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -15772,7 +15781,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="54.95" customHeight="1">
+    <row r="6" spans="1:7" ht="55" customHeight="1">
       <c r="A6" s="120">
         <v>4</v>
       </c>
@@ -15787,7 +15796,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="51.95" customHeight="1">
+    <row r="7" spans="1:7" ht="52" customHeight="1">
       <c r="A7" s="121">
         <v>5</v>
       </c>

--- a/Userstories and TDD Testcases For College Admission Predictor project modified.xlsx
+++ b/Userstories and TDD Testcases For College Admission Predictor project modified.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kommahes\Documents\GitHub\-College-Admission-Predictor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="5" state="hidden" r:id="rId1"/>
@@ -51,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="319">
   <si>
     <t>TDD Test Cases</t>
   </si>
@@ -449,16 +444,6 @@
     <t>Fields entered should not be null  and should be in a specific format.</t>
   </si>
   <si>
-    <t>1. Creating UI wireframes(1hr)  
-2. Develop Front End(6hr)
-3. Do Form Validations(1 hr) 
-4. Creating Controller (2hrs) 
-5. creating serice layer(1hr) 
-6.Creating Dao(1hr) 
-7. TDD(2 hrs) 
-8. connecting with DB and performing operations(2hrs)</t>
-  </si>
-  <si>
     <t>Meghana</t>
   </si>
   <si>
@@ -483,16 +468,6 @@
     <t>The UserId and password should be present in the database</t>
   </si>
   <si>
-    <t>1. Creating UI wireframes(30 min)  
-2. Develop Front End(2hr)
-3. Do Form Validations(1 hr) 
-4. Creating Controller (1hrs) 
-5. creating serice layer(1hr) 
-6.Creating Dao(30 mins) 
-7. TDD(1 hrs) 
-8. connecting with DB and performing operations(1hrs)</t>
-  </si>
-  <si>
     <t xml:space="preserve">If the given user is already registered in the portal i.e., already his credentials are stored in databse. Then the user should be able to login to the website and redirected to home page.  </t>
   </si>
   <si>
@@ -512,16 +487,6 @@
   </si>
   <si>
     <t>User answers to the questions should match to the answers stored in Database</t>
-  </si>
-  <si>
-    <t>1. Creating UI wireframes(1hr)  
-2. Develop Front End(5hr)
-3. Do Form Validations(1 hr) 
-4. Creating Controller (30 mins) 
-5. creating serice layer(1hr) 
-6.Creating Dao(1hr) 
-7. TDD(2 hrs) 
-8. connecting with DB and performing operations(2hrs)</t>
   </si>
   <si>
     <t>If the given user is already registered in the portal i.e., already his credentials are stored in databse. And the user forgot his password  to login then he should be able to reset the password by clicking on Forget password abd by giving correct answers to the questions</t>
@@ -1167,11 +1132,44 @@
   <si>
     <t>Done</t>
   </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>1. Creating UI wireframes(1hr)  
+2. Develop Front End(5hr)
+3. Do Form Validations(1 hr) 
+4. Creating Controller (30 mins) 
+5. creating serice layer(1hr) 
+6.Creating Dao(1hr) 
+7. TDD(2 hrs)                     ---------------------pending
+8. connecting with DB and performing operations(2hrs)</t>
+  </si>
+  <si>
+    <t>1. Creating UI wireframes(30 min)                             
+2. Develop Front End(2hr)                                         
+3. Do Form Validations(1 hr) 
+4. Creating Controller (1hrs) 
+5. creating serice layer(1hr) 
+6.Creating Dao(30 mins) 
+7. TDD(1 hrs)                 ------------------pending
+8. connecting with DB and performing operations(1hrs)</t>
+  </si>
+  <si>
+    <t>1. Creating UI wireframes(1hr)                    
+2. Develop Front End(6hr)                          
+3. Do Form Validations(1 hr)                      
+4. Creating Controller (2hrs)                      
+5. creating serice layer(1hr)                        
+6.Creating Dao(1hr)                                     
+7. TDD(2 hrs)                     -------------pending
+8. connecting with DB and performing operations(2hrs)   done</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="35">
     <font>
       <sz val="11"/>
@@ -3057,7 +3055,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3070,7 +3068,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3085,23 +3083,23 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" customWidth="1"/>
-    <col min="7" max="7" width="40.1796875" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" customWidth="1"/>
-    <col min="10" max="11" width="17.54296875" customWidth="1"/>
-    <col min="12" max="12" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="21.81640625" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
     <col min="15" max="15" width="49" customWidth="1"/>
-    <col min="16" max="16" width="57.54296875" customWidth="1"/>
+    <col min="16" max="16" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3162,10 +3160,10 @@
       <c r="O3" s="179"/>
       <c r="P3" s="179"/>
     </row>
-    <row r="4" spans="1:16" ht="26">
+    <row r="4" spans="1:16" ht="26.25">
       <c r="A4" s="13"/>
       <c r="B4" s="180" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C4" s="180"/>
       <c r="D4" s="180"/>
@@ -3209,13 +3207,13 @@
         <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M5" s="32" t="s">
         <v>32</v>
@@ -3230,27 +3228,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="96.65" customHeight="1">
+    <row r="6" spans="1:16" ht="96.6" customHeight="1">
       <c r="A6" s="182" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>264</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>267</v>
       </c>
       <c r="H6" s="19">
         <v>2</v>
@@ -3260,7 +3258,7 @@
         <v>43977</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L6" s="154">
         <v>43979</v>
@@ -3268,10 +3266,10 @@
       <c r="M6" s="94"/>
       <c r="N6" s="37"/>
       <c r="O6" s="22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="66.75" customHeight="1">
@@ -3280,19 +3278,19 @@
         <v>102</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H7" s="19">
         <v>1</v>
@@ -3302,20 +3300,20 @@
         <v>43979</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L7" s="154">
         <v>43980</v>
       </c>
       <c r="M7" s="119" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N7" s="37"/>
       <c r="O7" s="22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="63" customHeight="1">
@@ -3324,19 +3322,19 @@
         <v>102</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H8" s="19">
         <v>1</v>
@@ -3346,7 +3344,7 @@
         <v>43980</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L8" s="154">
         <v>43983</v>
@@ -3354,10 +3352,10 @@
       <c r="M8" s="26"/>
       <c r="N8" s="37"/>
       <c r="O8" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3380,15 +3378,15 @@
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" style="29" customWidth="1"/>
-    <col min="4" max="13" width="33.453125" style="29" customWidth="1"/>
-    <col min="14" max="14" width="61.54296875" style="31" customWidth="1"/>
-    <col min="15" max="15" width="68.7265625" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="12"/>
+    <col min="1" max="1" width="32.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="29" customWidth="1"/>
+    <col min="4" max="13" width="33.42578125" style="29" customWidth="1"/>
+    <col min="14" max="14" width="61.5703125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="68.7109375" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="15" customHeight="1">
@@ -3632,7 +3630,7 @@
       <c r="BX3" s="11"/>
       <c r="BY3" s="11"/>
     </row>
-    <row r="4" spans="1:77" ht="26">
+    <row r="4" spans="1:77" ht="26.25">
       <c r="A4" s="13"/>
       <c r="B4" s="180"/>
       <c r="C4" s="180"/>
@@ -3738,10 +3736,10 @@
         <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>32</v>
@@ -3820,22 +3818,22 @@
     </row>
     <row r="6" spans="1:77" ht="45" customHeight="1">
       <c r="A6" s="184" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B6" s="95" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>201</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>204</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19">
@@ -3849,14 +3847,14 @@
         <v>43984</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -3921,19 +3919,19 @@
       <c r="BX6" s="11"/>
       <c r="BY6" s="11"/>
     </row>
-    <row r="7" spans="1:77" ht="43.5">
+    <row r="7" spans="1:77" ht="45">
       <c r="A7" s="184"/>
       <c r="B7" s="95" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>41</v>
@@ -3950,14 +3948,14 @@
         <v>43979</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -4022,22 +4020,22 @@
       <c r="BX7" s="11"/>
       <c r="BY7" s="11"/>
     </row>
-    <row r="8" spans="1:77" ht="43.5">
+    <row r="8" spans="1:77" ht="45">
       <c r="A8" s="184"/>
       <c r="B8" s="95" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>214</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>217</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19">
@@ -4051,13 +4049,13 @@
         <v>43980</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -4122,13 +4120,13 @@
       <c r="BX8" s="11"/>
       <c r="BY8" s="11"/>
     </row>
-    <row r="9" spans="1:77" ht="43.5">
+    <row r="9" spans="1:77" ht="45">
       <c r="A9" s="184"/>
       <c r="B9" s="95" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>47</v>
@@ -4151,7 +4149,7 @@
         <v>43984</v>
       </c>
       <c r="L9" s="152" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N9" s="22" t="s">
         <v>51</v>
@@ -4222,13 +4220,13 @@
       <c r="BX9" s="11"/>
       <c r="BY9" s="11"/>
     </row>
-    <row r="10" spans="1:77" ht="29">
+    <row r="10" spans="1:77" ht="45">
       <c r="A10" s="185"/>
       <c r="B10" s="95" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>54</v>
@@ -4251,7 +4249,7 @@
         <v>43989</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N10" s="22" t="s">
         <v>57</v>
@@ -4330,13 +4328,13 @@
         <v>37</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>64</v>
@@ -4353,13 +4351,13 @@
         <v>43979</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -4424,19 +4422,19 @@
       <c r="BX11" s="11"/>
       <c r="BY11" s="11"/>
     </row>
-    <row r="12" spans="1:77" ht="43.5">
+    <row r="12" spans="1:77" ht="45">
       <c r="A12" s="183"/>
       <c r="B12" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>41</v>
@@ -4453,13 +4451,13 @@
         <v>43980</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -4524,19 +4522,19 @@
       <c r="BX12" s="11"/>
       <c r="BY12" s="11"/>
     </row>
-    <row r="13" spans="1:77" ht="43.5">
+    <row r="13" spans="1:77" ht="45">
       <c r="A13" s="183"/>
       <c r="B13" s="33" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>64</v>
@@ -4553,13 +4551,13 @@
         <v>43980</v>
       </c>
       <c r="L13" s="187" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O13" s="96" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -4624,22 +4622,22 @@
       <c r="BX13" s="11"/>
       <c r="BY13" s="11"/>
     </row>
-    <row r="14" spans="1:77" ht="43.5">
+    <row r="14" spans="1:77" ht="60">
       <c r="A14" s="186"/>
       <c r="B14" s="97" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="94" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="94" t="s">
         <v>236</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="94" t="s">
-        <v>238</v>
-      </c>
-      <c r="F14" s="94" t="s">
-        <v>239</v>
       </c>
       <c r="G14" s="94"/>
       <c r="H14" s="94">
@@ -4654,10 +4652,10 @@
       </c>
       <c r="L14" s="188"/>
       <c r="N14" s="100" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O14" s="101" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -4726,16 +4724,16 @@
       <c r="A15" s="161"/>
       <c r="B15" s="103"/>
       <c r="C15" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D15" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>122</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>124</v>
       </c>
       <c r="H15" s="29">
         <v>2</v>
@@ -4747,14 +4745,14 @@
         <v>43985</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M15" s="105"/>
       <c r="N15" s="162" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O15" s="163" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -4819,24 +4817,24 @@
       <c r="BX15" s="11"/>
       <c r="BY15" s="11"/>
     </row>
-    <row r="16" spans="1:77" ht="78">
+    <row r="16" spans="1:77" ht="78.75">
       <c r="A16" s="102" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B16" s="103" t="s">
         <v>102</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H16" s="29">
         <v>2</v>
@@ -4848,14 +4846,14 @@
         <v>43979</v>
       </c>
       <c r="L16" s="104" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M16" s="105"/>
       <c r="N16" s="106" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O16" s="117" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -4920,19 +4918,19 @@
       <c r="BX16" s="11"/>
       <c r="BY16" s="11"/>
     </row>
-    <row r="17" spans="1:77" ht="43.5">
+    <row r="17" spans="1:77" ht="45">
       <c r="A17" s="108"/>
       <c r="B17" s="109" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="110" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D17" s="104" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E17" s="110" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F17" s="110" t="s">
         <v>41</v>
@@ -4951,10 +4949,10 @@
       <c r="L17" s="104"/>
       <c r="M17" s="105"/>
       <c r="N17" s="111" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O17" s="112" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
@@ -5019,7 +5017,7 @@
       <c r="BX17" s="11"/>
       <c r="BY17" s="11"/>
     </row>
-    <row r="18" spans="1:77" ht="26">
+    <row r="18" spans="1:77" ht="26.25">
       <c r="A18" s="108"/>
       <c r="B18" s="109"/>
       <c r="C18" s="110"/>
@@ -5098,19 +5096,19 @@
       <c r="BX18" s="11"/>
       <c r="BY18" s="11"/>
     </row>
-    <row r="19" spans="1:77" ht="29">
+    <row r="19" spans="1:77" ht="45">
       <c r="A19" s="151"/>
       <c r="B19" s="103" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D19" s="114" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>41</v>
@@ -5126,10 +5124,10 @@
       </c>
       <c r="L19" s="113"/>
       <c r="N19" s="115" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O19" s="116" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
@@ -5194,19 +5192,19 @@
       <c r="BX19" s="11"/>
       <c r="BY19" s="11"/>
     </row>
-    <row r="20" spans="1:77" ht="43.5">
+    <row r="20" spans="1:77" ht="45">
       <c r="A20" s="150"/>
       <c r="B20" s="103" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="114" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>257</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="D20" s="114" t="s">
-        <v>259</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>260</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>41</v>
@@ -5221,14 +5219,14 @@
         <v>43984</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M20" s="113"/>
       <c r="N20" s="115" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O20" s="117" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -7611,23 +7609,23 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="31.453125" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" customWidth="1"/>
-    <col min="11" max="12" width="12.81640625" customWidth="1"/>
-    <col min="13" max="13" width="21.1796875" customWidth="1"/>
-    <col min="14" max="14" width="22.453125" customWidth="1"/>
-    <col min="15" max="15" width="60.1796875" customWidth="1"/>
-    <col min="16" max="16" width="59.81640625" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="15" max="15" width="60.140625" customWidth="1"/>
+    <col min="16" max="16" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7688,7 +7686,7 @@
       <c r="O3" s="179"/>
       <c r="P3" s="179"/>
     </row>
-    <row r="4" spans="1:16" ht="26">
+    <row r="4" spans="1:16" ht="26.25">
       <c r="A4" s="13"/>
       <c r="B4" s="180"/>
       <c r="C4" s="180"/>
@@ -7708,7 +7706,7 @@
     </row>
     <row r="5" spans="1:16" ht="50.25" customHeight="1">
       <c r="A5" s="183" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>23</v>
@@ -7735,10 +7733,10 @@
         <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L5" s="32" t="s">
         <v>31</v>
@@ -7759,22 +7757,22 @@
     <row r="6" spans="1:16" ht="114" customHeight="1">
       <c r="A6" s="183"/>
       <c r="B6" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="G6" s="19" t="s">
         <v>186</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>189</v>
       </c>
       <c r="H6" s="19">
         <v>1</v>
@@ -7787,38 +7785,38 @@
         <v>43978</v>
       </c>
       <c r="L6" s="94" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M6" s="189" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="120" customHeight="1">
       <c r="A7" s="183"/>
       <c r="B7" s="33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>197</v>
       </c>
       <c r="H7" s="19">
         <v>2</v>
@@ -7831,15 +7829,15 @@
         <v>43980</v>
       </c>
       <c r="L7" s="94" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M7" s="190"/>
       <c r="N7" s="19"/>
       <c r="O7" s="22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7863,15 +7861,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="38.54296875" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1">
@@ -7887,10 +7885,10 @@
     </row>
     <row r="2" spans="1:7" ht="49.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -7913,16 +7911,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="92" t="s">
         <v>169</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="82.5" customHeight="1">
@@ -7930,16 +7928,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="70.5" customHeight="1">
@@ -7947,16 +7945,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="70.5" customHeight="1">
@@ -7964,16 +7962,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -7993,15 +7991,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="44.26953125" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="32.81640625" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1">
@@ -8017,7 +8015,7 @@
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1">
       <c r="A2" s="58" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>2</v>
@@ -8035,7 +8033,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="148.5" customHeight="1">
@@ -8043,16 +8041,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="67" t="s">
         <v>138</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="159" customHeight="1">
@@ -8060,16 +8058,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E4" s="72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="159" customHeight="1">
@@ -8077,16 +8075,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C5" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="76" t="s">
-        <v>146</v>
-      </c>
       <c r="E5" s="77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="163.5" customHeight="1">
@@ -8094,16 +8092,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="168.75" customHeight="1">
@@ -8111,16 +8109,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="85.5" customHeight="1">
@@ -8128,16 +8126,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="77" t="s">
         <v>153</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="77" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="84.75" customHeight="1">
@@ -8145,16 +8143,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="93" customHeight="1">
@@ -8162,16 +8160,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="88" t="s">
         <v>160</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="88" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="105" customHeight="1">
@@ -8179,16 +8177,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11" s="89" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8210,27 +8208,27 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="53" customWidth="1"/>
-    <col min="2" max="3" width="19.81640625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="37.1796875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="40.26953125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="53" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" style="53" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" style="53" customWidth="1"/>
     <col min="7" max="7" width="29" style="53" customWidth="1"/>
-    <col min="8" max="8" width="54.7265625" style="53" customWidth="1"/>
-    <col min="9" max="10" width="18.453125" style="53" customWidth="1"/>
+    <col min="8" max="8" width="54.7109375" style="53" customWidth="1"/>
+    <col min="9" max="10" width="18.42578125" style="53" customWidth="1"/>
     <col min="11" max="11" width="16" style="53" customWidth="1"/>
-    <col min="12" max="12" width="16.81640625" style="53" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="53" customWidth="1"/>
     <col min="13" max="13" width="16" style="53" customWidth="1"/>
     <col min="14" max="15" width="15" style="53" customWidth="1"/>
-    <col min="16" max="16" width="47.1796875" style="53" customWidth="1"/>
-    <col min="17" max="17" width="46.26953125" style="53" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="53"/>
+    <col min="16" max="16" width="47.140625" style="53" customWidth="1"/>
+    <col min="17" max="17" width="46.28515625" style="53" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="44" customFormat="1" ht="42" customHeight="1">
@@ -8298,10 +8296,10 @@
         <v>30</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L2" s="46" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M2" s="46" t="s">
         <v>31</v>
@@ -8342,7 +8340,7 @@
         <v>107</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c r="I3" s="51">
         <v>2</v>
@@ -8351,21 +8349,23 @@
         <v>43977</v>
       </c>
       <c r="K3" s="155">
+        <v>43977</v>
+      </c>
+      <c r="L3" s="155">
         <v>43979</v>
       </c>
-      <c r="L3" s="51"/>
       <c r="M3" s="51" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N3" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="49" t="s">
         <v>110</v>
-      </c>
-      <c r="Q3" s="49" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="138.75" customHeight="1">
@@ -8374,22 +8374,22 @@
         <v>102</v>
       </c>
       <c r="C4" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="E4" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="F4" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="G4" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="49" t="s">
-        <v>116</v>
-      </c>
       <c r="H4" s="50" t="s">
-        <v>117</v>
+        <v>317</v>
       </c>
       <c r="I4" s="51">
         <v>1</v>
@@ -8398,21 +8398,23 @@
         <v>43979</v>
       </c>
       <c r="K4" s="155">
+        <v>43979</v>
+      </c>
+      <c r="L4" s="155">
         <v>43980</v>
       </c>
-      <c r="L4" s="51"/>
       <c r="M4" s="51" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O4" s="51"/>
       <c r="P4" s="49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="124.5" customHeight="1">
@@ -8421,45 +8423,47 @@
         <v>102</v>
       </c>
       <c r="C5" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="F5" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="G5" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>124</v>
-      </c>
       <c r="H5" s="55" t="s">
-        <v>125</v>
+        <v>316</v>
       </c>
       <c r="I5" s="197">
         <v>2</v>
       </c>
       <c r="J5" s="155">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="K5" s="155">
-        <v>43984</v>
-      </c>
-      <c r="L5" s="51"/>
+        <v>44011</v>
+      </c>
+      <c r="L5" s="155">
+        <v>43983</v>
+      </c>
       <c r="M5" s="51" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N5" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O5" s="51"/>
       <c r="P5" s="49" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="49" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="64.5" customHeight="1">
@@ -8468,22 +8472,22 @@
         <v>102</v>
       </c>
       <c r="C6" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="G6" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="H6" s="56" t="s">
         <v>130</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>133</v>
       </c>
       <c r="I6" s="197"/>
       <c r="J6" s="155">
@@ -8494,17 +8498,17 @@
       </c>
       <c r="L6" s="51"/>
       <c r="M6" s="51" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N6" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O6" s="51"/>
       <c r="P6" s="49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q6" s="49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="48.75" customHeight="1">
@@ -8578,14 +8582,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="3" width="33.7265625" customWidth="1"/>
-    <col min="4" max="4" width="31.7265625" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37.5" customHeight="1">
@@ -8622,7 +8626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="72.5">
+    <row r="3" spans="1:11" ht="75">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -8742,23 +8746,23 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" customWidth="1"/>
-    <col min="7" max="7" width="40.1796875" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" customWidth="1"/>
-    <col min="10" max="11" width="17.54296875" customWidth="1"/>
-    <col min="12" max="12" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="21.81640625" customWidth="1"/>
-    <col min="15" max="15" width="53.7265625" customWidth="1"/>
-    <col min="16" max="16" width="57.54296875" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="15" max="15" width="53.7109375" customWidth="1"/>
+    <col min="16" max="16" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -8819,7 +8823,7 @@
       <c r="O3" s="179"/>
       <c r="P3" s="179"/>
     </row>
-    <row r="4" spans="1:16" ht="26">
+    <row r="4" spans="1:16" ht="26.25">
       <c r="A4" s="13"/>
       <c r="B4" s="180"/>
       <c r="C4" s="180"/>
@@ -8837,7 +8841,7 @@
       <c r="O4" s="180"/>
       <c r="P4" s="181"/>
     </row>
-    <row r="5" spans="1:16" ht="60.65" customHeight="1">
+    <row r="5" spans="1:16" ht="60.6" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>23</v>
@@ -8864,13 +8868,13 @@
         <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M5" s="32" t="s">
         <v>32</v>
@@ -8917,7 +8921,7 @@
         <v>43977</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L6" s="154">
         <v>43978</v>
@@ -8961,7 +8965,7 @@
         <v>43979</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L7" s="154">
         <v>43979</v>
@@ -9005,7 +9009,7 @@
         <v>43980</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L8" s="154">
         <v>43984</v>
@@ -9042,15 +9046,15 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" style="29" customWidth="1"/>
-    <col min="4" max="14" width="33.453125" style="29" customWidth="1"/>
-    <col min="15" max="15" width="61.54296875" style="31" customWidth="1"/>
-    <col min="16" max="16" width="68.7265625" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="12"/>
+    <col min="1" max="1" width="32.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="29" customWidth="1"/>
+    <col min="4" max="14" width="33.42578125" style="29" customWidth="1"/>
+    <col min="15" max="15" width="61.5703125" style="31" customWidth="1"/>
+    <col min="16" max="16" width="68.7109375" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="15" customHeight="1">
@@ -9297,7 +9301,7 @@
       <c r="BY3" s="11"/>
       <c r="BZ3" s="11"/>
     </row>
-    <row r="4" spans="1:78" ht="26">
+    <row r="4" spans="1:78" ht="26.25">
       <c r="A4" s="13"/>
       <c r="B4" s="212"/>
       <c r="C4" s="180"/>
@@ -9404,10 +9408,10 @@
         <v>30</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>31</v>
@@ -9487,7 +9491,7 @@
       <c r="BY5" s="11"/>
       <c r="BZ5" s="11"/>
     </row>
-    <row r="6" spans="1:78" ht="87">
+    <row r="6" spans="1:78" ht="90">
       <c r="A6" s="184" t="s">
         <v>36</v>
       </c>
@@ -9520,7 +9524,7 @@
         <v>43979</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M6" s="213" t="s">
         <v>43</v>
@@ -9595,7 +9599,7 @@
       <c r="BY6" s="11"/>
       <c r="BZ6" s="11"/>
     </row>
-    <row r="7" spans="1:78" ht="116">
+    <row r="7" spans="1:78" ht="120">
       <c r="A7" s="184"/>
       <c r="B7" s="18" t="s">
         <v>37</v>
@@ -9613,7 +9617,7 @@
         <v>49</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H7" s="24">
         <v>3</v>
@@ -9626,7 +9630,7 @@
         <v>43984</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M7" s="214"/>
       <c r="N7" s="19"/>
@@ -9699,7 +9703,7 @@
       <c r="BY7" s="11"/>
       <c r="BZ7" s="11"/>
     </row>
-    <row r="8" spans="1:78" ht="116">
+    <row r="8" spans="1:78" ht="120">
       <c r="A8" s="184"/>
       <c r="B8" s="18" t="s">
         <v>37</v>
@@ -9717,7 +9721,7 @@
         <v>56</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H8" s="24">
         <v>3</v>
@@ -9730,7 +9734,7 @@
         <v>43989</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M8" s="214"/>
       <c r="N8" s="19"/>
@@ -14642,14 +14646,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="3" width="33.7265625" customWidth="1"/>
-    <col min="4" max="4" width="31.7265625" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
@@ -14663,7 +14667,7 @@
       <c r="F1" s="191"/>
       <c r="G1" s="191"/>
     </row>
-    <row r="2" spans="1:11" ht="18.5">
+    <row r="2" spans="1:11" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -14686,7 +14690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.5">
+    <row r="3" spans="1:11" ht="45">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -14703,7 +14707,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="87">
+    <row r="4" spans="1:11" ht="105">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -14722,7 +14726,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="87">
+    <row r="5" spans="1:11" ht="105">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -14788,7 +14792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14801,7 +14805,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14814,7 +14818,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14827,7 +14831,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14840,7 +14844,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="10" style="141"/>
   </cols>
@@ -14856,7 +14860,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="10" style="141"/>
   </cols>
@@ -14874,15 +14878,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="141" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" style="141" customWidth="1"/>
-    <col min="3" max="3" width="30.26953125" style="141" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" style="141" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="141" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="141" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="141" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="141" customWidth="1"/>
     <col min="5" max="5" width="21" style="141" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="141" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" style="141" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="141" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="141" customWidth="1"/>
     <col min="8" max="16384" width="10" style="141"/>
   </cols>
   <sheetData>
@@ -14925,59 +14929,59 @@
         <v>1</v>
       </c>
       <c r="B3" s="147" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C3" s="148" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D3" s="147"/>
       <c r="E3" s="147" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="146">
         <v>2</v>
       </c>
       <c r="B4" s="147" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C4" s="148" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D4" s="146"/>
       <c r="E4" s="147" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="146">
         <v>3</v>
       </c>
       <c r="B5" s="147" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C5" s="148" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D5" s="149"/>
       <c r="E5" s="147" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="29">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="146">
         <v>4</v>
       </c>
       <c r="B6" s="147" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C6" s="148" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D6" s="147"/>
       <c r="E6" s="147" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -14999,26 +15003,26 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:BZ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="141" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="141" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="141" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="141" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="141" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="141" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="141" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="141" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="141" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="141" customWidth="1"/>
     <col min="6" max="6" width="16" style="141" customWidth="1"/>
-    <col min="7" max="7" width="28.54296875" style="141" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="141" customWidth="1"/>
     <col min="8" max="8" width="10" style="141"/>
-    <col min="9" max="9" width="9.54296875" style="141" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" style="141" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="141" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="141" customWidth="1"/>
     <col min="11" max="12" width="10" style="141" customWidth="1"/>
     <col min="13" max="14" width="10" style="141"/>
-    <col min="15" max="15" width="44.7265625" style="141" customWidth="1"/>
-    <col min="16" max="16" width="50.26953125" style="141" customWidth="1"/>
+    <col min="15" max="15" width="44.7109375" style="141" customWidth="1"/>
+    <col min="16" max="16" width="50.28515625" style="141" customWidth="1"/>
     <col min="17" max="16384" width="10" style="141"/>
   </cols>
   <sheetData>
@@ -15266,7 +15270,7 @@
       <c r="BY3" s="129"/>
       <c r="BZ3" s="129"/>
     </row>
-    <row r="4" spans="1:78" s="130" customFormat="1" ht="26">
+    <row r="4" spans="1:78" s="130" customFormat="1" ht="26.25">
       <c r="A4" s="131"/>
       <c r="B4" s="171"/>
       <c r="C4" s="171"/>
@@ -15373,10 +15377,10 @@
         <v>30</v>
       </c>
       <c r="J5" s="134" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K5" s="134" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L5" s="134" t="s">
         <v>31</v>
@@ -15464,19 +15468,19 @@
         <v>37</v>
       </c>
       <c r="C6" s="137" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D6" s="137" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E6" s="137" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F6" s="137" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="137" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H6" s="137">
         <v>3</v>
@@ -15489,17 +15493,17 @@
         <v>43980</v>
       </c>
       <c r="L6" s="138" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M6" s="137" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N6" s="137"/>
       <c r="O6" s="139" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P6" s="140" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q6" s="129"/>
       <c r="R6" s="129"/>
@@ -15566,25 +15570,25 @@
     </row>
     <row r="7" spans="1:78" s="130" customFormat="1" ht="129" customHeight="1">
       <c r="A7" s="132" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B7" s="136" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F7" s="137" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="137" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H7" s="137">
         <v>2</v>
@@ -15597,17 +15601,17 @@
         <v>43984</v>
       </c>
       <c r="L7" s="138" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M7" s="137" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N7" s="137"/>
       <c r="O7" s="139" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P7" s="140" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="129"/>
       <c r="R7" s="129"/>
@@ -15691,15 +15695,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.7265625" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" customWidth="1"/>
-    <col min="5" max="5" width="29.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1">
@@ -15741,74 +15745,74 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="47.15" customHeight="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="47.1" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="55" customHeight="1">
+    </row>
+    <row r="6" spans="1:7" ht="54.95" customHeight="1">
       <c r="A6" s="120">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="52" customHeight="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51.95" customHeight="1">
       <c r="A7" s="121">
         <v>5</v>
       </c>
       <c r="B7" s="122" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C7" s="123"/>
       <c r="D7" s="122" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E7" s="124" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="46.5" customHeight="1">
@@ -15816,14 +15820,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="126" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C8" s="126"/>
       <c r="D8" s="127" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E8" s="127" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1">
@@ -15831,14 +15835,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C9" s="126"/>
       <c r="D9" s="127" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E9" s="127" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:7">
